--- a/Market Fundamentals/Entsoe_data/Entsoe_data.xlsx
+++ b/Market Fundamentals/Entsoe_data/Entsoe_data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/Market Fundamentals/Entsoe_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921EDFC2BC9B819576C5EDA859BC57B280D6B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90739BBF-C29D-438A-97A1-337D9C680ECA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -70,29 +76,137 @@
     <t>Wind Onshore</t>
   </si>
   <si>
-    <t>14.04.2024</t>
+    <t>17.04.2024</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>58</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>141</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +270,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +322,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -234,6 +356,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -268,9 +391,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -443,17 +567,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -522,50 +665,41 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
-        <v>1543.72</v>
-      </c>
-      <c r="F2">
-        <v>1543.72</v>
-      </c>
-      <c r="G2">
-        <v>-63</v>
-      </c>
       <c r="H2">
-        <v>5239</v>
+        <v>5603</v>
       </c>
       <c r="I2">
-        <v>4050</v>
+        <v>5779</v>
       </c>
       <c r="J2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="L2">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N2">
-        <v>1119</v>
+        <v>1037</v>
       </c>
       <c r="O2">
-        <v>551</v>
+        <v>884</v>
       </c>
       <c r="P2">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -573,55 +707,46 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1130.68</v>
-      </c>
-      <c r="F3">
-        <v>1130.68</v>
-      </c>
-      <c r="G3">
-        <v>-34</v>
-      </c>
       <c r="H3">
-        <v>5119</v>
+        <v>5577</v>
       </c>
       <c r="I3">
-        <v>4050</v>
+        <v>5778</v>
       </c>
       <c r="J3">
         <v>51</v>
       </c>
       <c r="K3">
-        <v>587</v>
+        <v>641</v>
       </c>
       <c r="L3">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N3">
-        <v>1094</v>
+        <v>1009</v>
       </c>
       <c r="O3">
-        <v>519</v>
+        <v>881</v>
       </c>
       <c r="P3">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -629,55 +754,46 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>783.27</v>
-      </c>
-      <c r="F4">
-        <v>783.27</v>
-      </c>
-      <c r="G4">
-        <v>-25</v>
-      </c>
       <c r="H4">
-        <v>5100</v>
+        <v>5518</v>
       </c>
       <c r="I4">
-        <v>4050</v>
+        <v>5777</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>580</v>
+        <v>677</v>
       </c>
       <c r="L4">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N4">
-        <v>1094</v>
+        <v>1013</v>
       </c>
       <c r="O4">
-        <v>510</v>
+        <v>866</v>
       </c>
       <c r="P4">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -685,55 +801,46 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>-2500</v>
-      </c>
-      <c r="F5">
-        <v>670.65</v>
-      </c>
-      <c r="G5">
-        <v>-5</v>
-      </c>
       <c r="H5">
-        <v>4967</v>
+        <v>5447</v>
       </c>
       <c r="I5">
-        <v>4050</v>
+        <v>5780</v>
       </c>
       <c r="J5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>564</v>
+        <v>669</v>
       </c>
       <c r="L5">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>1093</v>
+        <v>1009</v>
       </c>
       <c r="O5">
-        <v>456</v>
+        <v>818</v>
       </c>
       <c r="P5">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -741,55 +848,46 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1617.42</v>
-      </c>
-      <c r="F6">
-        <v>1617.42</v>
-      </c>
-      <c r="G6">
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="H6">
-        <v>4940</v>
+        <v>5406</v>
       </c>
       <c r="I6">
-        <v>4019</v>
+        <v>5833</v>
       </c>
       <c r="J6">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K6">
-        <v>579</v>
+        <v>674</v>
       </c>
       <c r="L6">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>1089</v>
+        <v>989</v>
       </c>
       <c r="O6">
-        <v>521</v>
+        <v>854</v>
       </c>
       <c r="P6">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -797,55 +895,46 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1046.34</v>
-      </c>
-      <c r="F7">
-        <v>1046.34</v>
-      </c>
-      <c r="G7">
-        <v>-17</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>4876</v>
+        <v>5365</v>
       </c>
       <c r="I7">
-        <v>4020</v>
+        <v>5833</v>
       </c>
       <c r="J7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>586</v>
+        <v>671</v>
       </c>
       <c r="L7">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N7">
-        <v>1085</v>
+        <v>989</v>
       </c>
       <c r="O7">
-        <v>518</v>
+        <v>834</v>
       </c>
       <c r="P7">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -853,46 +942,46 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>4830</v>
+        <v>5399</v>
       </c>
       <c r="I8">
-        <v>4020</v>
+        <v>5834</v>
       </c>
       <c r="J8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>581</v>
+        <v>670</v>
       </c>
       <c r="L8">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N8">
-        <v>1086</v>
+        <v>989</v>
       </c>
       <c r="O8">
-        <v>509</v>
+        <v>841</v>
       </c>
       <c r="P8">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -900,55 +989,46 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>-3200</v>
-      </c>
-      <c r="F9">
-        <v>3000</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>4799</v>
+        <v>5260</v>
       </c>
       <c r="I9">
-        <v>4021</v>
+        <v>5834</v>
       </c>
       <c r="J9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="L9">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N9">
-        <v>1086</v>
+        <v>990</v>
       </c>
       <c r="O9">
-        <v>474</v>
+        <v>796</v>
       </c>
       <c r="P9">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -956,55 +1036,46 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <v>-2763.22</v>
-      </c>
-      <c r="F10">
-        <v>-2763.22</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H10">
-        <v>4715</v>
+        <v>5281</v>
       </c>
       <c r="I10">
-        <v>3773</v>
+        <v>5787</v>
       </c>
       <c r="J10">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>461</v>
+        <v>663</v>
       </c>
       <c r="L10">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="N10">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="O10">
-        <v>449</v>
+        <v>828</v>
       </c>
       <c r="P10">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1012,55 +1083,46 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>-2604.07</v>
-      </c>
-      <c r="F11">
-        <v>-2604.07</v>
-      </c>
-      <c r="G11">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="H11">
-        <v>4734</v>
+        <v>5278</v>
       </c>
       <c r="I11">
-        <v>3774</v>
+        <v>5787</v>
       </c>
       <c r="J11">
         <v>48</v>
       </c>
       <c r="K11">
-        <v>436</v>
+        <v>674</v>
       </c>
       <c r="L11">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N11">
-        <v>967</v>
+        <v>990</v>
       </c>
       <c r="O11">
-        <v>450</v>
+        <v>843</v>
       </c>
       <c r="P11">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1068,55 +1130,46 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>-2500</v>
-      </c>
-      <c r="F12">
-        <v>-2500</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>4674</v>
+        <v>5286</v>
       </c>
       <c r="I12">
-        <v>3775</v>
+        <v>5788</v>
       </c>
       <c r="J12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
+        <v>677</v>
+      </c>
+      <c r="L12">
         <v>427</v>
       </c>
-      <c r="L12">
-        <v>378</v>
-      </c>
       <c r="M12">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N12">
-        <v>966</v>
+        <v>991</v>
       </c>
       <c r="O12">
-        <v>429</v>
+        <v>861</v>
       </c>
       <c r="P12">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1124,55 +1177,46 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13">
-        <v>-2500</v>
-      </c>
-      <c r="F13">
-        <v>-2500</v>
-      </c>
-      <c r="G13">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>4688</v>
+        <v>5194</v>
       </c>
       <c r="I13">
-        <v>3776</v>
+        <v>5788</v>
       </c>
       <c r="J13">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>427</v>
+        <v>663</v>
       </c>
       <c r="L13">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N13">
-        <v>966</v>
+        <v>991</v>
       </c>
       <c r="O13">
-        <v>427</v>
+        <v>827</v>
       </c>
       <c r="P13">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1180,55 +1224,46 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>3526.88</v>
-      </c>
-      <c r="F14">
-        <v>3526.88</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>4643</v>
+        <v>5149</v>
       </c>
       <c r="I14">
-        <v>3690</v>
+        <v>5715</v>
       </c>
       <c r="J14">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>444</v>
+        <v>661</v>
       </c>
       <c r="L14">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N14">
-        <v>970</v>
+        <v>943</v>
       </c>
       <c r="O14">
-        <v>337</v>
+        <v>780</v>
       </c>
       <c r="P14">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1236,55 +1271,46 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15">
-        <v>-3924.1</v>
-      </c>
-      <c r="F15">
-        <v>-3924.1</v>
-      </c>
-      <c r="G15">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H15">
-        <v>4593</v>
+        <v>5238</v>
       </c>
       <c r="I15">
-        <v>3691</v>
+        <v>5716</v>
       </c>
       <c r="J15">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>435</v>
+        <v>664</v>
       </c>
       <c r="L15">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N15">
-        <v>968</v>
+        <v>934</v>
       </c>
       <c r="O15">
-        <v>321</v>
+        <v>775</v>
       </c>
       <c r="P15">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1292,46 +1318,46 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>4644</v>
+        <v>5251</v>
       </c>
       <c r="I16">
-        <v>3692</v>
+        <v>5717</v>
       </c>
       <c r="J16">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>443</v>
+        <v>656</v>
       </c>
       <c r="L16">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N16">
-        <v>967</v>
+        <v>926</v>
       </c>
       <c r="O16">
-        <v>332</v>
+        <v>735</v>
       </c>
       <c r="P16">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1339,55 +1365,46 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17">
-        <v>-3312.66</v>
-      </c>
-      <c r="F17">
-        <v>-3312.66</v>
-      </c>
-      <c r="G17">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>4609</v>
+        <v>5220</v>
       </c>
       <c r="I17">
-        <v>3693</v>
+        <v>5717</v>
       </c>
       <c r="J17">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K17">
-        <v>434</v>
+        <v>654</v>
       </c>
       <c r="L17">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N17">
-        <v>966</v>
+        <v>926</v>
       </c>
       <c r="O17">
-        <v>315</v>
+        <v>733</v>
       </c>
       <c r="P17">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1395,55 +1412,46 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>2598.27</v>
-      </c>
-      <c r="F18">
-        <v>2598.27</v>
-      </c>
-      <c r="G18">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="H18">
-        <v>4632</v>
+        <v>5247</v>
       </c>
       <c r="I18">
-        <v>3723</v>
+        <v>5704</v>
       </c>
       <c r="J18">
         <v>50</v>
       </c>
       <c r="K18">
-        <v>445</v>
+        <v>659</v>
       </c>
       <c r="L18">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N18">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="O18">
-        <v>336</v>
+        <v>772</v>
       </c>
       <c r="P18">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1451,55 +1459,46 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>-2500</v>
-      </c>
-      <c r="F19">
-        <v>2500</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>4568</v>
+        <v>5189</v>
       </c>
       <c r="I19">
-        <v>3723</v>
+        <v>5705</v>
       </c>
       <c r="J19">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>439</v>
+        <v>649</v>
       </c>
       <c r="L19">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N19">
-        <v>967</v>
+        <v>942</v>
       </c>
       <c r="O19">
-        <v>322</v>
+        <v>775</v>
       </c>
       <c r="P19">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1507,55 +1506,46 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20">
-        <v>2567.08</v>
-      </c>
-      <c r="F20">
-        <v>2567.08</v>
-      </c>
-      <c r="G20">
-        <v>-12</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>4656</v>
+        <v>5253</v>
       </c>
       <c r="I20">
-        <v>3723</v>
+        <v>5705</v>
       </c>
       <c r="J20">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>446</v>
+        <v>656</v>
       </c>
       <c r="L20">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N20">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="O20">
-        <v>343</v>
+        <v>783</v>
       </c>
       <c r="P20">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1563,55 +1553,46 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>-2500</v>
-      </c>
-      <c r="F21">
-        <v>2500</v>
-      </c>
-      <c r="G21">
-        <v>-7</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>4631</v>
+        <v>5297</v>
       </c>
       <c r="I21">
-        <v>3724</v>
+        <v>5705</v>
       </c>
       <c r="J21">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>443</v>
+        <v>667</v>
       </c>
       <c r="L21">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N21">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="O21">
-        <v>328</v>
+        <v>792</v>
       </c>
       <c r="P21">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1619,55 +1600,46 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>3096.08</v>
-      </c>
-      <c r="F22">
-        <v>3096.08</v>
-      </c>
-      <c r="G22">
-        <v>-6</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>4580</v>
+        <v>5300</v>
       </c>
       <c r="I22">
-        <v>3873</v>
+        <v>5743</v>
       </c>
       <c r="J22">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>444</v>
+        <v>689</v>
       </c>
       <c r="L22">
-        <v>370</v>
+        <v>435</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N22">
-        <v>1049</v>
+        <v>987</v>
       </c>
       <c r="O22">
-        <v>342</v>
+        <v>870</v>
       </c>
       <c r="P22">
-        <v>1387</v>
+        <v>1379</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1675,55 +1647,46 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23">
-        <v>3732.48</v>
-      </c>
-      <c r="F23">
-        <v>3732.48</v>
-      </c>
-      <c r="G23">
-        <v>-13</v>
+        <v>28</v>
       </c>
       <c r="H23">
-        <v>4618</v>
+        <v>5404</v>
       </c>
       <c r="I23">
-        <v>3873</v>
+        <v>5742</v>
       </c>
       <c r="J23">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>440</v>
+        <v>711</v>
       </c>
       <c r="L23">
-        <v>369</v>
+        <v>465</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N23">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="O23">
-        <v>338</v>
+        <v>1340</v>
       </c>
       <c r="P23">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1731,46 +1694,46 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>4613</v>
+        <v>5392</v>
       </c>
       <c r="I24">
-        <v>3873</v>
+        <v>5741</v>
       </c>
       <c r="J24">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>441</v>
+        <v>693</v>
       </c>
       <c r="L24">
-        <v>371</v>
+        <v>462</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="N24">
-        <v>1052</v>
+        <v>1025</v>
       </c>
       <c r="O24">
-        <v>342</v>
+        <v>1571</v>
       </c>
       <c r="P24">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1778,43 +1741,3985 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>4730</v>
+        <v>5525</v>
       </c>
       <c r="I25">
-        <v>3873</v>
+        <v>5740</v>
       </c>
       <c r="J25">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>466</v>
+        <v>709</v>
       </c>
       <c r="L25">
-        <v>375</v>
+        <v>464</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="N25">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="O25">
-        <v>451</v>
+        <v>1592</v>
       </c>
       <c r="P25">
-        <v>1386</v>
+        <v>1378</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>152</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>5639</v>
+      </c>
+      <c r="I26">
+        <v>6006</v>
+      </c>
+      <c r="J26">
+        <v>51</v>
+      </c>
+      <c r="K26">
+        <v>689</v>
+      </c>
+      <c r="L26">
+        <v>460</v>
+      </c>
+      <c r="M26">
+        <v>96</v>
+      </c>
+      <c r="N26">
+        <v>1078</v>
+      </c>
+      <c r="O26">
+        <v>1643</v>
+      </c>
+      <c r="P26">
+        <v>1378</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27">
+        <v>5713</v>
+      </c>
+      <c r="I27">
+        <v>6005</v>
+      </c>
+      <c r="J27">
+        <v>49</v>
+      </c>
+      <c r="K27">
+        <v>671</v>
+      </c>
+      <c r="L27">
+        <v>459</v>
+      </c>
+      <c r="M27">
+        <v>110</v>
+      </c>
+      <c r="N27">
+        <v>1082</v>
+      </c>
+      <c r="O27">
+        <v>1579</v>
+      </c>
+      <c r="P27">
+        <v>1379</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28">
+        <v>5729</v>
+      </c>
+      <c r="I28">
+        <v>6004</v>
+      </c>
+      <c r="J28">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>685</v>
+      </c>
+      <c r="L28">
+        <v>470</v>
+      </c>
+      <c r="M28">
+        <v>116</v>
+      </c>
+      <c r="N28">
+        <v>1081</v>
+      </c>
+      <c r="O28">
+        <v>1312</v>
+      </c>
+      <c r="P28">
+        <v>1379</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29">
+        <v>5896</v>
+      </c>
+      <c r="I29">
+        <v>6004</v>
+      </c>
+      <c r="J29">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>722</v>
+      </c>
+      <c r="L29">
+        <v>475</v>
+      </c>
+      <c r="M29">
+        <v>116</v>
+      </c>
+      <c r="N29">
+        <v>1085</v>
+      </c>
+      <c r="O29">
+        <v>1299</v>
+      </c>
+      <c r="P29">
+        <v>1379</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30">
+        <v>6144</v>
+      </c>
+      <c r="I30">
+        <v>6450</v>
+      </c>
+      <c r="J30">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>700</v>
+      </c>
+      <c r="L30">
+        <v>476</v>
+      </c>
+      <c r="M30">
+        <v>116</v>
+      </c>
+      <c r="N30">
+        <v>1336</v>
+      </c>
+      <c r="O30">
+        <v>1239</v>
+      </c>
+      <c r="P30">
+        <v>1379</v>
+      </c>
+      <c r="Q30">
+        <v>18</v>
+      </c>
+      <c r="R30">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31">
+        <v>6329</v>
+      </c>
+      <c r="I31">
+        <v>6450</v>
+      </c>
+      <c r="J31">
+        <v>53</v>
+      </c>
+      <c r="K31">
+        <v>708</v>
+      </c>
+      <c r="L31">
+        <v>479</v>
+      </c>
+      <c r="M31">
+        <v>116</v>
+      </c>
+      <c r="N31">
+        <v>1523</v>
+      </c>
+      <c r="O31">
+        <v>1291</v>
+      </c>
+      <c r="P31">
+        <v>1379</v>
+      </c>
+      <c r="Q31">
+        <v>31</v>
+      </c>
+      <c r="R31">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <v>6433</v>
+      </c>
+      <c r="I32">
+        <v>6450</v>
+      </c>
+      <c r="J32">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>703</v>
+      </c>
+      <c r="L32">
+        <v>481</v>
+      </c>
+      <c r="M32">
+        <v>116</v>
+      </c>
+      <c r="N32">
+        <v>1591</v>
+      </c>
+      <c r="O32">
+        <v>1541</v>
+      </c>
+      <c r="P32">
+        <v>1378</v>
+      </c>
+      <c r="Q32">
+        <v>62</v>
+      </c>
+      <c r="R32">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33">
+        <v>6577</v>
+      </c>
+      <c r="I33">
+        <v>6451</v>
+      </c>
+      <c r="J33">
+        <v>53</v>
+      </c>
+      <c r="K33">
+        <v>716</v>
+      </c>
+      <c r="L33">
+        <v>482</v>
+      </c>
+      <c r="M33">
+        <v>116</v>
+      </c>
+      <c r="N33">
+        <v>1599</v>
+      </c>
+      <c r="O33">
+        <v>1721</v>
+      </c>
+      <c r="P33">
+        <v>1378</v>
+      </c>
+      <c r="Q33">
+        <v>88</v>
+      </c>
+      <c r="R33">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34">
+        <v>6653</v>
+      </c>
+      <c r="I34">
+        <v>6281</v>
+      </c>
+      <c r="J34">
+        <v>54</v>
+      </c>
+      <c r="K34">
+        <v>681</v>
+      </c>
+      <c r="L34">
+        <v>472</v>
+      </c>
+      <c r="M34">
+        <v>116</v>
+      </c>
+      <c r="N34">
+        <v>1586</v>
+      </c>
+      <c r="O34">
+        <v>1602</v>
+      </c>
+      <c r="P34">
+        <v>1380</v>
+      </c>
+      <c r="Q34">
+        <v>114</v>
+      </c>
+      <c r="R34">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35">
+        <v>6765</v>
+      </c>
+      <c r="I35">
+        <v>6289</v>
+      </c>
+      <c r="J35">
+        <v>54</v>
+      </c>
+      <c r="K35">
+        <v>692</v>
+      </c>
+      <c r="L35">
+        <v>477</v>
+      </c>
+      <c r="M35">
+        <v>116</v>
+      </c>
+      <c r="N35">
+        <v>1584</v>
+      </c>
+      <c r="O35">
+        <v>1656</v>
+      </c>
+      <c r="P35">
+        <v>1380</v>
+      </c>
+      <c r="Q35">
+        <v>132</v>
+      </c>
+      <c r="R35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36">
+        <v>975.42</v>
+      </c>
+      <c r="F36">
+        <v>975.42</v>
+      </c>
+      <c r="G36">
+        <v>-178</v>
+      </c>
+      <c r="H36">
+        <v>6882</v>
+      </c>
+      <c r="I36">
+        <v>6299</v>
+      </c>
+      <c r="J36">
+        <v>53</v>
+      </c>
+      <c r="K36">
+        <v>698</v>
+      </c>
+      <c r="L36">
+        <v>480</v>
+      </c>
+      <c r="M36">
+        <v>116</v>
+      </c>
+      <c r="N36">
+        <v>1580</v>
+      </c>
+      <c r="O36">
+        <v>1504</v>
+      </c>
+      <c r="P36">
+        <v>1380</v>
+      </c>
+      <c r="Q36">
+        <v>177</v>
+      </c>
+      <c r="R36">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <v>1090.3800000000001</v>
+      </c>
+      <c r="F37">
+        <v>1090.3800000000001</v>
+      </c>
+      <c r="G37">
+        <v>-125</v>
+      </c>
+      <c r="H37">
+        <v>6816</v>
+      </c>
+      <c r="I37">
+        <v>6308</v>
+      </c>
+      <c r="J37">
+        <v>54</v>
+      </c>
+      <c r="K37">
+        <v>692</v>
+      </c>
+      <c r="L37">
+        <v>476</v>
+      </c>
+      <c r="M37">
+        <v>116</v>
+      </c>
+      <c r="N37">
+        <v>1543</v>
+      </c>
+      <c r="O37">
+        <v>1474</v>
+      </c>
+      <c r="P37">
+        <v>1381</v>
+      </c>
+      <c r="Q37">
+        <v>210</v>
+      </c>
+      <c r="R37">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>1076.8399999999999</v>
+      </c>
+      <c r="F38">
+        <v>1076.8399999999999</v>
+      </c>
+      <c r="G38">
+        <v>-90</v>
+      </c>
+      <c r="H38">
+        <v>6832</v>
+      </c>
+      <c r="I38">
+        <v>6182</v>
+      </c>
+      <c r="J38">
+        <v>52</v>
+      </c>
+      <c r="K38">
+        <v>689</v>
+      </c>
+      <c r="L38">
+        <v>464</v>
+      </c>
+      <c r="M38">
+        <v>117</v>
+      </c>
+      <c r="N38">
+        <v>1430</v>
+      </c>
+      <c r="O38">
+        <v>1450</v>
+      </c>
+      <c r="P38">
+        <v>1381</v>
+      </c>
+      <c r="Q38">
+        <v>197</v>
+      </c>
+      <c r="R38">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>980.78</v>
+      </c>
+      <c r="F39">
+        <v>980.78</v>
+      </c>
+      <c r="G39">
+        <v>-109</v>
+      </c>
+      <c r="H39">
+        <v>6845</v>
+      </c>
+      <c r="I39">
+        <v>6197</v>
+      </c>
+      <c r="J39">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>693</v>
+      </c>
+      <c r="L39">
+        <v>465</v>
+      </c>
+      <c r="M39">
+        <v>116</v>
+      </c>
+      <c r="N39">
+        <v>1402</v>
+      </c>
+      <c r="O39">
+        <v>1441</v>
+      </c>
+      <c r="P39">
+        <v>1380</v>
+      </c>
+      <c r="Q39">
+        <v>185</v>
+      </c>
+      <c r="R39">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40">
+        <v>990.44</v>
+      </c>
+      <c r="F40">
+        <v>990.44</v>
+      </c>
+      <c r="G40">
+        <v>-114</v>
+      </c>
+      <c r="H40">
+        <v>6954</v>
+      </c>
+      <c r="I40">
+        <v>6211</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>694</v>
+      </c>
+      <c r="L40">
+        <v>465</v>
+      </c>
+      <c r="M40">
+        <v>116</v>
+      </c>
+      <c r="N40">
+        <v>1406</v>
+      </c>
+      <c r="O40">
+        <v>1342</v>
+      </c>
+      <c r="P40">
+        <v>1381</v>
+      </c>
+      <c r="Q40">
+        <v>190</v>
+      </c>
+      <c r="R40">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41">
+        <v>1035.67</v>
+      </c>
+      <c r="F41">
+        <v>1035.67</v>
+      </c>
+      <c r="G41">
+        <v>-122</v>
+      </c>
+      <c r="H41">
+        <v>6983</v>
+      </c>
+      <c r="I41">
+        <v>6223</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>696</v>
+      </c>
+      <c r="L41">
+        <v>465</v>
+      </c>
+      <c r="M41">
+        <v>117</v>
+      </c>
+      <c r="N41">
+        <v>1407</v>
+      </c>
+      <c r="O41">
+        <v>1335</v>
+      </c>
+      <c r="P41">
+        <v>1381</v>
+      </c>
+      <c r="Q41">
+        <v>190</v>
+      </c>
+      <c r="R41">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>892.92</v>
+      </c>
+      <c r="F42">
+        <v>892.92</v>
+      </c>
+      <c r="G42">
+        <v>-102</v>
+      </c>
+      <c r="H42">
+        <v>6890</v>
+      </c>
+      <c r="I42">
+        <v>5960</v>
+      </c>
+      <c r="J42">
+        <v>51</v>
+      </c>
+      <c r="K42">
+        <v>692</v>
+      </c>
+      <c r="L42">
+        <v>463</v>
+      </c>
+      <c r="M42">
+        <v>106</v>
+      </c>
+      <c r="N42">
+        <v>1273</v>
+      </c>
+      <c r="O42">
+        <v>1297</v>
+      </c>
+      <c r="P42">
+        <v>1381</v>
+      </c>
+      <c r="Q42">
+        <v>231</v>
+      </c>
+      <c r="R42">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43">
+        <v>892.42</v>
+      </c>
+      <c r="F43">
+        <v>892.42</v>
+      </c>
+      <c r="G43">
+        <v>-115</v>
+      </c>
+      <c r="H43">
+        <v>6915</v>
+      </c>
+      <c r="I43">
+        <v>5968</v>
+      </c>
+      <c r="J43">
+        <v>51</v>
+      </c>
+      <c r="K43">
+        <v>694</v>
+      </c>
+      <c r="L43">
+        <v>465</v>
+      </c>
+      <c r="M43">
+        <v>87</v>
+      </c>
+      <c r="N43">
+        <v>1222</v>
+      </c>
+      <c r="O43">
+        <v>1294</v>
+      </c>
+      <c r="P43">
+        <v>1381</v>
+      </c>
+      <c r="Q43">
+        <v>259</v>
+      </c>
+      <c r="R43">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44">
+        <v>883.81</v>
+      </c>
+      <c r="F44">
+        <v>883.81</v>
+      </c>
+      <c r="G44">
+        <v>-111</v>
+      </c>
+      <c r="H44">
+        <v>6922</v>
+      </c>
+      <c r="I44">
+        <v>5978</v>
+      </c>
+      <c r="J44">
+        <v>51</v>
+      </c>
+      <c r="K44">
+        <v>697</v>
+      </c>
+      <c r="L44">
+        <v>468</v>
+      </c>
+      <c r="M44">
+        <v>85</v>
+      </c>
+      <c r="N44">
+        <v>1225</v>
+      </c>
+      <c r="O44">
+        <v>1302</v>
+      </c>
+      <c r="P44">
+        <v>1371</v>
+      </c>
+      <c r="Q44">
+        <v>233</v>
+      </c>
+      <c r="R44">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <v>854.71</v>
+      </c>
+      <c r="F45">
+        <v>854.71</v>
+      </c>
+      <c r="G45">
+        <v>-147</v>
+      </c>
+      <c r="H45">
+        <v>6983</v>
+      </c>
+      <c r="I45">
+        <v>5985</v>
+      </c>
+      <c r="J45">
+        <v>52</v>
+      </c>
+      <c r="K45">
+        <v>696</v>
+      </c>
+      <c r="L45">
+        <v>472</v>
+      </c>
+      <c r="M45">
+        <v>84</v>
+      </c>
+      <c r="N45">
+        <v>1227</v>
+      </c>
+      <c r="O45">
+        <v>1301</v>
+      </c>
+      <c r="P45">
+        <v>1337</v>
+      </c>
+      <c r="Q45">
+        <v>245</v>
+      </c>
+      <c r="R45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>974.13</v>
+      </c>
+      <c r="F46">
+        <v>974.13</v>
+      </c>
+      <c r="G46">
+        <v>-117</v>
+      </c>
+      <c r="H46">
+        <v>6881</v>
+      </c>
+      <c r="I46">
+        <v>5857</v>
+      </c>
+      <c r="J46">
+        <v>53</v>
+      </c>
+      <c r="K46">
+        <v>706</v>
+      </c>
+      <c r="L46">
+        <v>473</v>
+      </c>
+      <c r="M46">
+        <v>84</v>
+      </c>
+      <c r="N46">
+        <v>1234</v>
+      </c>
+      <c r="O46">
+        <v>1253</v>
+      </c>
+      <c r="P46">
+        <v>1334</v>
+      </c>
+      <c r="Q46">
+        <v>264</v>
+      </c>
+      <c r="R46">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>975.82</v>
+      </c>
+      <c r="F47">
+        <v>975.82</v>
+      </c>
+      <c r="G47">
+        <v>-154</v>
+      </c>
+      <c r="H47">
+        <v>6979</v>
+      </c>
+      <c r="I47">
+        <v>5863</v>
+      </c>
+      <c r="J47">
+        <v>53</v>
+      </c>
+      <c r="K47">
+        <v>701</v>
+      </c>
+      <c r="L47">
+        <v>471</v>
+      </c>
+      <c r="M47">
+        <v>83</v>
+      </c>
+      <c r="N47">
+        <v>1220</v>
+      </c>
+      <c r="O47">
+        <v>1251</v>
+      </c>
+      <c r="P47">
+        <v>1334</v>
+      </c>
+      <c r="Q47">
+        <v>274</v>
+      </c>
+      <c r="R47">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48">
+        <v>894.12</v>
+      </c>
+      <c r="F48">
+        <v>894.12</v>
+      </c>
+      <c r="G48">
+        <v>-133</v>
+      </c>
+      <c r="H48">
+        <v>6910</v>
+      </c>
+      <c r="I48">
+        <v>5872</v>
+      </c>
+      <c r="J48">
+        <v>52</v>
+      </c>
+      <c r="K48">
+        <v>697</v>
+      </c>
+      <c r="L48">
+        <v>470</v>
+      </c>
+      <c r="M48">
+        <v>83</v>
+      </c>
+      <c r="N48">
+        <v>1252</v>
+      </c>
+      <c r="O48">
+        <v>1279</v>
+      </c>
+      <c r="P48">
+        <v>1334</v>
+      </c>
+      <c r="Q48">
+        <v>293</v>
+      </c>
+      <c r="R48">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>990.54</v>
+      </c>
+      <c r="F49">
+        <v>990.54</v>
+      </c>
+      <c r="G49">
+        <v>-120</v>
+      </c>
+      <c r="H49">
+        <v>6901</v>
+      </c>
+      <c r="I49">
+        <v>5877</v>
+      </c>
+      <c r="J49">
+        <v>54</v>
+      </c>
+      <c r="K49">
+        <v>692</v>
+      </c>
+      <c r="L49">
+        <v>467</v>
+      </c>
+      <c r="M49">
+        <v>83</v>
+      </c>
+      <c r="N49">
+        <v>1256</v>
+      </c>
+      <c r="O49">
+        <v>1262</v>
+      </c>
+      <c r="P49">
+        <v>1336</v>
+      </c>
+      <c r="Q49">
+        <v>320</v>
+      </c>
+      <c r="R49">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50">
+        <v>860.92</v>
+      </c>
+      <c r="F50">
+        <v>860.92</v>
+      </c>
+      <c r="G50">
+        <v>-126</v>
+      </c>
+      <c r="H50">
+        <v>6763</v>
+      </c>
+      <c r="I50">
+        <v>5835</v>
+      </c>
+      <c r="J50">
+        <v>54</v>
+      </c>
+      <c r="K50">
+        <v>692</v>
+      </c>
+      <c r="L50">
+        <v>468</v>
+      </c>
+      <c r="M50">
+        <v>84</v>
+      </c>
+      <c r="N50">
+        <v>1286</v>
+      </c>
+      <c r="O50">
+        <v>1269</v>
+      </c>
+      <c r="P50">
+        <v>1338</v>
+      </c>
+      <c r="Q50">
+        <v>332</v>
+      </c>
+      <c r="R50">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51">
+        <v>1209.98</v>
+      </c>
+      <c r="F51">
+        <v>1209.98</v>
+      </c>
+      <c r="G51">
+        <v>-97</v>
+      </c>
+      <c r="H51">
+        <v>6705</v>
+      </c>
+      <c r="I51">
+        <v>5839</v>
+      </c>
+      <c r="J51">
+        <v>53</v>
+      </c>
+      <c r="K51">
+        <v>686</v>
+      </c>
+      <c r="L51">
+        <v>466</v>
+      </c>
+      <c r="M51">
+        <v>83</v>
+      </c>
+      <c r="N51">
+        <v>1281</v>
+      </c>
+      <c r="O51">
+        <v>1231</v>
+      </c>
+      <c r="P51">
+        <v>1338</v>
+      </c>
+      <c r="Q51">
+        <v>352</v>
+      </c>
+      <c r="R51">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>1464.11</v>
+      </c>
+      <c r="F52">
+        <v>1464.11</v>
+      </c>
+      <c r="G52">
+        <v>-96</v>
+      </c>
+      <c r="H52">
+        <v>6653</v>
+      </c>
+      <c r="I52">
+        <v>5843</v>
+      </c>
+      <c r="J52">
+        <v>53</v>
+      </c>
+      <c r="K52">
+        <v>679</v>
+      </c>
+      <c r="L52">
+        <v>465</v>
+      </c>
+      <c r="M52">
+        <v>83</v>
+      </c>
+      <c r="N52">
+        <v>1222</v>
+      </c>
+      <c r="O52">
+        <v>1152</v>
+      </c>
+      <c r="P52">
+        <v>1338</v>
+      </c>
+      <c r="Q52">
+        <v>348</v>
+      </c>
+      <c r="R52">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53">
+        <v>1225.3399999999999</v>
+      </c>
+      <c r="F53">
+        <v>1225.3399999999999</v>
+      </c>
+      <c r="G53">
+        <v>-57</v>
+      </c>
+      <c r="H53">
+        <v>6722</v>
+      </c>
+      <c r="I53">
+        <v>5844</v>
+      </c>
+      <c r="J53">
+        <v>53</v>
+      </c>
+      <c r="K53">
+        <v>689</v>
+      </c>
+      <c r="L53">
+        <v>467</v>
+      </c>
+      <c r="M53">
+        <v>84</v>
+      </c>
+      <c r="N53">
+        <v>1181</v>
+      </c>
+      <c r="O53">
+        <v>1081</v>
+      </c>
+      <c r="P53">
+        <v>1339</v>
+      </c>
+      <c r="Q53">
+        <v>336</v>
+      </c>
+      <c r="R53">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>2241.5100000000002</v>
+      </c>
+      <c r="F54">
+        <v>2241.5100000000002</v>
+      </c>
+      <c r="G54">
+        <v>-4</v>
+      </c>
+      <c r="H54">
+        <v>6706</v>
+      </c>
+      <c r="I54">
+        <v>5785</v>
+      </c>
+      <c r="J54">
+        <v>53</v>
+      </c>
+      <c r="K54">
+        <v>681</v>
+      </c>
+      <c r="L54">
+        <v>466</v>
+      </c>
+      <c r="M54">
+        <v>84</v>
+      </c>
+      <c r="N54">
+        <v>1179</v>
+      </c>
+      <c r="O54">
+        <v>970</v>
+      </c>
+      <c r="P54">
+        <v>1338</v>
+      </c>
+      <c r="Q54">
+        <v>317</v>
+      </c>
+      <c r="R54">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55">
+        <v>2022.26</v>
+      </c>
+      <c r="F55">
+        <v>2022.26</v>
+      </c>
+      <c r="G55">
+        <v>-25</v>
+      </c>
+      <c r="H55">
+        <v>6845</v>
+      </c>
+      <c r="I55">
+        <v>5787</v>
+      </c>
+      <c r="J55">
+        <v>52</v>
+      </c>
+      <c r="K55">
+        <v>673</v>
+      </c>
+      <c r="L55">
+        <v>469</v>
+      </c>
+      <c r="M55">
+        <v>83</v>
+      </c>
+      <c r="N55">
+        <v>1099</v>
+      </c>
+      <c r="O55">
+        <v>931</v>
+      </c>
+      <c r="P55">
+        <v>1339</v>
+      </c>
+      <c r="Q55">
+        <v>309</v>
+      </c>
+      <c r="R55">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56">
+        <v>-3200</v>
+      </c>
+      <c r="F56">
+        <v>798.58</v>
+      </c>
+      <c r="G56">
+        <v>-11</v>
+      </c>
+      <c r="H56">
+        <v>6860</v>
+      </c>
+      <c r="I56">
+        <v>5787</v>
+      </c>
+      <c r="J56">
+        <v>52</v>
+      </c>
+      <c r="K56">
+        <v>668</v>
+      </c>
+      <c r="L56">
+        <v>467</v>
+      </c>
+      <c r="M56">
+        <v>84</v>
+      </c>
+      <c r="N56">
+        <v>1091</v>
+      </c>
+      <c r="O56">
+        <v>907</v>
+      </c>
+      <c r="P56">
+        <v>1340</v>
+      </c>
+      <c r="Q56">
+        <v>326</v>
+      </c>
+      <c r="R56">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57">
+        <v>-3200</v>
+      </c>
+      <c r="F57">
+        <v>798.58</v>
+      </c>
+      <c r="G57">
+        <v>22</v>
+      </c>
+      <c r="H57">
+        <v>6801</v>
+      </c>
+      <c r="I57">
+        <v>5785</v>
+      </c>
+      <c r="J57">
+        <v>53</v>
+      </c>
+      <c r="K57">
+        <v>654</v>
+      </c>
+      <c r="L57">
+        <v>464</v>
+      </c>
+      <c r="M57">
+        <v>83</v>
+      </c>
+      <c r="N57">
+        <v>1091</v>
+      </c>
+      <c r="O57">
+        <v>859</v>
+      </c>
+      <c r="P57">
+        <v>1362</v>
+      </c>
+      <c r="Q57">
+        <v>299</v>
+      </c>
+      <c r="R57">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58">
+        <v>1993.22</v>
+      </c>
+      <c r="F58">
+        <v>1993.22</v>
+      </c>
+      <c r="G58">
+        <v>-14</v>
+      </c>
+      <c r="H58">
+        <v>6702</v>
+      </c>
+      <c r="I58">
+        <v>5774</v>
+      </c>
+      <c r="J58">
+        <v>52</v>
+      </c>
+      <c r="K58">
+        <v>675</v>
+      </c>
+      <c r="L58">
+        <v>466</v>
+      </c>
+      <c r="M58">
+        <v>83</v>
+      </c>
+      <c r="N58">
+        <v>1092</v>
+      </c>
+      <c r="O58">
+        <v>936</v>
+      </c>
+      <c r="P58">
+        <v>1367</v>
+      </c>
+      <c r="Q58">
+        <v>293</v>
+      </c>
+      <c r="R58">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59">
+        <v>-2500</v>
+      </c>
+      <c r="F59">
+        <v>796.54</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>6673</v>
+      </c>
+      <c r="I59">
+        <v>5771</v>
+      </c>
+      <c r="J59">
+        <v>52</v>
+      </c>
+      <c r="K59">
+        <v>668</v>
+      </c>
+      <c r="L59">
+        <v>467</v>
+      </c>
+      <c r="M59">
+        <v>83</v>
+      </c>
+      <c r="N59">
+        <v>1092</v>
+      </c>
+      <c r="O59">
+        <v>914</v>
+      </c>
+      <c r="P59">
+        <v>1368</v>
+      </c>
+      <c r="Q59">
+        <v>291</v>
+      </c>
+      <c r="R59">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60">
+        <v>2109.29</v>
+      </c>
+      <c r="F60">
+        <v>2109.29</v>
+      </c>
+      <c r="G60">
+        <v>-22</v>
+      </c>
+      <c r="H60">
+        <v>6687</v>
+      </c>
+      <c r="I60">
+        <v>5765</v>
+      </c>
+      <c r="J60">
+        <v>53</v>
+      </c>
+      <c r="K60">
+        <v>672</v>
+      </c>
+      <c r="L60">
+        <v>464</v>
+      </c>
+      <c r="M60">
+        <v>84</v>
+      </c>
+      <c r="N60">
+        <v>1083</v>
+      </c>
+      <c r="O60">
+        <v>941</v>
+      </c>
+      <c r="P60">
+        <v>1367</v>
+      </c>
+      <c r="Q60">
+        <v>285</v>
+      </c>
+      <c r="R60">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61">
+        <v>-2500</v>
+      </c>
+      <c r="F61">
+        <v>796.54</v>
+      </c>
+      <c r="G61">
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <v>6572</v>
+      </c>
+      <c r="I61">
+        <v>5759</v>
+      </c>
+      <c r="J61">
+        <v>52</v>
+      </c>
+      <c r="K61">
+        <v>667</v>
+      </c>
+      <c r="L61">
+        <v>464</v>
+      </c>
+      <c r="M61">
+        <v>83</v>
+      </c>
+      <c r="N61">
+        <v>1075</v>
+      </c>
+      <c r="O61">
+        <v>918</v>
+      </c>
+      <c r="P61">
+        <v>1367</v>
+      </c>
+      <c r="Q61">
+        <v>266</v>
+      </c>
+      <c r="R61">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62">
+        <v>-3200</v>
+      </c>
+      <c r="F62">
+        <v>781.51</v>
+      </c>
+      <c r="G62">
+        <v>13</v>
+      </c>
+      <c r="H62">
+        <v>6564</v>
+      </c>
+      <c r="I62">
+        <v>5923</v>
+      </c>
+      <c r="J62">
+        <v>53</v>
+      </c>
+      <c r="K62">
+        <v>666</v>
+      </c>
+      <c r="L62">
+        <v>468</v>
+      </c>
+      <c r="M62">
+        <v>84</v>
+      </c>
+      <c r="N62">
+        <v>1213</v>
+      </c>
+      <c r="O62">
+        <v>930</v>
+      </c>
+      <c r="P62">
+        <v>1367</v>
+      </c>
+      <c r="Q62">
+        <v>236</v>
+      </c>
+      <c r="R62">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63">
+        <v>2039.84</v>
+      </c>
+      <c r="F63">
+        <v>2039.84</v>
+      </c>
+      <c r="G63">
+        <v>-7</v>
+      </c>
+      <c r="H63">
+        <v>6594</v>
+      </c>
+      <c r="I63">
+        <v>5917</v>
+      </c>
+      <c r="J63">
+        <v>53</v>
+      </c>
+      <c r="K63">
+        <v>677</v>
+      </c>
+      <c r="L63">
+        <v>470</v>
+      </c>
+      <c r="M63">
+        <v>83</v>
+      </c>
+      <c r="N63">
+        <v>1223</v>
+      </c>
+      <c r="O63">
+        <v>963</v>
+      </c>
+      <c r="P63">
+        <v>1367</v>
+      </c>
+      <c r="Q63">
+        <v>250</v>
+      </c>
+      <c r="R63">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64">
+        <v>1492.08</v>
+      </c>
+      <c r="F64">
+        <v>1492.08</v>
+      </c>
+      <c r="G64">
+        <v>-6</v>
+      </c>
+      <c r="H64">
+        <v>6541</v>
+      </c>
+      <c r="I64">
+        <v>5906</v>
+      </c>
+      <c r="J64">
+        <v>55</v>
+      </c>
+      <c r="K64">
+        <v>679</v>
+      </c>
+      <c r="L64">
+        <v>473</v>
+      </c>
+      <c r="M64">
+        <v>84</v>
+      </c>
+      <c r="N64">
+        <v>1230</v>
+      </c>
+      <c r="O64">
+        <v>968</v>
+      </c>
+      <c r="P64">
+        <v>1359</v>
+      </c>
+      <c r="Q64">
+        <v>257</v>
+      </c>
+      <c r="R64">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65">
+        <v>2692.04</v>
+      </c>
+      <c r="F65">
+        <v>2692.04</v>
+      </c>
+      <c r="G65">
+        <v>15</v>
+      </c>
+      <c r="H65">
+        <v>6507</v>
+      </c>
+      <c r="I65">
+        <v>5897</v>
+      </c>
+      <c r="J65">
+        <v>54</v>
+      </c>
+      <c r="K65">
+        <v>675</v>
+      </c>
+      <c r="L65">
+        <v>471</v>
+      </c>
+      <c r="M65">
+        <v>84</v>
+      </c>
+      <c r="N65">
+        <v>1227</v>
+      </c>
+      <c r="O65">
+        <v>967</v>
+      </c>
+      <c r="P65">
+        <v>1353</v>
+      </c>
+      <c r="Q65">
+        <v>257</v>
+      </c>
+      <c r="R65">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66">
+        <v>-2500</v>
+      </c>
+      <c r="F66">
+        <v>792.69</v>
+      </c>
+      <c r="G66">
+        <v>45</v>
+      </c>
+      <c r="H66">
+        <v>6552</v>
+      </c>
+      <c r="I66">
+        <v>5836</v>
+      </c>
+      <c r="J66">
+        <v>54</v>
+      </c>
+      <c r="K66">
+        <v>661</v>
+      </c>
+      <c r="L66">
+        <v>469</v>
+      </c>
+      <c r="M66">
+        <v>83</v>
+      </c>
+      <c r="N66">
+        <v>1298</v>
+      </c>
+      <c r="O66">
+        <v>952</v>
+      </c>
+      <c r="P66">
+        <v>1352</v>
+      </c>
+      <c r="Q66">
+        <v>197</v>
+      </c>
+      <c r="R66">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67">
+        <v>-2500</v>
+      </c>
+      <c r="F67">
+        <v>789.31</v>
+      </c>
+      <c r="G67">
+        <v>125</v>
+      </c>
+      <c r="H67">
+        <v>6567</v>
+      </c>
+      <c r="I67">
+        <v>5824</v>
+      </c>
+      <c r="J67">
+        <v>54</v>
+      </c>
+      <c r="K67">
+        <v>650</v>
+      </c>
+      <c r="L67">
+        <v>470</v>
+      </c>
+      <c r="M67">
+        <v>84</v>
+      </c>
+      <c r="N67">
+        <v>1417</v>
+      </c>
+      <c r="O67">
+        <v>802</v>
+      </c>
+      <c r="P67">
+        <v>1353</v>
+      </c>
+      <c r="Q67">
+        <v>172</v>
+      </c>
+      <c r="R67">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68">
+        <v>-1196.6400000000001</v>
+      </c>
+      <c r="F68">
+        <v>-1196.6400000000001</v>
+      </c>
+      <c r="G68">
+        <v>102</v>
+      </c>
+      <c r="H68">
+        <v>6596</v>
+      </c>
+      <c r="I68">
+        <v>5812</v>
+      </c>
+      <c r="J68">
+        <v>53</v>
+      </c>
+      <c r="K68">
+        <v>630</v>
+      </c>
+      <c r="L68">
+        <v>441</v>
+      </c>
+      <c r="M68">
+        <v>83</v>
+      </c>
+      <c r="N68">
+        <v>1401</v>
+      </c>
+      <c r="O68">
+        <v>656</v>
+      </c>
+      <c r="P68">
+        <v>1352</v>
+      </c>
+      <c r="Q68">
+        <v>161</v>
+      </c>
+      <c r="R68">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69">
+        <v>-190.83</v>
+      </c>
+      <c r="F69">
+        <v>-190.83</v>
+      </c>
+      <c r="G69">
+        <v>144</v>
+      </c>
+      <c r="H69">
+        <v>6570</v>
+      </c>
+      <c r="I69">
+        <v>5802</v>
+      </c>
+      <c r="J69">
+        <v>55</v>
+      </c>
+      <c r="K69">
+        <v>532</v>
+      </c>
+      <c r="L69">
+        <v>424</v>
+      </c>
+      <c r="M69">
+        <v>83</v>
+      </c>
+      <c r="N69">
+        <v>1300</v>
+      </c>
+      <c r="O69">
+        <v>674</v>
+      </c>
+      <c r="P69">
+        <v>1352</v>
+      </c>
+      <c r="Q69">
+        <v>148</v>
+      </c>
+      <c r="R69">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70">
+        <v>-289.45</v>
+      </c>
+      <c r="F70">
+        <v>-289.45</v>
+      </c>
+      <c r="G70">
+        <v>121</v>
+      </c>
+      <c r="H70">
+        <v>6688</v>
+      </c>
+      <c r="I70">
+        <v>5835</v>
+      </c>
+      <c r="J70">
+        <v>54</v>
+      </c>
+      <c r="K70">
+        <v>489</v>
+      </c>
+      <c r="L70">
+        <v>426</v>
+      </c>
+      <c r="M70">
+        <v>83</v>
+      </c>
+      <c r="N70">
+        <v>1311</v>
+      </c>
+      <c r="O70">
+        <v>763</v>
+      </c>
+      <c r="P70">
+        <v>1353</v>
+      </c>
+      <c r="Q70">
+        <v>116</v>
+      </c>
+      <c r="R70">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71">
+        <v>-48.96</v>
+      </c>
+      <c r="F71">
+        <v>-48.96</v>
+      </c>
+      <c r="G71">
+        <v>81</v>
+      </c>
+      <c r="H71">
+        <v>6627</v>
+      </c>
+      <c r="I71">
+        <v>5825</v>
+      </c>
+      <c r="J71">
+        <v>53</v>
+      </c>
+      <c r="K71">
+        <v>500</v>
+      </c>
+      <c r="L71">
+        <v>428</v>
+      </c>
+      <c r="M71">
+        <v>84</v>
+      </c>
+      <c r="N71">
+        <v>1329</v>
+      </c>
+      <c r="O71">
+        <v>798</v>
+      </c>
+      <c r="P71">
+        <v>1352</v>
+      </c>
+      <c r="Q71">
+        <v>100</v>
+      </c>
+      <c r="R71">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72">
+        <v>-641.22</v>
+      </c>
+      <c r="F72">
+        <v>-641.22</v>
+      </c>
+      <c r="G72">
+        <v>96</v>
+      </c>
+      <c r="H72">
+        <v>6695</v>
+      </c>
+      <c r="I72">
+        <v>5822</v>
+      </c>
+      <c r="J72">
+        <v>55</v>
+      </c>
+      <c r="K72">
+        <v>516</v>
+      </c>
+      <c r="L72">
+        <v>433</v>
+      </c>
+      <c r="M72">
+        <v>84</v>
+      </c>
+      <c r="N72">
+        <v>1370</v>
+      </c>
+      <c r="O72">
+        <v>880</v>
+      </c>
+      <c r="P72">
+        <v>1352</v>
+      </c>
+      <c r="Q72">
+        <v>91</v>
+      </c>
+      <c r="R72">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73">
+        <v>3623.39</v>
+      </c>
+      <c r="F73">
+        <v>3623.39</v>
+      </c>
+      <c r="G73">
+        <v>-9</v>
+      </c>
+      <c r="H73">
+        <v>6746</v>
+      </c>
+      <c r="I73">
+        <v>5814</v>
+      </c>
+      <c r="J73">
+        <v>55</v>
+      </c>
+      <c r="K73">
+        <v>619</v>
+      </c>
+      <c r="L73">
+        <v>442</v>
+      </c>
+      <c r="M73">
+        <v>83</v>
+      </c>
+      <c r="N73">
+        <v>1421</v>
+      </c>
+      <c r="O73">
+        <v>1051</v>
+      </c>
+      <c r="P73">
+        <v>1353</v>
+      </c>
+      <c r="Q73">
+        <v>88</v>
+      </c>
+      <c r="R73">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>-2500</v>
+      </c>
+      <c r="F74">
+        <v>-2500</v>
+      </c>
+      <c r="G74">
+        <v>122</v>
+      </c>
+      <c r="H74">
+        <v>6756</v>
+      </c>
+      <c r="I74">
+        <v>6023</v>
+      </c>
+      <c r="J74">
+        <v>56</v>
+      </c>
+      <c r="K74">
+        <v>631</v>
+      </c>
+      <c r="L74">
+        <v>441</v>
+      </c>
+      <c r="M74">
+        <v>83</v>
+      </c>
+      <c r="N74">
+        <v>1375</v>
+      </c>
+      <c r="O74">
+        <v>1044</v>
+      </c>
+      <c r="P74">
+        <v>1366</v>
+      </c>
+      <c r="Q74">
+        <v>71</v>
+      </c>
+      <c r="R74">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <v>-2747.33</v>
+      </c>
+      <c r="F75">
+        <v>-2747.33</v>
+      </c>
+      <c r="G75">
+        <v>177</v>
+      </c>
+      <c r="H75">
+        <v>6718</v>
+      </c>
+      <c r="I75">
+        <v>6016</v>
+      </c>
+      <c r="J75">
+        <v>54</v>
+      </c>
+      <c r="K75">
+        <v>624</v>
+      </c>
+      <c r="L75">
+        <v>442</v>
+      </c>
+      <c r="M75">
+        <v>84</v>
+      </c>
+      <c r="N75">
+        <v>1368</v>
+      </c>
+      <c r="O75">
+        <v>1047</v>
+      </c>
+      <c r="P75">
+        <v>1369</v>
+      </c>
+      <c r="Q75">
+        <v>62</v>
+      </c>
+      <c r="R75">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>-373.02</v>
+      </c>
+      <c r="F76">
+        <v>-373.02</v>
+      </c>
+      <c r="G76">
+        <v>105</v>
+      </c>
+      <c r="H76">
+        <v>6805</v>
+      </c>
+      <c r="I76">
+        <v>6013</v>
+      </c>
+      <c r="J76">
+        <v>55</v>
+      </c>
+      <c r="K76">
+        <v>563</v>
+      </c>
+      <c r="L76">
+        <v>437</v>
+      </c>
+      <c r="M76">
+        <v>84</v>
+      </c>
+      <c r="N76">
+        <v>1328</v>
+      </c>
+      <c r="O76">
+        <v>944</v>
+      </c>
+      <c r="P76">
+        <v>1369</v>
+      </c>
+      <c r="Q76">
+        <v>58</v>
+      </c>
+      <c r="R76">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <v>-1464.97</v>
+      </c>
+      <c r="F77">
+        <v>-1464.97</v>
+      </c>
+      <c r="G77">
+        <v>38</v>
+      </c>
+      <c r="H77">
+        <v>6831</v>
+      </c>
+      <c r="I77">
+        <v>6011</v>
+      </c>
+      <c r="J77">
+        <v>54</v>
+      </c>
+      <c r="K77">
+        <v>529</v>
+      </c>
+      <c r="L77">
+        <v>445</v>
+      </c>
+      <c r="M77">
+        <v>85</v>
+      </c>
+      <c r="N77">
+        <v>1327</v>
+      </c>
+      <c r="O77">
+        <v>1075</v>
+      </c>
+      <c r="P77">
+        <v>1369</v>
+      </c>
+      <c r="Q77">
+        <v>43</v>
+      </c>
+      <c r="R77">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>-722.67</v>
+      </c>
+      <c r="F78">
+        <v>-722.67</v>
+      </c>
+      <c r="G78">
+        <v>-44</v>
+      </c>
+      <c r="H78">
+        <v>6827</v>
+      </c>
+      <c r="I78">
+        <v>6024</v>
+      </c>
+      <c r="J78">
+        <v>52</v>
+      </c>
+      <c r="K78">
+        <v>523</v>
+      </c>
+      <c r="L78">
+        <v>441</v>
+      </c>
+      <c r="M78">
+        <v>94</v>
+      </c>
+      <c r="N78">
+        <v>1346</v>
+      </c>
+      <c r="O78">
+        <v>1044</v>
+      </c>
+      <c r="P78">
+        <v>1369</v>
+      </c>
+      <c r="Q78">
+        <v>27</v>
+      </c>
+      <c r="R78">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79">
+        <v>-222.84</v>
+      </c>
+      <c r="F79">
+        <v>3000</v>
+      </c>
+      <c r="G79">
+        <v>-118</v>
+      </c>
+      <c r="H79">
+        <v>6891</v>
+      </c>
+      <c r="I79">
+        <v>6022</v>
+      </c>
+      <c r="J79">
+        <v>52</v>
+      </c>
+      <c r="K79">
+        <v>605</v>
+      </c>
+      <c r="L79">
+        <v>448</v>
+      </c>
+      <c r="M79">
+        <v>107</v>
+      </c>
+      <c r="N79">
+        <v>1451</v>
+      </c>
+      <c r="O79">
+        <v>1298</v>
+      </c>
+      <c r="P79">
+        <v>1368</v>
+      </c>
+      <c r="Q79">
+        <v>20</v>
+      </c>
+      <c r="R79">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80">
+        <v>2411.9699999999998</v>
+      </c>
+      <c r="F80">
+        <v>2411.9699999999998</v>
+      </c>
+      <c r="G80">
+        <v>-130</v>
+      </c>
+      <c r="H80">
+        <v>6966</v>
+      </c>
+      <c r="I80">
+        <v>6021</v>
+      </c>
+      <c r="J80">
+        <v>52</v>
+      </c>
+      <c r="K80">
+        <v>680</v>
+      </c>
+      <c r="L80">
+        <v>467</v>
+      </c>
+      <c r="M80">
+        <v>116</v>
+      </c>
+      <c r="N80">
+        <v>1457</v>
+      </c>
+      <c r="O80">
+        <v>1361</v>
+      </c>
+      <c r="P80">
+        <v>1368</v>
+      </c>
+      <c r="Q80">
+        <v>16</v>
+      </c>
+      <c r="R80">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81">
+        <v>1510.95</v>
+      </c>
+      <c r="F81">
+        <v>1510.95</v>
+      </c>
+      <c r="G81">
+        <v>-210</v>
+      </c>
+      <c r="H81">
+        <v>7068</v>
+      </c>
+      <c r="I81">
+        <v>6020</v>
+      </c>
+      <c r="J81">
+        <v>53</v>
+      </c>
+      <c r="K81">
+        <v>706</v>
+      </c>
+      <c r="L81">
+        <v>493</v>
+      </c>
+      <c r="M81">
+        <v>117</v>
+      </c>
+      <c r="N81">
+        <v>1459</v>
+      </c>
+      <c r="O81">
+        <v>1726</v>
+      </c>
+      <c r="P81">
+        <v>1369</v>
+      </c>
+      <c r="Q81">
+        <v>10</v>
+      </c>
+      <c r="R81">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82">
+        <v>1328.7</v>
+      </c>
+      <c r="F82">
+        <v>1328.7</v>
+      </c>
+      <c r="G82">
+        <v>-193</v>
+      </c>
+      <c r="H82">
+        <v>7096</v>
+      </c>
+      <c r="I82">
+        <v>6098</v>
+      </c>
+      <c r="J82">
+        <v>52</v>
+      </c>
+      <c r="K82">
+        <v>690</v>
+      </c>
+      <c r="L82">
+        <v>494</v>
+      </c>
+      <c r="M82">
+        <v>116</v>
+      </c>
+      <c r="N82">
+        <v>1448</v>
+      </c>
+      <c r="O82">
+        <v>1707</v>
+      </c>
+      <c r="P82">
+        <v>1368</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83">
+        <v>1331.98</v>
+      </c>
+      <c r="F83">
+        <v>1331.98</v>
+      </c>
+      <c r="G83">
+        <v>-207</v>
+      </c>
+      <c r="H83">
+        <v>7223</v>
+      </c>
+      <c r="I83">
+        <v>6099</v>
+      </c>
+      <c r="J83">
+        <v>53</v>
+      </c>
+      <c r="K83">
+        <v>685</v>
+      </c>
+      <c r="L83">
+        <v>497</v>
+      </c>
+      <c r="M83">
+        <v>116</v>
+      </c>
+      <c r="N83">
+        <v>1470</v>
+      </c>
+      <c r="O83">
+        <v>1711</v>
+      </c>
+      <c r="P83">
+        <v>1368</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84">
+        <v>1410.13</v>
+      </c>
+      <c r="F84">
+        <v>1410.13</v>
+      </c>
+      <c r="G84">
+        <v>-189</v>
+      </c>
+      <c r="H84">
+        <v>7286</v>
+      </c>
+      <c r="I84">
+        <v>6101</v>
+      </c>
+      <c r="J84">
+        <v>51</v>
+      </c>
+      <c r="K84">
+        <v>699</v>
+      </c>
+      <c r="L84">
+        <v>498</v>
+      </c>
+      <c r="M84">
+        <v>117</v>
+      </c>
+      <c r="N84">
+        <v>1470</v>
+      </c>
+      <c r="O84">
+        <v>1881</v>
+      </c>
+      <c r="P84">
+        <v>1368</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85">
+        <v>1466.98</v>
+      </c>
+      <c r="F85">
+        <v>1466.98</v>
+      </c>
+      <c r="G85">
+        <v>-215</v>
+      </c>
+      <c r="H85">
+        <v>7295</v>
+      </c>
+      <c r="I85">
+        <v>6102</v>
+      </c>
+      <c r="J85">
+        <v>51</v>
+      </c>
+      <c r="K85">
+        <v>723</v>
+      </c>
+      <c r="L85">
+        <v>499</v>
+      </c>
+      <c r="M85">
+        <v>117</v>
+      </c>
+      <c r="N85">
+        <v>1471</v>
+      </c>
+      <c r="O85">
+        <v>1928</v>
+      </c>
+      <c r="P85">
+        <v>1368</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86">
+        <v>1289.75</v>
+      </c>
+      <c r="F86">
+        <v>1289.75</v>
+      </c>
+      <c r="G86">
+        <v>-187</v>
+      </c>
+      <c r="H86">
+        <v>7168</v>
+      </c>
+      <c r="I86">
+        <v>6099</v>
+      </c>
+      <c r="J86">
+        <v>51</v>
+      </c>
+      <c r="K86">
+        <v>703</v>
+      </c>
+      <c r="L86">
+        <v>497</v>
+      </c>
+      <c r="M86">
+        <v>116</v>
+      </c>
+      <c r="N86">
+        <v>1501</v>
+      </c>
+      <c r="O86">
+        <v>1822</v>
+      </c>
+      <c r="P86">
+        <v>1368</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87">
+        <v>1235.8900000000001</v>
+      </c>
+      <c r="F87">
+        <v>1235.8900000000001</v>
+      </c>
+      <c r="G87">
+        <v>-170</v>
+      </c>
+      <c r="H87">
+        <v>7111</v>
+      </c>
+      <c r="I87">
+        <v>6099</v>
+      </c>
+      <c r="J87">
+        <v>51</v>
+      </c>
+      <c r="K87">
+        <v>694</v>
+      </c>
+      <c r="L87">
+        <v>496</v>
+      </c>
+      <c r="M87">
+        <v>117</v>
+      </c>
+      <c r="N87">
+        <v>1503</v>
+      </c>
+      <c r="O87">
+        <v>1803</v>
+      </c>
+      <c r="P87">
+        <v>1368</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88">
+        <v>1233.1199999999999</v>
+      </c>
+      <c r="F88">
+        <v>1233.1199999999999</v>
+      </c>
+      <c r="G88">
+        <v>-171</v>
+      </c>
+      <c r="H88">
+        <v>7010</v>
+      </c>
+      <c r="I88">
+        <v>6099</v>
+      </c>
+      <c r="J88">
+        <v>50</v>
+      </c>
+      <c r="K88">
+        <v>694</v>
+      </c>
+      <c r="L88">
+        <v>497</v>
+      </c>
+      <c r="M88">
+        <v>117</v>
+      </c>
+      <c r="N88">
+        <v>1501</v>
+      </c>
+      <c r="O88">
+        <v>1802</v>
+      </c>
+      <c r="P88">
+        <v>1368</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89">
+        <v>1440.86</v>
+      </c>
+      <c r="F89">
+        <v>1440.86</v>
+      </c>
+      <c r="G89">
+        <v>-119</v>
+      </c>
+      <c r="H89">
+        <v>6894</v>
+      </c>
+      <c r="I89">
+        <v>6099</v>
+      </c>
+      <c r="J89">
+        <v>50</v>
+      </c>
+      <c r="K89">
+        <v>704</v>
+      </c>
+      <c r="L89">
+        <v>499</v>
+      </c>
+      <c r="M89">
+        <v>116</v>
+      </c>
+      <c r="N89">
+        <v>1498</v>
+      </c>
+      <c r="O89">
+        <v>1564</v>
+      </c>
+      <c r="P89">
+        <v>1368</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90">
+        <v>1501.62</v>
+      </c>
+      <c r="F90">
+        <v>1501.62</v>
+      </c>
+      <c r="G90">
+        <v>-182</v>
+      </c>
+      <c r="H90">
+        <v>6638</v>
+      </c>
+      <c r="I90">
+        <v>6029</v>
+      </c>
+      <c r="J90">
+        <v>50</v>
+      </c>
+      <c r="K90">
+        <v>725</v>
+      </c>
+      <c r="L90">
+        <v>503</v>
+      </c>
+      <c r="M90">
+        <v>117</v>
+      </c>
+      <c r="N90">
+        <v>1496</v>
+      </c>
+      <c r="O90">
+        <v>1640</v>
+      </c>
+      <c r="P90">
+        <v>1366</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91">
+        <v>1373.83</v>
+      </c>
+      <c r="F91">
+        <v>1373.83</v>
+      </c>
+      <c r="G91">
+        <v>-146</v>
+      </c>
+      <c r="H91">
+        <v>6522</v>
+      </c>
+      <c r="I91">
+        <v>6029</v>
+      </c>
+      <c r="J91">
+        <v>50</v>
+      </c>
+      <c r="K91">
+        <v>715</v>
+      </c>
+      <c r="L91">
+        <v>498</v>
+      </c>
+      <c r="M91">
+        <v>116</v>
+      </c>
+      <c r="N91">
+        <v>1487</v>
+      </c>
+      <c r="O91">
+        <v>1591</v>
+      </c>
+      <c r="P91">
+        <v>1351</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>20</v>
+      </c>
+      <c r="D92" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92">
+        <v>1464.77</v>
+      </c>
+      <c r="F92">
+        <v>1464.77</v>
+      </c>
+      <c r="G92">
+        <v>-111</v>
+      </c>
+      <c r="H92">
+        <v>6320</v>
+      </c>
+      <c r="I92">
+        <v>6028</v>
+      </c>
+      <c r="J92">
+        <v>50</v>
+      </c>
+      <c r="K92">
+        <v>685</v>
+      </c>
+      <c r="L92">
+        <v>488</v>
+      </c>
+      <c r="M92">
+        <v>116</v>
+      </c>
+      <c r="N92">
+        <v>1487</v>
+      </c>
+      <c r="O92">
+        <v>1478</v>
+      </c>
+      <c r="P92">
+        <v>1351</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93">
+        <v>2594.25</v>
+      </c>
+      <c r="F93">
+        <v>2594.25</v>
+      </c>
+      <c r="G93">
+        <v>-27</v>
+      </c>
+      <c r="H93">
+        <v>6167</v>
+      </c>
+      <c r="I93">
+        <v>6027</v>
+      </c>
+      <c r="J93">
+        <v>50</v>
+      </c>
+      <c r="K93">
+        <v>668</v>
+      </c>
+      <c r="L93">
+        <v>487</v>
+      </c>
+      <c r="M93">
+        <v>116</v>
+      </c>
+      <c r="N93">
+        <v>1488</v>
+      </c>
+      <c r="O93">
+        <v>1392</v>
+      </c>
+      <c r="P93">
+        <v>1352</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>58</v>
+      </c>
+      <c r="E94">
+        <v>1983.89</v>
+      </c>
+      <c r="F94">
+        <v>1983.89</v>
+      </c>
+      <c r="G94">
+        <v>-27</v>
+      </c>
+      <c r="H94">
+        <v>5999</v>
+      </c>
+      <c r="I94">
+        <v>5883</v>
+      </c>
+      <c r="J94">
+        <v>50</v>
+      </c>
+      <c r="K94">
+        <v>682</v>
+      </c>
+      <c r="L94">
+        <v>489</v>
+      </c>
+      <c r="M94">
+        <v>106</v>
+      </c>
+      <c r="N94">
+        <v>1497</v>
+      </c>
+      <c r="O94">
+        <v>1347</v>
+      </c>
+      <c r="P94">
+        <v>1351</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" t="s">
+        <v>58</v>
+      </c>
+      <c r="E95">
+        <v>2422.9899999999998</v>
+      </c>
+      <c r="F95">
+        <v>2422.9899999999998</v>
+      </c>
+      <c r="G95">
+        <v>-17</v>
+      </c>
+      <c r="H95">
+        <v>5955</v>
+      </c>
+      <c r="I95">
+        <v>5883</v>
+      </c>
+      <c r="J95">
+        <v>51</v>
+      </c>
+      <c r="K95">
+        <v>674</v>
+      </c>
+      <c r="L95">
+        <v>488</v>
+      </c>
+      <c r="M95">
+        <v>89</v>
+      </c>
+      <c r="N95">
+        <v>1485</v>
+      </c>
+      <c r="O95">
+        <v>1310</v>
+      </c>
+      <c r="P95">
+        <v>1352</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96" t="s">
+        <v>58</v>
+      </c>
+      <c r="E96">
+        <v>2431.59</v>
+      </c>
+      <c r="F96">
+        <v>2431.59</v>
+      </c>
+      <c r="G96">
+        <v>-73</v>
+      </c>
+      <c r="H96">
+        <v>5821</v>
+      </c>
+      <c r="I96">
+        <v>5882</v>
+      </c>
+      <c r="J96">
+        <v>50</v>
+      </c>
+      <c r="K96">
+        <v>673</v>
+      </c>
+      <c r="L96">
+        <v>487</v>
+      </c>
+      <c r="M96">
+        <v>88</v>
+      </c>
+      <c r="N96">
+        <v>1487</v>
+      </c>
+      <c r="O96">
+        <v>1307</v>
+      </c>
+      <c r="P96">
+        <v>1360</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" t="s">
+        <v>58</v>
+      </c>
+      <c r="E97">
+        <v>2405.1799999999998</v>
+      </c>
+      <c r="F97">
+        <v>2405.1799999999998</v>
+      </c>
+      <c r="G97">
+        <v>13</v>
+      </c>
+      <c r="H97">
+        <v>5761</v>
+      </c>
+      <c r="I97">
+        <v>5882</v>
+      </c>
+      <c r="J97">
+        <v>50</v>
+      </c>
+      <c r="K97">
+        <v>673</v>
+      </c>
+      <c r="L97">
+        <v>486</v>
+      </c>
+      <c r="M97">
+        <v>88</v>
+      </c>
+      <c r="N97">
+        <v>1485</v>
+      </c>
+      <c r="O97">
+        <v>1302</v>
+      </c>
+      <c r="P97">
+        <v>1367</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Entsoe_data.xlsx
+++ b/Market Fundamentals/Entsoe_data/Entsoe_data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/Market Fundamentals/Entsoe_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921EDFC2BC9B819576C5EDA859BC57B280D6B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90739BBF-C29D-438A-97A1-337D9C680ECA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -76,137 +70,125 @@
     <t>Wind Onshore</t>
   </si>
   <si>
-    <t>17.04.2024</t>
-  </si>
-  <si>
-    <t>22</t>
+    <t>11.04.2024</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>58</t>
+    <t>27</t>
   </si>
   <si>
-    <t>111</t>
+    <t>41</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
   <si>
     <t>109</t>
   </si>
   <si>
-    <t>95</t>
+    <t>104</t>
   </si>
   <si>
-    <t>110</t>
+    <t>105</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>150</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>29</t>
+    <t>31</t>
   </si>
   <si>
-    <t>157</t>
+    <t>35</t>
   </si>
   <si>
-    <t>209</t>
+    <t>36</t>
   </si>
   <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>141</t>
+    <t>20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,21 +252,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +296,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -356,7 +330,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -391,10 +364,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,36 +539,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -652,7 +605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -663,43 +616,52 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>-1045.7</v>
+      </c>
+      <c r="F2">
+        <v>-1045.7</v>
+      </c>
+      <c r="G2">
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>5603</v>
+        <v>5495</v>
       </c>
       <c r="I2">
-        <v>5779</v>
+        <v>4645</v>
       </c>
       <c r="J2">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>649</v>
+      </c>
+      <c r="L2">
+        <v>483</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1285</v>
+      </c>
+      <c r="O2">
+        <v>794</v>
+      </c>
+      <c r="P2">
+        <v>1382</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>50</v>
       </c>
-      <c r="K2">
-        <v>553</v>
-      </c>
-      <c r="L2">
-        <v>436</v>
-      </c>
-      <c r="M2">
-        <v>85</v>
-      </c>
-      <c r="N2">
-        <v>1037</v>
-      </c>
-      <c r="O2">
-        <v>884</v>
-      </c>
-      <c r="P2">
-        <v>1380</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -707,46 +669,55 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>-2200</v>
+      </c>
+      <c r="F3">
+        <v>-2200</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
       </c>
       <c r="H3">
-        <v>5577</v>
+        <v>5461</v>
       </c>
       <c r="I3">
-        <v>5778</v>
+        <v>4644</v>
       </c>
       <c r="J3">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K3">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="L3">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="M3">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1009</v>
+        <v>1278</v>
       </c>
       <c r="O3">
-        <v>881</v>
+        <v>745</v>
       </c>
       <c r="P3">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -754,46 +725,55 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>-2200</v>
+      </c>
+      <c r="F4">
+        <v>-2200</v>
+      </c>
+      <c r="G4">
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>5518</v>
+        <v>5405</v>
       </c>
       <c r="I4">
-        <v>5777</v>
+        <v>4644</v>
       </c>
       <c r="J4">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K4">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="L4">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="M4">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1013</v>
+        <v>1279</v>
       </c>
       <c r="O4">
-        <v>866</v>
+        <v>756</v>
       </c>
       <c r="P4">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -801,46 +781,55 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>-2200</v>
+      </c>
+      <c r="F5">
+        <v>-2200</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>5447</v>
+        <v>5357</v>
       </c>
       <c r="I5">
-        <v>5780</v>
+        <v>4644</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="L5">
-        <v>428</v>
+        <v>473</v>
       </c>
       <c r="M5">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1009</v>
+        <v>1279</v>
       </c>
       <c r="O5">
-        <v>818</v>
+        <v>752</v>
       </c>
       <c r="P5">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -848,46 +837,55 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>-3200</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6">
+        <v>-4</v>
       </c>
       <c r="H6">
-        <v>5406</v>
+        <v>5273</v>
       </c>
       <c r="I6">
-        <v>5833</v>
+        <v>4466</v>
       </c>
       <c r="J6">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="L6">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="M6">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>989</v>
+        <v>1124</v>
       </c>
       <c r="O6">
-        <v>854</v>
+        <v>769</v>
       </c>
       <c r="P6">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -895,46 +893,55 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>3000</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7">
+        <v>-8</v>
       </c>
       <c r="H7">
-        <v>5365</v>
+        <v>5333</v>
       </c>
       <c r="I7">
-        <v>5833</v>
+        <v>4466</v>
       </c>
       <c r="J7">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="L7">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="M7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>989</v>
+        <v>1107</v>
       </c>
       <c r="O7">
-        <v>834</v>
+        <v>770</v>
       </c>
       <c r="P7">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -942,46 +949,55 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>-3502.2</v>
+      </c>
+      <c r="F8">
+        <v>-3502.2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>5399</v>
+        <v>5238</v>
       </c>
       <c r="I8">
-        <v>5834</v>
+        <v>4467</v>
       </c>
       <c r="J8">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="L8">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="M8">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>989</v>
+        <v>1106</v>
       </c>
       <c r="O8">
-        <v>841</v>
+        <v>738</v>
       </c>
       <c r="P8">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -989,46 +1005,55 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>-3200</v>
+      </c>
+      <c r="F9">
+        <v>-3200</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
       </c>
       <c r="H9">
-        <v>5260</v>
+        <v>5225</v>
       </c>
       <c r="I9">
-        <v>5834</v>
+        <v>4467</v>
       </c>
       <c r="J9">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="L9">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="M9">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>990</v>
+        <v>1106</v>
       </c>
       <c r="O9">
-        <v>796</v>
+        <v>725</v>
       </c>
       <c r="P9">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1036,46 +1061,55 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>-2200</v>
+      </c>
+      <c r="F10">
+        <v>2200</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
       </c>
       <c r="H10">
-        <v>5281</v>
+        <v>5133</v>
       </c>
       <c r="I10">
-        <v>5787</v>
+        <v>4530</v>
       </c>
       <c r="J10">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="L10">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="M10">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>991</v>
+        <v>1107</v>
       </c>
       <c r="O10">
-        <v>828</v>
+        <v>746</v>
       </c>
       <c r="P10">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1083,46 +1117,55 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>-2200</v>
+      </c>
+      <c r="F11">
+        <v>-2200</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
       </c>
       <c r="H11">
-        <v>5278</v>
+        <v>5100</v>
       </c>
       <c r="I11">
-        <v>5787</v>
+        <v>4531</v>
       </c>
       <c r="J11">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="L11">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="M11">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>990</v>
+        <v>1107</v>
       </c>
       <c r="O11">
-        <v>843</v>
+        <v>721</v>
       </c>
       <c r="P11">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1130,46 +1173,55 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>-2203.36</v>
+      </c>
+      <c r="F12">
+        <v>-2203.36</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>5286</v>
+        <v>5049</v>
       </c>
       <c r="I12">
-        <v>5788</v>
+        <v>4531</v>
       </c>
       <c r="J12">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="L12">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>991</v>
+        <v>1108</v>
       </c>
       <c r="O12">
-        <v>861</v>
+        <v>717</v>
       </c>
       <c r="P12">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1177,46 +1229,55 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>-2200</v>
+      </c>
+      <c r="F13">
+        <v>-2200</v>
+      </c>
+      <c r="G13">
+        <v>43</v>
       </c>
       <c r="H13">
-        <v>5194</v>
+        <v>5068</v>
       </c>
       <c r="I13">
-        <v>5788</v>
+        <v>4532</v>
       </c>
       <c r="J13">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="L13">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="M13">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>991</v>
+        <v>1109</v>
       </c>
       <c r="O13">
-        <v>827</v>
+        <v>664</v>
       </c>
       <c r="P13">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1224,46 +1285,55 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>-3312.55</v>
+      </c>
+      <c r="F14">
+        <v>-3312.55</v>
+      </c>
+      <c r="G14">
+        <v>18</v>
       </c>
       <c r="H14">
-        <v>5149</v>
+        <v>5074</v>
       </c>
       <c r="I14">
-        <v>5715</v>
+        <v>4544</v>
       </c>
       <c r="J14">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L14">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="M14">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>943</v>
+        <v>1066</v>
       </c>
       <c r="O14">
-        <v>780</v>
+        <v>658</v>
       </c>
       <c r="P14">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1271,46 +1341,55 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>-3200.13</v>
+      </c>
+      <c r="F15">
+        <v>-3200.13</v>
+      </c>
+      <c r="G15">
+        <v>38</v>
       </c>
       <c r="H15">
-        <v>5238</v>
+        <v>5032</v>
       </c>
       <c r="I15">
-        <v>5716</v>
+        <v>4546</v>
       </c>
       <c r="J15">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="L15">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="M15">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>934</v>
+        <v>1061</v>
       </c>
       <c r="O15">
-        <v>775</v>
+        <v>631</v>
       </c>
       <c r="P15">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1318,46 +1397,55 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>-3200</v>
+      </c>
+      <c r="F16">
+        <v>-3200</v>
+      </c>
+      <c r="G16">
+        <v>22</v>
       </c>
       <c r="H16">
-        <v>5251</v>
+        <v>5030</v>
       </c>
       <c r="I16">
-        <v>5717</v>
+        <v>4548</v>
       </c>
       <c r="J16">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="L16">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>926</v>
+        <v>1061</v>
       </c>
       <c r="O16">
-        <v>735</v>
+        <v>606</v>
       </c>
       <c r="P16">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1365,46 +1453,55 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>-3200</v>
+      </c>
+      <c r="F17">
+        <v>-3200</v>
+      </c>
+      <c r="G17">
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>5220</v>
+        <v>5094</v>
       </c>
       <c r="I17">
-        <v>5717</v>
+        <v>4551</v>
       </c>
       <c r="J17">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="L17">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="M17">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>926</v>
+        <v>1061</v>
       </c>
       <c r="O17">
-        <v>733</v>
+        <v>590</v>
       </c>
       <c r="P17">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1412,46 +1509,55 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>-2200</v>
+      </c>
+      <c r="F18">
+        <v>-2200</v>
+      </c>
+      <c r="G18">
+        <v>46</v>
       </c>
       <c r="H18">
-        <v>5247</v>
+        <v>5117</v>
       </c>
       <c r="I18">
-        <v>5704</v>
+        <v>4798</v>
       </c>
       <c r="J18">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="L18">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="M18">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>942</v>
+        <v>1062</v>
       </c>
       <c r="O18">
-        <v>772</v>
+        <v>625</v>
       </c>
       <c r="P18">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1459,46 +1565,55 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>-2200</v>
+      </c>
+      <c r="F19">
+        <v>-2200</v>
+      </c>
+      <c r="G19">
+        <v>58</v>
       </c>
       <c r="H19">
-        <v>5189</v>
+        <v>5104</v>
       </c>
       <c r="I19">
-        <v>5705</v>
+        <v>4802</v>
       </c>
       <c r="J19">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K19">
+        <v>635</v>
+      </c>
+      <c r="L19">
+        <v>477</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>1061</v>
+      </c>
+      <c r="O19">
+        <v>606</v>
+      </c>
+      <c r="P19">
+        <v>1384</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>649</v>
       </c>
-      <c r="L19">
-        <v>427</v>
-      </c>
-      <c r="M19">
-        <v>83</v>
-      </c>
-      <c r="N19">
-        <v>942</v>
-      </c>
-      <c r="O19">
-        <v>775</v>
-      </c>
-      <c r="P19">
-        <v>1379</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1506,46 +1621,55 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>-2649.67</v>
+      </c>
+      <c r="F20">
+        <v>-2649.67</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
       </c>
       <c r="H20">
-        <v>5253</v>
+        <v>5161</v>
       </c>
       <c r="I20">
-        <v>5705</v>
+        <v>4805</v>
       </c>
       <c r="J20">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>656</v>
+        <v>612</v>
       </c>
       <c r="L20">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="M20">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>955</v>
+        <v>1061</v>
       </c>
       <c r="O20">
-        <v>783</v>
+        <v>604</v>
       </c>
       <c r="P20">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1556,43 +1680,52 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>-1042.18</v>
+      </c>
+      <c r="F21">
+        <v>-1042.18</v>
+      </c>
+      <c r="G21">
+        <v>89</v>
       </c>
       <c r="H21">
-        <v>5297</v>
+        <v>5121</v>
       </c>
       <c r="I21">
-        <v>5705</v>
+        <v>4809</v>
       </c>
       <c r="J21">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>667</v>
+        <v>533</v>
       </c>
       <c r="L21">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="M21">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>975</v>
+        <v>1052</v>
       </c>
       <c r="O21">
-        <v>792</v>
+        <v>607</v>
       </c>
       <c r="P21">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1600,46 +1733,55 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>-1077.41</v>
+      </c>
+      <c r="F22">
+        <v>-1077.41</v>
+      </c>
+      <c r="G22">
+        <v>65</v>
       </c>
       <c r="H22">
-        <v>5300</v>
+        <v>5203</v>
       </c>
       <c r="I22">
-        <v>5743</v>
+        <v>5026</v>
       </c>
       <c r="J22">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>689</v>
+        <v>488</v>
       </c>
       <c r="L22">
-        <v>435</v>
+        <v>470</v>
       </c>
       <c r="M22">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>987</v>
+        <v>1046</v>
       </c>
       <c r="O22">
-        <v>870</v>
+        <v>650</v>
       </c>
       <c r="P22">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1647,46 +1789,55 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>-1295.96</v>
+      </c>
+      <c r="F23">
+        <v>-1295.96</v>
+      </c>
+      <c r="G23">
+        <v>83</v>
       </c>
       <c r="H23">
-        <v>5404</v>
+        <v>5209</v>
       </c>
       <c r="I23">
-        <v>5742</v>
+        <v>5027</v>
       </c>
       <c r="J23">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>711</v>
+        <v>480</v>
       </c>
       <c r="L23">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M23">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="O23">
-        <v>1340</v>
+        <v>633</v>
       </c>
       <c r="P23">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1694,46 +1845,55 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="E24">
+        <v>-1206.08</v>
+      </c>
+      <c r="F24">
+        <v>-1206.08</v>
+      </c>
+      <c r="G24">
+        <v>83</v>
       </c>
       <c r="H24">
-        <v>5392</v>
+        <v>5236</v>
       </c>
       <c r="I24">
-        <v>5741</v>
+        <v>5027</v>
       </c>
       <c r="J24">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>693</v>
+        <v>478</v>
       </c>
       <c r="L24">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M24">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1025</v>
+        <v>1046</v>
       </c>
       <c r="O24">
-        <v>1571</v>
+        <v>595</v>
       </c>
       <c r="P24">
-        <v>1377</v>
+        <v>1385</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -1741,46 +1901,55 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>-886.05</v>
+      </c>
+      <c r="F25">
+        <v>-886.05</v>
+      </c>
+      <c r="G25">
+        <v>96</v>
       </c>
       <c r="H25">
-        <v>5525</v>
+        <v>5338</v>
       </c>
       <c r="I25">
-        <v>5740</v>
+        <v>5028</v>
       </c>
       <c r="J25">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>709</v>
+        <v>485</v>
       </c>
       <c r="L25">
         <v>464</v>
       </c>
       <c r="M25">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="O25">
-        <v>1592</v>
+        <v>613</v>
       </c>
       <c r="P25">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -1788,46 +1957,55 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>-322.72</v>
+      </c>
+      <c r="F26">
+        <v>-322.72</v>
+      </c>
+      <c r="G26">
+        <v>107</v>
       </c>
       <c r="H26">
-        <v>5639</v>
+        <v>5500</v>
       </c>
       <c r="I26">
-        <v>6006</v>
+        <v>5428</v>
       </c>
       <c r="J26">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>689</v>
+        <v>498</v>
       </c>
       <c r="L26">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="M26">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1078</v>
+        <v>1101</v>
       </c>
       <c r="O26">
-        <v>1643</v>
+        <v>744</v>
       </c>
       <c r="P26">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1835,46 +2013,55 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="E27">
+        <v>-133.65</v>
+      </c>
+      <c r="F27">
+        <v>-133.65</v>
+      </c>
+      <c r="G27">
+        <v>113</v>
       </c>
       <c r="H27">
-        <v>5713</v>
+        <v>5578</v>
       </c>
       <c r="I27">
-        <v>6005</v>
+        <v>5429</v>
       </c>
       <c r="J27">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>671</v>
+        <v>505</v>
       </c>
       <c r="L27">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="M27">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1082</v>
+        <v>1096</v>
       </c>
       <c r="O27">
-        <v>1579</v>
+        <v>713</v>
       </c>
       <c r="P27">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -1882,46 +2069,55 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+      <c r="E28">
+        <v>-35.79</v>
+      </c>
+      <c r="F28">
+        <v>-35.79</v>
+      </c>
+      <c r="G28">
+        <v>76</v>
       </c>
       <c r="H28">
-        <v>5729</v>
+        <v>5692</v>
       </c>
       <c r="I28">
-        <v>6004</v>
+        <v>5430</v>
       </c>
       <c r="J28">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K28">
+        <v>509</v>
+      </c>
+      <c r="L28">
+        <v>468</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>1096</v>
+      </c>
+      <c r="O28">
         <v>685</v>
       </c>
-      <c r="L28">
-        <v>470</v>
-      </c>
-      <c r="M28">
-        <v>116</v>
-      </c>
-      <c r="N28">
-        <v>1081</v>
-      </c>
-      <c r="O28">
-        <v>1312</v>
-      </c>
       <c r="P28">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -1929,46 +2125,55 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>-47.18</v>
+      </c>
+      <c r="F29">
+        <v>-47.18</v>
+      </c>
+      <c r="G29">
+        <v>93</v>
       </c>
       <c r="H29">
-        <v>5896</v>
+        <v>5783</v>
       </c>
       <c r="I29">
-        <v>6004</v>
+        <v>5432</v>
       </c>
       <c r="J29">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>722</v>
+        <v>507</v>
       </c>
       <c r="L29">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M29">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="O29">
-        <v>1299</v>
+        <v>692</v>
       </c>
       <c r="P29">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R29">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -1976,46 +2181,55 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="E30">
+        <v>-834.1900000000001</v>
+      </c>
+      <c r="F30">
+        <v>-834.1900000000001</v>
+      </c>
+      <c r="G30">
+        <v>124</v>
       </c>
       <c r="H30">
-        <v>6144</v>
+        <v>6026</v>
       </c>
       <c r="I30">
-        <v>6450</v>
+        <v>6241</v>
       </c>
       <c r="J30">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>700</v>
+        <v>491</v>
       </c>
       <c r="L30">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M30">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>1336</v>
+        <v>1359</v>
       </c>
       <c r="O30">
-        <v>1239</v>
+        <v>912</v>
       </c>
       <c r="P30">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="R30">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -2023,46 +2237,55 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>-61.34</v>
+      </c>
+      <c r="F31">
+        <v>-61.34</v>
+      </c>
+      <c r="G31">
+        <v>101</v>
       </c>
       <c r="H31">
-        <v>6329</v>
+        <v>6199</v>
       </c>
       <c r="I31">
-        <v>6450</v>
+        <v>6252</v>
       </c>
       <c r="J31">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>708</v>
+        <v>506</v>
       </c>
       <c r="L31">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M31">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1523</v>
+        <v>1381</v>
       </c>
       <c r="O31">
-        <v>1291</v>
+        <v>977</v>
       </c>
       <c r="P31">
-        <v>1379</v>
+        <v>1383</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R31">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -2070,46 +2293,55 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>-40.93</v>
+      </c>
+      <c r="F32">
+        <v>-40.93</v>
+      </c>
+      <c r="G32">
+        <v>87</v>
       </c>
       <c r="H32">
-        <v>6433</v>
+        <v>6212</v>
       </c>
       <c r="I32">
-        <v>6450</v>
+        <v>6267</v>
       </c>
       <c r="J32">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>703</v>
+        <v>508</v>
       </c>
       <c r="L32">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="M32">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1591</v>
+        <v>1373</v>
       </c>
       <c r="O32">
-        <v>1541</v>
+        <v>880</v>
       </c>
       <c r="P32">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="Q32">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="R32">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -2117,46 +2349,55 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>-84.62</v>
+      </c>
+      <c r="F33">
+        <v>-84.62</v>
+      </c>
+      <c r="G33">
+        <v>105</v>
       </c>
       <c r="H33">
-        <v>6577</v>
+        <v>6276</v>
       </c>
       <c r="I33">
-        <v>6451</v>
+        <v>6286</v>
       </c>
       <c r="J33">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>716</v>
+        <v>505</v>
       </c>
       <c r="L33">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="M33">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>1599</v>
+        <v>1371</v>
       </c>
       <c r="O33">
-        <v>1721</v>
+        <v>787</v>
       </c>
       <c r="P33">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="Q33">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="R33">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -2164,46 +2405,55 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>-969.12</v>
+      </c>
+      <c r="F34">
+        <v>-969.12</v>
+      </c>
+      <c r="G34">
+        <v>68</v>
       </c>
       <c r="H34">
-        <v>6653</v>
+        <v>6293</v>
       </c>
       <c r="I34">
-        <v>6281</v>
+        <v>6494</v>
       </c>
       <c r="J34">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K34">
-        <v>681</v>
+        <v>527</v>
       </c>
       <c r="L34">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M34">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>1586</v>
+        <v>1345</v>
       </c>
       <c r="O34">
-        <v>1602</v>
+        <v>850</v>
       </c>
       <c r="P34">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="Q34">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="R34">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -2211,46 +2461,55 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>-214.97</v>
+      </c>
+      <c r="F35">
+        <v>-214.97</v>
+      </c>
+      <c r="G35">
+        <v>87</v>
       </c>
       <c r="H35">
-        <v>6765</v>
+        <v>6276</v>
       </c>
       <c r="I35">
-        <v>6289</v>
+        <v>6523</v>
       </c>
       <c r="J35">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>692</v>
+        <v>514</v>
       </c>
       <c r="L35">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M35">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1584</v>
+        <v>1342</v>
       </c>
       <c r="O35">
-        <v>1656</v>
+        <v>794</v>
       </c>
       <c r="P35">
-        <v>1380</v>
+        <v>1384</v>
       </c>
       <c r="Q35">
-        <v>132</v>
+        <v>295</v>
       </c>
       <c r="R35">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -2258,55 +2517,55 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E36">
-        <v>975.42</v>
+        <v>-25.46</v>
       </c>
       <c r="F36">
-        <v>975.42</v>
+        <v>-25.46</v>
       </c>
       <c r="G36">
-        <v>-178</v>
+        <v>102</v>
       </c>
       <c r="H36">
-        <v>6882</v>
+        <v>6223</v>
       </c>
       <c r="I36">
-        <v>6299</v>
+        <v>6554</v>
       </c>
       <c r="J36">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>698</v>
+        <v>502</v>
       </c>
       <c r="L36">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="M36">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>1580</v>
+        <v>1340</v>
       </c>
       <c r="O36">
-        <v>1504</v>
+        <v>765</v>
       </c>
       <c r="P36">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="Q36">
-        <v>177</v>
+        <v>370</v>
       </c>
       <c r="R36">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -2314,55 +2573,55 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E37">
-        <v>1090.3800000000001</v>
+        <v>-49.22</v>
       </c>
       <c r="F37">
-        <v>1090.3800000000001</v>
+        <v>-49.22</v>
       </c>
       <c r="G37">
-        <v>-125</v>
+        <v>76</v>
       </c>
       <c r="H37">
-        <v>6816</v>
+        <v>6187</v>
       </c>
       <c r="I37">
-        <v>6308</v>
+        <v>6586</v>
       </c>
       <c r="J37">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>692</v>
+        <v>502</v>
       </c>
       <c r="L37">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="M37">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>1543</v>
+        <v>1340</v>
       </c>
       <c r="O37">
-        <v>1474</v>
+        <v>811</v>
       </c>
       <c r="P37">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="Q37">
-        <v>210</v>
+        <v>447</v>
       </c>
       <c r="R37">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -2370,55 +2629,55 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E38">
-        <v>1076.8399999999999</v>
+        <v>-75.97</v>
       </c>
       <c r="F38">
-        <v>1076.8399999999999</v>
+        <v>-75.97</v>
       </c>
       <c r="G38">
-        <v>-90</v>
+        <v>63</v>
       </c>
       <c r="H38">
-        <v>6832</v>
+        <v>6095</v>
       </c>
       <c r="I38">
-        <v>6182</v>
+        <v>6582</v>
       </c>
       <c r="J38">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>689</v>
+        <v>503</v>
       </c>
       <c r="L38">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M38">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1430</v>
+        <v>1311</v>
       </c>
       <c r="O38">
-        <v>1450</v>
+        <v>828</v>
       </c>
       <c r="P38">
-        <v>1381</v>
+        <v>1369</v>
       </c>
       <c r="Q38">
-        <v>197</v>
+        <v>540</v>
       </c>
       <c r="R38">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -2426,55 +2685,55 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E39">
-        <v>980.78</v>
+        <v>-81.29000000000001</v>
       </c>
       <c r="F39">
-        <v>980.78</v>
+        <v>-81.29000000000001</v>
       </c>
       <c r="G39">
-        <v>-109</v>
+        <v>59</v>
       </c>
       <c r="H39">
-        <v>6845</v>
+        <v>6034</v>
       </c>
       <c r="I39">
-        <v>6197</v>
+        <v>6615</v>
       </c>
       <c r="J39">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>693</v>
+        <v>502</v>
       </c>
       <c r="L39">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M39">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1402</v>
+        <v>1268</v>
       </c>
       <c r="O39">
-        <v>1441</v>
+        <v>823</v>
       </c>
       <c r="P39">
-        <v>1380</v>
+        <v>1316</v>
       </c>
       <c r="Q39">
-        <v>185</v>
+        <v>626</v>
       </c>
       <c r="R39">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -2482,55 +2741,55 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E40">
-        <v>990.44</v>
+        <v>-678.24</v>
       </c>
       <c r="F40">
-        <v>990.44</v>
+        <v>-678.24</v>
       </c>
       <c r="G40">
-        <v>-114</v>
+        <v>77</v>
       </c>
       <c r="H40">
-        <v>6954</v>
+        <v>6017</v>
       </c>
       <c r="I40">
-        <v>6211</v>
+        <v>6644</v>
       </c>
       <c r="J40">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>694</v>
+        <v>489</v>
       </c>
       <c r="L40">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M40">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1406</v>
+        <v>1296</v>
       </c>
       <c r="O40">
-        <v>1342</v>
+        <v>790</v>
       </c>
       <c r="P40">
-        <v>1381</v>
+        <v>1299</v>
       </c>
       <c r="Q40">
-        <v>190</v>
+        <v>692</v>
       </c>
       <c r="R40">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -2538,55 +2797,55 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E41">
-        <v>1035.67</v>
+        <v>-1195.51</v>
       </c>
       <c r="F41">
-        <v>1035.67</v>
+        <v>-1195.51</v>
       </c>
       <c r="G41">
-        <v>-122</v>
+        <v>97</v>
       </c>
       <c r="H41">
-        <v>6983</v>
+        <v>5966</v>
       </c>
       <c r="I41">
-        <v>6223</v>
+        <v>6672</v>
       </c>
       <c r="J41">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>696</v>
+        <v>469</v>
       </c>
       <c r="L41">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M41">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>1407</v>
+        <v>1290</v>
       </c>
       <c r="O41">
-        <v>1335</v>
+        <v>729</v>
       </c>
       <c r="P41">
-        <v>1381</v>
+        <v>1299</v>
       </c>
       <c r="Q41">
-        <v>190</v>
+        <v>757</v>
       </c>
       <c r="R41">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -2594,55 +2853,55 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E42">
-        <v>892.92</v>
+        <v>-425.45</v>
       </c>
       <c r="F42">
-        <v>892.92</v>
+        <v>-425.45</v>
       </c>
       <c r="G42">
-        <v>-102</v>
+        <v>47</v>
       </c>
       <c r="H42">
-        <v>6890</v>
+        <v>5798</v>
       </c>
       <c r="I42">
-        <v>5960</v>
+        <v>6602</v>
       </c>
       <c r="J42">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K42">
-        <v>692</v>
+        <v>495</v>
       </c>
       <c r="L42">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M42">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1273</v>
+        <v>1194</v>
       </c>
       <c r="O42">
-        <v>1297</v>
+        <v>813</v>
       </c>
       <c r="P42">
-        <v>1381</v>
+        <v>1299</v>
       </c>
       <c r="Q42">
-        <v>231</v>
+        <v>825</v>
       </c>
       <c r="R42">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -2650,55 +2909,55 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E43">
-        <v>892.42</v>
+        <v>-696.67</v>
       </c>
       <c r="F43">
-        <v>892.42</v>
+        <v>-696.67</v>
       </c>
       <c r="G43">
-        <v>-115</v>
+        <v>52</v>
       </c>
       <c r="H43">
-        <v>6915</v>
+        <v>5765</v>
       </c>
       <c r="I43">
-        <v>5968</v>
+        <v>6628</v>
       </c>
       <c r="J43">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>694</v>
+        <v>487</v>
       </c>
       <c r="L43">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M43">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>1222</v>
+        <v>1189</v>
       </c>
       <c r="O43">
-        <v>1294</v>
+        <v>790</v>
       </c>
       <c r="P43">
-        <v>1381</v>
+        <v>1310</v>
       </c>
       <c r="Q43">
-        <v>259</v>
+        <v>869</v>
       </c>
       <c r="R43">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -2706,55 +2965,55 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E44">
-        <v>883.81</v>
+        <v>-970.47</v>
       </c>
       <c r="F44">
-        <v>883.81</v>
+        <v>-970.47</v>
       </c>
       <c r="G44">
-        <v>-111</v>
+        <v>97</v>
       </c>
       <c r="H44">
-        <v>6922</v>
+        <v>5626</v>
       </c>
       <c r="I44">
-        <v>5978</v>
+        <v>6649</v>
       </c>
       <c r="J44">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>697</v>
+        <v>468</v>
       </c>
       <c r="L44">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M44">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>1225</v>
+        <v>1174</v>
       </c>
       <c r="O44">
-        <v>1302</v>
+        <v>647</v>
       </c>
       <c r="P44">
-        <v>1371</v>
+        <v>1336</v>
       </c>
       <c r="Q44">
-        <v>233</v>
+        <v>918</v>
       </c>
       <c r="R44">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -2762,55 +3021,55 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>854.71</v>
+        <v>-698.58</v>
       </c>
       <c r="F45">
-        <v>854.71</v>
+        <v>-698.58</v>
       </c>
       <c r="G45">
-        <v>-147</v>
+        <v>123</v>
       </c>
       <c r="H45">
-        <v>6983</v>
+        <v>5564</v>
       </c>
       <c r="I45">
-        <v>5985</v>
+        <v>6669</v>
       </c>
       <c r="J45">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K45">
-        <v>696</v>
+        <v>466</v>
       </c>
       <c r="L45">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="M45">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>1227</v>
+        <v>1145</v>
       </c>
       <c r="O45">
-        <v>1301</v>
+        <v>555</v>
       </c>
       <c r="P45">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="Q45">
-        <v>245</v>
+        <v>947</v>
       </c>
       <c r="R45">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -2818,55 +3077,55 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E46">
-        <v>974.13</v>
+        <v>-357.09</v>
       </c>
       <c r="F46">
-        <v>974.13</v>
+        <v>-357.09</v>
       </c>
       <c r="G46">
-        <v>-117</v>
+        <v>74</v>
       </c>
       <c r="H46">
-        <v>6881</v>
+        <v>5468</v>
       </c>
       <c r="I46">
-        <v>5857</v>
+        <v>6280</v>
       </c>
       <c r="J46">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>706</v>
+        <v>489</v>
       </c>
       <c r="L46">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M46">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>1234</v>
+        <v>1108</v>
       </c>
       <c r="O46">
-        <v>1253</v>
+        <v>331</v>
       </c>
       <c r="P46">
-        <v>1334</v>
+        <v>1343</v>
       </c>
       <c r="Q46">
-        <v>264</v>
+        <v>1005</v>
       </c>
       <c r="R46">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -2874,55 +3133,55 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E47">
-        <v>975.82</v>
+        <v>-462.19</v>
       </c>
       <c r="F47">
-        <v>975.82</v>
+        <v>-462.19</v>
       </c>
       <c r="G47">
-        <v>-154</v>
+        <v>86</v>
       </c>
       <c r="H47">
-        <v>6979</v>
+        <v>5358</v>
       </c>
       <c r="I47">
-        <v>5863</v>
+        <v>6301</v>
       </c>
       <c r="J47">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>701</v>
+        <v>488</v>
       </c>
       <c r="L47">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M47">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>1220</v>
+        <v>1105</v>
       </c>
       <c r="O47">
-        <v>1251</v>
+        <v>307</v>
       </c>
       <c r="P47">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="Q47">
-        <v>274</v>
+        <v>1044</v>
       </c>
       <c r="R47">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -2930,55 +3189,55 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E48">
-        <v>894.12</v>
+        <v>-924.29</v>
       </c>
       <c r="F48">
-        <v>894.12</v>
+        <v>-924.29</v>
       </c>
       <c r="G48">
-        <v>-133</v>
+        <v>102</v>
       </c>
       <c r="H48">
-        <v>6910</v>
+        <v>5354</v>
       </c>
       <c r="I48">
-        <v>5872</v>
+        <v>6311</v>
       </c>
       <c r="J48">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>697</v>
+        <v>468</v>
       </c>
       <c r="L48">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="M48">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N48">
-        <v>1252</v>
+        <v>1100</v>
       </c>
       <c r="O48">
-        <v>1279</v>
+        <v>246</v>
       </c>
       <c r="P48">
-        <v>1334</v>
+        <v>1316</v>
       </c>
       <c r="Q48">
-        <v>293</v>
+        <v>1080</v>
       </c>
       <c r="R48">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -2986,55 +3245,55 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E49">
-        <v>990.54</v>
+        <v>-989.0700000000001</v>
       </c>
       <c r="F49">
-        <v>990.54</v>
+        <v>-989.0700000000001</v>
       </c>
       <c r="G49">
-        <v>-120</v>
+        <v>110</v>
       </c>
       <c r="H49">
-        <v>6901</v>
+        <v>5337</v>
       </c>
       <c r="I49">
-        <v>5877</v>
+        <v>6323</v>
       </c>
       <c r="J49">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K49">
-        <v>692</v>
+        <v>468</v>
       </c>
       <c r="L49">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M49">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1256</v>
+        <v>1103</v>
       </c>
       <c r="O49">
-        <v>1262</v>
+        <v>235</v>
       </c>
       <c r="P49">
-        <v>1336</v>
+        <v>1317</v>
       </c>
       <c r="Q49">
-        <v>320</v>
+        <v>1097</v>
       </c>
       <c r="R49">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -3042,55 +3301,55 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E50">
-        <v>860.92</v>
+        <v>-669.3</v>
       </c>
       <c r="F50">
-        <v>860.92</v>
+        <v>-669.3</v>
       </c>
       <c r="G50">
-        <v>-126</v>
+        <v>116</v>
       </c>
       <c r="H50">
-        <v>6763</v>
+        <v>5227</v>
       </c>
       <c r="I50">
-        <v>5835</v>
+        <v>6375</v>
       </c>
       <c r="J50">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K50">
-        <v>692</v>
+        <v>473</v>
       </c>
       <c r="L50">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="M50">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>1286</v>
+        <v>1171</v>
       </c>
       <c r="O50">
-        <v>1269</v>
+        <v>184</v>
       </c>
       <c r="P50">
-        <v>1338</v>
+        <v>1316</v>
       </c>
       <c r="Q50">
-        <v>332</v>
+        <v>1120</v>
       </c>
       <c r="R50">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -3098,55 +3357,55 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E51">
-        <v>1209.98</v>
+        <v>-767.66</v>
       </c>
       <c r="F51">
-        <v>1209.98</v>
+        <v>-767.66</v>
       </c>
       <c r="G51">
-        <v>-97</v>
+        <v>129</v>
       </c>
       <c r="H51">
-        <v>6705</v>
+        <v>5177</v>
       </c>
       <c r="I51">
-        <v>5839</v>
+        <v>6383</v>
       </c>
       <c r="J51">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K51">
-        <v>686</v>
+        <v>470</v>
       </c>
       <c r="L51">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="M51">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>1281</v>
+        <v>1185</v>
       </c>
       <c r="O51">
-        <v>1231</v>
+        <v>142</v>
       </c>
       <c r="P51">
-        <v>1338</v>
+        <v>1316</v>
       </c>
       <c r="Q51">
-        <v>352</v>
+        <v>1131</v>
       </c>
       <c r="R51">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -3154,55 +3413,55 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E52">
-        <v>1464.11</v>
+        <v>-654.17</v>
       </c>
       <c r="F52">
-        <v>1464.11</v>
+        <v>-654.17</v>
       </c>
       <c r="G52">
-        <v>-96</v>
+        <v>111</v>
       </c>
       <c r="H52">
-        <v>6653</v>
+        <v>5256</v>
       </c>
       <c r="I52">
-        <v>5843</v>
+        <v>6384</v>
       </c>
       <c r="J52">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K52">
-        <v>679</v>
+        <v>476</v>
       </c>
       <c r="L52">
-        <v>465</v>
+        <v>434</v>
       </c>
       <c r="M52">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1222</v>
+        <v>1185</v>
       </c>
       <c r="O52">
-        <v>1152</v>
+        <v>172</v>
       </c>
       <c r="P52">
-        <v>1338</v>
+        <v>1343</v>
       </c>
       <c r="Q52">
-        <v>348</v>
+        <v>1154</v>
       </c>
       <c r="R52">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -3210,55 +3469,55 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>1225.3399999999999</v>
+        <v>-695.9</v>
       </c>
       <c r="F53">
-        <v>1225.3399999999999</v>
+        <v>-695.9</v>
       </c>
       <c r="G53">
-        <v>-57</v>
+        <v>119</v>
       </c>
       <c r="H53">
-        <v>6722</v>
+        <v>5234</v>
       </c>
       <c r="I53">
-        <v>5844</v>
+        <v>6385</v>
       </c>
       <c r="J53">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K53">
-        <v>689</v>
+        <v>474</v>
       </c>
       <c r="L53">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="M53">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="O53">
-        <v>1081</v>
+        <v>162</v>
       </c>
       <c r="P53">
-        <v>1339</v>
+        <v>1356</v>
       </c>
       <c r="Q53">
-        <v>336</v>
+        <v>1162</v>
       </c>
       <c r="R53">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -3266,55 +3525,55 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E54">
-        <v>2241.5100000000002</v>
+        <v>-408.31</v>
       </c>
       <c r="F54">
-        <v>2241.5100000000002</v>
+        <v>-408.31</v>
       </c>
       <c r="G54">
-        <v>-4</v>
+        <v>135</v>
       </c>
       <c r="H54">
-        <v>6706</v>
+        <v>5205</v>
       </c>
       <c r="I54">
-        <v>5785</v>
+        <v>6339</v>
       </c>
       <c r="J54">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K54">
-        <v>681</v>
+        <v>496</v>
       </c>
       <c r="L54">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="M54">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="O54">
-        <v>970</v>
+        <v>267</v>
       </c>
       <c r="P54">
-        <v>1338</v>
+        <v>1356</v>
       </c>
       <c r="Q54">
-        <v>317</v>
+        <v>1164</v>
       </c>
       <c r="R54">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -3322,55 +3581,55 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E55">
-        <v>2022.26</v>
+        <v>-331.38</v>
       </c>
       <c r="F55">
-        <v>2022.26</v>
+        <v>-331.38</v>
       </c>
       <c r="G55">
-        <v>-25</v>
+        <v>115</v>
       </c>
       <c r="H55">
-        <v>6845</v>
+        <v>5202</v>
       </c>
       <c r="I55">
-        <v>5787</v>
+        <v>6337</v>
       </c>
       <c r="J55">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K55">
-        <v>673</v>
+        <v>502</v>
       </c>
       <c r="L55">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="M55">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N55">
-        <v>1099</v>
+        <v>1167</v>
       </c>
       <c r="O55">
-        <v>931</v>
+        <v>283</v>
       </c>
       <c r="P55">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="Q55">
-        <v>309</v>
+        <v>1167</v>
       </c>
       <c r="R55">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -3378,55 +3637,55 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>-3200</v>
+        <v>-373.67</v>
       </c>
       <c r="F56">
-        <v>798.58</v>
+        <v>-373.67</v>
       </c>
       <c r="G56">
-        <v>-11</v>
+        <v>94</v>
       </c>
       <c r="H56">
-        <v>6860</v>
+        <v>5262</v>
       </c>
       <c r="I56">
-        <v>5787</v>
+        <v>6333</v>
       </c>
       <c r="J56">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K56">
-        <v>668</v>
+        <v>503</v>
       </c>
       <c r="L56">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M56">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>1091</v>
+        <v>1160</v>
       </c>
       <c r="O56">
-        <v>907</v>
+        <v>290</v>
       </c>
       <c r="P56">
-        <v>1340</v>
+        <v>1319</v>
       </c>
       <c r="Q56">
-        <v>326</v>
+        <v>1166</v>
       </c>
       <c r="R56">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
@@ -3434,55 +3693,55 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E57">
-        <v>-3200</v>
+        <v>-288.31</v>
       </c>
       <c r="F57">
-        <v>798.58</v>
+        <v>-288.31</v>
       </c>
       <c r="G57">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H57">
-        <v>6801</v>
+        <v>5236</v>
       </c>
       <c r="I57">
-        <v>5785</v>
+        <v>6326</v>
       </c>
       <c r="J57">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K57">
-        <v>654</v>
+        <v>498</v>
       </c>
       <c r="L57">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="M57">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N57">
-        <v>1091</v>
+        <v>1158</v>
       </c>
       <c r="O57">
-        <v>859</v>
+        <v>278</v>
       </c>
       <c r="P57">
-        <v>1362</v>
+        <v>1316</v>
       </c>
       <c r="Q57">
-        <v>299</v>
+        <v>1161</v>
       </c>
       <c r="R57">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -3490,55 +3749,55 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <v>1993.22</v>
+        <v>-365.93</v>
       </c>
       <c r="F58">
-        <v>1993.22</v>
+        <v>-365.93</v>
       </c>
       <c r="G58">
-        <v>-14</v>
+        <v>91</v>
       </c>
       <c r="H58">
-        <v>6702</v>
+        <v>5228</v>
       </c>
       <c r="I58">
-        <v>5774</v>
+        <v>6206</v>
       </c>
       <c r="J58">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K58">
-        <v>675</v>
+        <v>495</v>
       </c>
       <c r="L58">
-        <v>466</v>
+        <v>488</v>
       </c>
       <c r="M58">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>1092</v>
+        <v>1164</v>
       </c>
       <c r="O58">
-        <v>936</v>
+        <v>269</v>
       </c>
       <c r="P58">
-        <v>1367</v>
+        <v>1316</v>
       </c>
       <c r="Q58">
-        <v>293</v>
+        <v>1146</v>
       </c>
       <c r="R58">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -3546,55 +3805,55 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E59">
-        <v>-2500</v>
+        <v>-300.54</v>
       </c>
       <c r="F59">
-        <v>796.54</v>
+        <v>-300.54</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="H59">
-        <v>6673</v>
+        <v>5253</v>
       </c>
       <c r="I59">
-        <v>5771</v>
+        <v>6196</v>
       </c>
       <c r="J59">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K59">
-        <v>668</v>
+        <v>496</v>
       </c>
       <c r="L59">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="M59">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>1092</v>
+        <v>1163</v>
       </c>
       <c r="O59">
-        <v>914</v>
+        <v>279</v>
       </c>
       <c r="P59">
-        <v>1368</v>
+        <v>1318</v>
       </c>
       <c r="Q59">
-        <v>291</v>
+        <v>1128</v>
       </c>
       <c r="R59">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
@@ -3602,55 +3861,55 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E60">
-        <v>2109.29</v>
+        <v>-393.03</v>
       </c>
       <c r="F60">
-        <v>2109.29</v>
+        <v>-393.03</v>
       </c>
       <c r="G60">
-        <v>-22</v>
+        <v>67</v>
       </c>
       <c r="H60">
-        <v>6687</v>
+        <v>5283</v>
       </c>
       <c r="I60">
-        <v>5765</v>
+        <v>6185</v>
       </c>
       <c r="J60">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K60">
-        <v>672</v>
+        <v>495</v>
       </c>
       <c r="L60">
-        <v>464</v>
+        <v>489</v>
       </c>
       <c r="M60">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>1083</v>
+        <v>1161</v>
       </c>
       <c r="O60">
-        <v>941</v>
+        <v>272</v>
       </c>
       <c r="P60">
-        <v>1367</v>
+        <v>1343</v>
       </c>
       <c r="Q60">
-        <v>285</v>
+        <v>1123</v>
       </c>
       <c r="R60">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" s="1" t="s">
         <v>18</v>
       </c>
@@ -3658,55 +3917,55 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="E61">
-        <v>-2500</v>
+        <v>-269.29</v>
       </c>
       <c r="F61">
-        <v>796.54</v>
+        <v>-269.29</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="H61">
-        <v>6572</v>
+        <v>5319</v>
       </c>
       <c r="I61">
-        <v>5759</v>
+        <v>6170</v>
       </c>
       <c r="J61">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K61">
-        <v>667</v>
+        <v>496</v>
       </c>
       <c r="L61">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="M61">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>1075</v>
+        <v>1161</v>
       </c>
       <c r="O61">
-        <v>918</v>
+        <v>285</v>
       </c>
       <c r="P61">
-        <v>1367</v>
+        <v>1347</v>
       </c>
       <c r="Q61">
-        <v>266</v>
+        <v>1106</v>
       </c>
       <c r="R61">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
       <c r="A62" s="1" t="s">
         <v>18</v>
       </c>
@@ -3714,55 +3973,55 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E62">
-        <v>-3200</v>
+        <v>-963.38</v>
       </c>
       <c r="F62">
-        <v>781.51</v>
+        <v>-963.38</v>
       </c>
       <c r="G62">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H62">
-        <v>6564</v>
+        <v>5288</v>
       </c>
       <c r="I62">
-        <v>5923</v>
+        <v>6005</v>
       </c>
       <c r="J62">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K62">
-        <v>666</v>
+        <v>485</v>
       </c>
       <c r="L62">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="M62">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N62">
-        <v>1213</v>
+        <v>1147</v>
       </c>
       <c r="O62">
-        <v>930</v>
+        <v>274</v>
       </c>
       <c r="P62">
-        <v>1367</v>
+        <v>1347</v>
       </c>
       <c r="Q62">
-        <v>236</v>
+        <v>1063</v>
       </c>
       <c r="R62">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -3770,55 +4029,55 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E63">
-        <v>2039.84</v>
+        <v>-1148.17</v>
       </c>
       <c r="F63">
-        <v>2039.84</v>
+        <v>-1148.17</v>
       </c>
       <c r="G63">
-        <v>-7</v>
+        <v>87</v>
       </c>
       <c r="H63">
-        <v>6594</v>
+        <v>5279</v>
       </c>
       <c r="I63">
-        <v>5917</v>
+        <v>5989</v>
       </c>
       <c r="J63">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K63">
-        <v>677</v>
+        <v>477</v>
       </c>
       <c r="L63">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="M63">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>1223</v>
+        <v>1148</v>
       </c>
       <c r="O63">
-        <v>963</v>
+        <v>259</v>
       </c>
       <c r="P63">
-        <v>1367</v>
+        <v>1347</v>
       </c>
       <c r="Q63">
-        <v>250</v>
+        <v>1047</v>
       </c>
       <c r="R63">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
@@ -3826,55 +4085,55 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E64">
-        <v>1492.08</v>
+        <v>-510.17</v>
       </c>
       <c r="F64">
-        <v>1492.08</v>
+        <v>-510.17</v>
       </c>
       <c r="G64">
-        <v>-6</v>
+        <v>60</v>
       </c>
       <c r="H64">
-        <v>6541</v>
+        <v>5314</v>
       </c>
       <c r="I64">
-        <v>5906</v>
+        <v>5971</v>
       </c>
       <c r="J64">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K64">
-        <v>679</v>
+        <v>497</v>
       </c>
       <c r="L64">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="M64">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N64">
-        <v>1230</v>
+        <v>1146</v>
       </c>
       <c r="O64">
-        <v>968</v>
+        <v>316</v>
       </c>
       <c r="P64">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="Q64">
-        <v>257</v>
+        <v>1019</v>
       </c>
       <c r="R64">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -3882,55 +4141,55 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E65">
-        <v>2692.04</v>
+        <v>-91.77</v>
       </c>
       <c r="F65">
-        <v>2692.04</v>
+        <v>-91.77</v>
       </c>
       <c r="G65">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H65">
-        <v>6507</v>
+        <v>5347</v>
       </c>
       <c r="I65">
-        <v>5897</v>
+        <v>5951</v>
       </c>
       <c r="J65">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K65">
-        <v>675</v>
+        <v>503</v>
       </c>
       <c r="L65">
-        <v>471</v>
+        <v>510</v>
       </c>
       <c r="M65">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>1227</v>
+        <v>1146</v>
       </c>
       <c r="O65">
-        <v>967</v>
+        <v>351</v>
       </c>
       <c r="P65">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="Q65">
-        <v>257</v>
+        <v>969</v>
       </c>
       <c r="R65">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
@@ -3938,55 +4197,55 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E66">
-        <v>-2500</v>
+        <v>-144.77</v>
       </c>
       <c r="F66">
-        <v>792.69</v>
+        <v>-144.77</v>
       </c>
       <c r="G66">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="H66">
-        <v>6552</v>
+        <v>5394</v>
       </c>
       <c r="I66">
-        <v>5836</v>
+        <v>6132</v>
       </c>
       <c r="J66">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K66">
-        <v>661</v>
+        <v>498</v>
       </c>
       <c r="L66">
-        <v>469</v>
+        <v>507</v>
       </c>
       <c r="M66">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>1298</v>
+        <v>1255</v>
       </c>
       <c r="O66">
-        <v>952</v>
+        <v>562</v>
       </c>
       <c r="P66">
-        <v>1352</v>
+        <v>1334</v>
       </c>
       <c r="Q66">
-        <v>197</v>
+        <v>916</v>
       </c>
       <c r="R66">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
       <c r="A67" s="1" t="s">
         <v>18</v>
       </c>
@@ -3994,55 +4253,55 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E67">
-        <v>-2500</v>
+        <v>-43.35</v>
       </c>
       <c r="F67">
-        <v>789.31</v>
+        <v>-43.35</v>
       </c>
       <c r="G67">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="H67">
-        <v>6567</v>
+        <v>5508</v>
       </c>
       <c r="I67">
-        <v>5824</v>
+        <v>6104</v>
       </c>
       <c r="J67">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K67">
-        <v>650</v>
+        <v>505</v>
       </c>
       <c r="L67">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="M67">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>1417</v>
+        <v>1266</v>
       </c>
       <c r="O67">
-        <v>802</v>
+        <v>632</v>
       </c>
       <c r="P67">
-        <v>1353</v>
+        <v>1330</v>
       </c>
       <c r="Q67">
-        <v>172</v>
+        <v>892</v>
       </c>
       <c r="R67">
-        <v>1440</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -4050,55 +4309,55 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>-1196.6400000000001</v>
+        <v>-471.7</v>
       </c>
       <c r="F68">
-        <v>-1196.6400000000001</v>
+        <v>-471.7</v>
       </c>
       <c r="G68">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="H68">
-        <v>6596</v>
+        <v>5539</v>
       </c>
       <c r="I68">
-        <v>5812</v>
+        <v>6076</v>
       </c>
       <c r="J68">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K68">
-        <v>630</v>
+        <v>529</v>
       </c>
       <c r="L68">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="M68">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N68">
-        <v>1401</v>
+        <v>1247</v>
       </c>
       <c r="O68">
-        <v>656</v>
+        <v>736</v>
       </c>
       <c r="P68">
-        <v>1352</v>
+        <v>1331</v>
       </c>
       <c r="Q68">
-        <v>161</v>
+        <v>836</v>
       </c>
       <c r="R68">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
       <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
@@ -4106,55 +4365,55 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E69">
-        <v>-190.83</v>
+        <v>-2200</v>
       </c>
       <c r="F69">
-        <v>-190.83</v>
+        <v>2200</v>
       </c>
       <c r="G69">
-        <v>144</v>
+        <v>-33</v>
       </c>
       <c r="H69">
-        <v>6570</v>
+        <v>5659</v>
       </c>
       <c r="I69">
-        <v>5802</v>
+        <v>6051</v>
       </c>
       <c r="J69">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K69">
-        <v>532</v>
+        <v>609</v>
       </c>
       <c r="L69">
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="M69">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>1300</v>
+        <v>1238</v>
       </c>
       <c r="O69">
-        <v>674</v>
+        <v>807</v>
       </c>
       <c r="P69">
-        <v>1352</v>
+        <v>1330</v>
       </c>
       <c r="Q69">
-        <v>148</v>
+        <v>765</v>
       </c>
       <c r="R69">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -4162,55 +4421,55 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E70">
-        <v>-289.45</v>
+        <v>-3202.96</v>
       </c>
       <c r="F70">
-        <v>-289.45</v>
+        <v>-3202.96</v>
       </c>
       <c r="G70">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="H70">
-        <v>6688</v>
+        <v>5702</v>
       </c>
       <c r="I70">
-        <v>5835</v>
+        <v>5959</v>
       </c>
       <c r="J70">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K70">
-        <v>489</v>
+        <v>614</v>
       </c>
       <c r="L70">
-        <v>426</v>
+        <v>506</v>
       </c>
       <c r="M70">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>1311</v>
+        <v>1245</v>
       </c>
       <c r="O70">
-        <v>763</v>
+        <v>887</v>
       </c>
       <c r="P70">
-        <v>1353</v>
+        <v>1331</v>
       </c>
       <c r="Q70">
-        <v>116</v>
+        <v>693</v>
       </c>
       <c r="R70">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
@@ -4218,55 +4477,55 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71">
-        <v>-48.96</v>
+        <v>-3204.29</v>
       </c>
       <c r="F71">
-        <v>-48.96</v>
+        <v>-3204.29</v>
       </c>
       <c r="G71">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="H71">
-        <v>6627</v>
+        <v>5821</v>
       </c>
       <c r="I71">
-        <v>5825</v>
+        <v>5933</v>
       </c>
       <c r="J71">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K71">
-        <v>500</v>
+        <v>617</v>
       </c>
       <c r="L71">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="M71">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>1329</v>
+        <v>1247</v>
       </c>
       <c r="O71">
-        <v>798</v>
+        <v>929</v>
       </c>
       <c r="P71">
-        <v>1352</v>
+        <v>1336</v>
       </c>
       <c r="Q71">
-        <v>100</v>
+        <v>644</v>
       </c>
       <c r="R71">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
       <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
@@ -4274,55 +4533,55 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E72">
-        <v>-641.22</v>
+        <v>985.78</v>
       </c>
       <c r="F72">
-        <v>-641.22</v>
+        <v>985.78</v>
       </c>
       <c r="G72">
-        <v>96</v>
+        <v>-17</v>
       </c>
       <c r="H72">
-        <v>6695</v>
+        <v>5993</v>
       </c>
       <c r="I72">
-        <v>5822</v>
+        <v>5902</v>
       </c>
       <c r="J72">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K72">
-        <v>516</v>
+        <v>681</v>
       </c>
       <c r="L72">
-        <v>433</v>
+        <v>523</v>
       </c>
       <c r="M72">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>1370</v>
+        <v>1250</v>
       </c>
       <c r="O72">
-        <v>880</v>
+        <v>1025</v>
       </c>
       <c r="P72">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="Q72">
-        <v>91</v>
+        <v>578</v>
       </c>
       <c r="R72">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
@@ -4330,55 +4589,55 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E73">
-        <v>3623.39</v>
+        <v>971.59</v>
       </c>
       <c r="F73">
-        <v>3623.39</v>
+        <v>971.59</v>
       </c>
       <c r="G73">
-        <v>-9</v>
+        <v>-28</v>
       </c>
       <c r="H73">
-        <v>6746</v>
+        <v>5996</v>
       </c>
       <c r="I73">
-        <v>5814</v>
+        <v>5875</v>
       </c>
       <c r="J73">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K73">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="L73">
-        <v>442</v>
+        <v>533</v>
       </c>
       <c r="M73">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N73">
-        <v>1421</v>
+        <v>1312</v>
       </c>
       <c r="O73">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="P73">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="Q73">
-        <v>88</v>
+        <v>477</v>
       </c>
       <c r="R73">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
@@ -4386,55 +4645,55 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E74">
-        <v>-2500</v>
+        <v>-2200</v>
       </c>
       <c r="F74">
-        <v>-2500</v>
+        <v>803.97</v>
       </c>
       <c r="G74">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="H74">
-        <v>6756</v>
+        <v>6102</v>
       </c>
       <c r="I74">
-        <v>6023</v>
+        <v>5893</v>
       </c>
       <c r="J74">
         <v>56</v>
       </c>
       <c r="K74">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="L74">
-        <v>441</v>
+        <v>541</v>
       </c>
       <c r="M74">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N74">
-        <v>1375</v>
+        <v>1519</v>
       </c>
       <c r="O74">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="P74">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="Q74">
-        <v>71</v>
+        <v>398</v>
       </c>
       <c r="R74">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
@@ -4442,55 +4701,55 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E75">
-        <v>-2747.33</v>
+        <v>-2200</v>
       </c>
       <c r="F75">
-        <v>-2747.33</v>
+        <v>803.97</v>
       </c>
       <c r="G75">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="H75">
-        <v>6718</v>
+        <v>6231</v>
       </c>
       <c r="I75">
-        <v>6016</v>
+        <v>5862</v>
       </c>
       <c r="J75">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K75">
-        <v>624</v>
+        <v>673</v>
       </c>
       <c r="L75">
-        <v>442</v>
+        <v>545</v>
       </c>
       <c r="M75">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N75">
-        <v>1368</v>
+        <v>1538</v>
       </c>
       <c r="O75">
-        <v>1047</v>
+        <v>1058</v>
       </c>
       <c r="P75">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="Q75">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="R75">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="1" t="s">
         <v>18</v>
       </c>
@@ -4498,55 +4757,55 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E76">
-        <v>-373.02</v>
+        <v>929.9400000000001</v>
       </c>
       <c r="F76">
-        <v>-373.02</v>
+        <v>929.9400000000001</v>
       </c>
       <c r="G76">
-        <v>105</v>
+        <v>-36</v>
       </c>
       <c r="H76">
-        <v>6805</v>
+        <v>6327</v>
       </c>
       <c r="I76">
-        <v>6013</v>
+        <v>5844</v>
       </c>
       <c r="J76">
         <v>55</v>
       </c>
       <c r="K76">
-        <v>563</v>
+        <v>697</v>
       </c>
       <c r="L76">
-        <v>437</v>
+        <v>552</v>
       </c>
       <c r="M76">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>1328</v>
+        <v>1539</v>
       </c>
       <c r="O76">
-        <v>944</v>
+        <v>1153</v>
       </c>
       <c r="P76">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="Q76">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="R76">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
@@ -4554,55 +4813,55 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E77">
-        <v>-1464.97</v>
+        <v>904.51</v>
       </c>
       <c r="F77">
-        <v>-1464.97</v>
+        <v>904.51</v>
       </c>
       <c r="G77">
-        <v>38</v>
+        <v>-43</v>
       </c>
       <c r="H77">
-        <v>6831</v>
+        <v>6340</v>
       </c>
       <c r="I77">
-        <v>6011</v>
+        <v>5828</v>
       </c>
       <c r="J77">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K77">
-        <v>529</v>
+        <v>698</v>
       </c>
       <c r="L77">
-        <v>445</v>
+        <v>551</v>
       </c>
       <c r="M77">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N77">
-        <v>1327</v>
+        <v>1548</v>
       </c>
       <c r="O77">
-        <v>1075</v>
+        <v>1159</v>
       </c>
       <c r="P77">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="Q77">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="R77">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
@@ -4610,55 +4869,55 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E78">
-        <v>-722.67</v>
+        <v>-3200</v>
       </c>
       <c r="F78">
-        <v>-722.67</v>
+        <v>899.91</v>
       </c>
       <c r="G78">
-        <v>-44</v>
+        <v>-12</v>
       </c>
       <c r="H78">
-        <v>6827</v>
+        <v>6451</v>
       </c>
       <c r="I78">
-        <v>6024</v>
+        <v>5669</v>
       </c>
       <c r="J78">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K78">
-        <v>523</v>
+        <v>677</v>
       </c>
       <c r="L78">
-        <v>441</v>
+        <v>544</v>
       </c>
       <c r="M78">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="N78">
-        <v>1346</v>
+        <v>1535</v>
       </c>
       <c r="O78">
-        <v>1044</v>
+        <v>1142</v>
       </c>
       <c r="P78">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="Q78">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="R78">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="1" t="s">
         <v>18</v>
       </c>
@@ -4666,55 +4925,55 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E79">
-        <v>-222.84</v>
+        <v>3017.82</v>
       </c>
       <c r="F79">
-        <v>3000</v>
+        <v>3017.82</v>
       </c>
       <c r="G79">
-        <v>-118</v>
+        <v>-24</v>
       </c>
       <c r="H79">
-        <v>6891</v>
+        <v>6554</v>
       </c>
       <c r="I79">
-        <v>6022</v>
+        <v>5659</v>
       </c>
       <c r="J79">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K79">
-        <v>605</v>
+        <v>684</v>
       </c>
       <c r="L79">
-        <v>448</v>
+        <v>546</v>
       </c>
       <c r="M79">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>1451</v>
+        <v>1533</v>
       </c>
       <c r="O79">
-        <v>1298</v>
+        <v>1182</v>
       </c>
       <c r="P79">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="Q79">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="R79">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
@@ -4722,55 +4981,55 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E80">
-        <v>2411.9699999999998</v>
+        <v>1142.31</v>
       </c>
       <c r="F80">
-        <v>2411.9699999999998</v>
+        <v>1142.31</v>
       </c>
       <c r="G80">
-        <v>-130</v>
+        <v>-38</v>
       </c>
       <c r="H80">
-        <v>6966</v>
+        <v>6686</v>
       </c>
       <c r="I80">
-        <v>6021</v>
+        <v>5652</v>
       </c>
       <c r="J80">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K80">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="L80">
-        <v>467</v>
+        <v>553</v>
       </c>
       <c r="M80">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>1457</v>
+        <v>1535</v>
       </c>
       <c r="O80">
-        <v>1361</v>
+        <v>1228</v>
       </c>
       <c r="P80">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="Q80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R80">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="1" t="s">
         <v>18</v>
       </c>
@@ -4778,55 +5037,55 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E81">
-        <v>1510.95</v>
+        <v>1150.38</v>
       </c>
       <c r="F81">
-        <v>1510.95</v>
+        <v>1150.38</v>
       </c>
       <c r="G81">
-        <v>-210</v>
+        <v>-38</v>
       </c>
       <c r="H81">
-        <v>7068</v>
+        <v>6750</v>
       </c>
       <c r="I81">
-        <v>6020</v>
+        <v>5648</v>
       </c>
       <c r="J81">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K81">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="L81">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="M81">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>1459</v>
+        <v>1535</v>
       </c>
       <c r="O81">
-        <v>1726</v>
+        <v>1234</v>
       </c>
       <c r="P81">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="Q81">
         <v>10</v>
       </c>
       <c r="R81">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -4834,55 +5093,55 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E82">
-        <v>1328.7</v>
+        <v>-2200</v>
       </c>
       <c r="F82">
-        <v>1328.7</v>
+        <v>1065.71</v>
       </c>
       <c r="G82">
-        <v>-193</v>
+        <v>26</v>
       </c>
       <c r="H82">
-        <v>7096</v>
+        <v>6858</v>
       </c>
       <c r="I82">
-        <v>6098</v>
+        <v>5701</v>
       </c>
       <c r="J82">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K82">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="L82">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="M82">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N82">
-        <v>1448</v>
+        <v>1536</v>
       </c>
       <c r="O82">
-        <v>1707</v>
+        <v>1145</v>
       </c>
       <c r="P82">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R82">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -4890,55 +5149,55 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E83">
-        <v>1331.98</v>
+        <v>-2200</v>
       </c>
       <c r="F83">
-        <v>1331.98</v>
+        <v>1065.95</v>
       </c>
       <c r="G83">
-        <v>-207</v>
+        <v>14</v>
       </c>
       <c r="H83">
-        <v>7223</v>
+        <v>7029</v>
       </c>
       <c r="I83">
-        <v>6099</v>
+        <v>5702</v>
       </c>
       <c r="J83">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K83">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="L83">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="M83">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N83">
-        <v>1470</v>
+        <v>1543</v>
       </c>
       <c r="O83">
-        <v>1711</v>
+        <v>1190</v>
       </c>
       <c r="P83">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="1" t="s">
         <v>18</v>
       </c>
@@ -4946,55 +5205,55 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E84">
-        <v>1410.13</v>
+        <v>1330.23</v>
       </c>
       <c r="F84">
-        <v>1410.13</v>
+        <v>1330.23</v>
       </c>
       <c r="G84">
-        <v>-189</v>
+        <v>-24</v>
       </c>
       <c r="H84">
-        <v>7286</v>
+        <v>7182</v>
       </c>
       <c r="I84">
-        <v>6101</v>
+        <v>5704</v>
       </c>
       <c r="J84">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K84">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L84">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="M84">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>1470</v>
+        <v>1535</v>
       </c>
       <c r="O84">
-        <v>1881</v>
+        <v>1226</v>
       </c>
       <c r="P84">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="1" t="s">
         <v>18</v>
       </c>
@@ -5002,55 +5261,55 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
         <v>54</v>
       </c>
       <c r="E85">
-        <v>1466.98</v>
+        <v>1386.94</v>
       </c>
       <c r="F85">
-        <v>1466.98</v>
+        <v>1386.94</v>
       </c>
       <c r="G85">
-        <v>-215</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>7295</v>
+        <v>7182</v>
       </c>
       <c r="I85">
-        <v>6102</v>
+        <v>5705</v>
       </c>
       <c r="J85">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K85">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="L85">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="M85">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N85">
-        <v>1471</v>
+        <v>1483</v>
       </c>
       <c r="O85">
-        <v>1928</v>
+        <v>1199</v>
       </c>
       <c r="P85">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -5058,55 +5317,55 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E86">
-        <v>1289.75</v>
+        <v>-3200</v>
       </c>
       <c r="F86">
-        <v>1289.75</v>
+        <v>3000</v>
       </c>
       <c r="G86">
-        <v>-187</v>
+        <v>22</v>
       </c>
       <c r="H86">
-        <v>7168</v>
+        <v>7122</v>
       </c>
       <c r="I86">
-        <v>6099</v>
+        <v>5669</v>
       </c>
       <c r="J86">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K86">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="L86">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="M86">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N86">
-        <v>1501</v>
+        <v>1447</v>
       </c>
       <c r="O86">
-        <v>1822</v>
+        <v>1150</v>
       </c>
       <c r="P86">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
@@ -5114,55 +5373,55 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D87" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E87">
-        <v>1235.8900000000001</v>
+        <v>-1912.64</v>
       </c>
       <c r="F87">
-        <v>1235.8900000000001</v>
+        <v>-1912.64</v>
       </c>
       <c r="G87">
-        <v>-170</v>
+        <v>43</v>
       </c>
       <c r="H87">
-        <v>7111</v>
+        <v>7101</v>
       </c>
       <c r="I87">
-        <v>6099</v>
+        <v>5669</v>
       </c>
       <c r="J87">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K87">
-        <v>694</v>
+        <v>609</v>
       </c>
       <c r="L87">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="M87">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>1503</v>
+        <v>1438</v>
       </c>
       <c r="O87">
-        <v>1803</v>
+        <v>1128</v>
       </c>
       <c r="P87">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
@@ -5170,55 +5429,55 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>1233.1199999999999</v>
+        <v>-1339.19</v>
       </c>
       <c r="F88">
-        <v>1233.1199999999999</v>
+        <v>-1339.19</v>
       </c>
       <c r="G88">
-        <v>-171</v>
+        <v>73</v>
       </c>
       <c r="H88">
-        <v>7010</v>
+        <v>6948</v>
       </c>
       <c r="I88">
-        <v>6099</v>
+        <v>5670</v>
       </c>
       <c r="J88">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K88">
-        <v>694</v>
+        <v>513</v>
       </c>
       <c r="L88">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="M88">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>1501</v>
+        <v>1435</v>
       </c>
       <c r="O88">
-        <v>1802</v>
+        <v>1076</v>
       </c>
       <c r="P88">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="1" t="s">
         <v>18</v>
       </c>
@@ -5226,55 +5485,55 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>-1011.89</v>
+      </c>
+      <c r="F89">
+        <v>-1011.89</v>
+      </c>
+      <c r="G89">
+        <v>144</v>
+      </c>
+      <c r="H89">
+        <v>6770</v>
+      </c>
+      <c r="I89">
+        <v>5670</v>
+      </c>
+      <c r="J89">
         <v>55</v>
       </c>
-      <c r="E89">
-        <v>1440.86</v>
-      </c>
-      <c r="F89">
-        <v>1440.86</v>
-      </c>
-      <c r="G89">
-        <v>-119</v>
-      </c>
-      <c r="H89">
-        <v>6894</v>
-      </c>
-      <c r="I89">
-        <v>6099</v>
-      </c>
-      <c r="J89">
-        <v>50</v>
-      </c>
       <c r="K89">
-        <v>704</v>
+        <v>471</v>
       </c>
       <c r="L89">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="M89">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>1498</v>
+        <v>1436</v>
       </c>
       <c r="O89">
-        <v>1564</v>
+        <v>855</v>
       </c>
       <c r="P89">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="1" t="s">
         <v>18</v>
       </c>
@@ -5282,55 +5541,55 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D90" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>1501.62</v>
+        <v>-123.75</v>
       </c>
       <c r="F90">
-        <v>1501.62</v>
+        <v>-123.75</v>
       </c>
       <c r="G90">
-        <v>-182</v>
+        <v>122</v>
       </c>
       <c r="H90">
-        <v>6638</v>
+        <v>6610</v>
       </c>
       <c r="I90">
-        <v>6029</v>
+        <v>5605</v>
       </c>
       <c r="J90">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K90">
-        <v>725</v>
+        <v>498</v>
       </c>
       <c r="L90">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="M90">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>1496</v>
+        <v>1380</v>
       </c>
       <c r="O90">
-        <v>1640</v>
+        <v>820</v>
       </c>
       <c r="P90">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="1" t="s">
         <v>18</v>
       </c>
@@ -5338,55 +5597,55 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D91" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>-348.25</v>
+      </c>
+      <c r="F91">
+        <v>-348.25</v>
+      </c>
+      <c r="G91">
+        <v>171</v>
+      </c>
+      <c r="H91">
+        <v>6425</v>
+      </c>
+      <c r="I91">
+        <v>5605</v>
+      </c>
+      <c r="J91">
         <v>57</v>
       </c>
-      <c r="E91">
-        <v>1373.83</v>
-      </c>
-      <c r="F91">
-        <v>1373.83</v>
-      </c>
-      <c r="G91">
-        <v>-146</v>
-      </c>
-      <c r="H91">
-        <v>6522</v>
-      </c>
-      <c r="I91">
-        <v>6029</v>
-      </c>
-      <c r="J91">
-        <v>50</v>
-      </c>
       <c r="K91">
-        <v>715</v>
+        <v>493</v>
       </c>
       <c r="L91">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="M91">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N91">
-        <v>1487</v>
+        <v>1372</v>
       </c>
       <c r="O91">
-        <v>1591</v>
+        <v>752</v>
       </c>
       <c r="P91">
-        <v>1351</v>
+        <v>1363</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -5394,55 +5653,55 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D92" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E92">
-        <v>1464.77</v>
+        <v>-474.14</v>
       </c>
       <c r="F92">
-        <v>1464.77</v>
+        <v>-474.14</v>
       </c>
       <c r="G92">
-        <v>-111</v>
+        <v>179</v>
       </c>
       <c r="H92">
-        <v>6320</v>
+        <v>6283</v>
       </c>
       <c r="I92">
-        <v>6028</v>
+        <v>5604</v>
       </c>
       <c r="J92">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K92">
-        <v>685</v>
+        <v>478</v>
       </c>
       <c r="L92">
-        <v>488</v>
+        <v>505</v>
       </c>
       <c r="M92">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>1487</v>
+        <v>1356</v>
       </c>
       <c r="O92">
-        <v>1478</v>
+        <v>690</v>
       </c>
       <c r="P92">
-        <v>1351</v>
+        <v>1364</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -5450,55 +5709,55 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <v>-468.38</v>
+      </c>
+      <c r="F93">
+        <v>-468.38</v>
+      </c>
+      <c r="G93">
+        <v>238</v>
+      </c>
+      <c r="H93">
+        <v>6148</v>
+      </c>
+      <c r="I93">
+        <v>5604</v>
+      </c>
+      <c r="J93">
         <v>56</v>
       </c>
-      <c r="E93">
-        <v>2594.25</v>
-      </c>
-      <c r="F93">
-        <v>2594.25</v>
-      </c>
-      <c r="G93">
-        <v>-27</v>
-      </c>
-      <c r="H93">
-        <v>6167</v>
-      </c>
-      <c r="I93">
-        <v>6027</v>
-      </c>
-      <c r="J93">
-        <v>50</v>
-      </c>
       <c r="K93">
-        <v>668</v>
+        <v>474</v>
       </c>
       <c r="L93">
-        <v>487</v>
+        <v>505</v>
       </c>
       <c r="M93">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="N93">
-        <v>1488</v>
+        <v>1325</v>
       </c>
       <c r="O93">
-        <v>1392</v>
+        <v>616</v>
       </c>
       <c r="P93">
-        <v>1352</v>
+        <v>1363</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="1" t="s">
         <v>18</v>
       </c>
@@ -5506,55 +5765,55 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E94">
-        <v>1983.89</v>
+        <v>-150.9</v>
       </c>
       <c r="F94">
-        <v>1983.89</v>
+        <v>-150.9</v>
       </c>
       <c r="G94">
-        <v>-27</v>
+        <v>143</v>
       </c>
       <c r="H94">
         <v>5999</v>
       </c>
       <c r="I94">
-        <v>5883</v>
+        <v>5543</v>
       </c>
       <c r="J94">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K94">
-        <v>682</v>
+        <v>501</v>
       </c>
       <c r="L94">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="M94">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>1497</v>
+        <v>1301</v>
       </c>
       <c r="O94">
-        <v>1347</v>
+        <v>650</v>
       </c>
       <c r="P94">
-        <v>1351</v>
+        <v>1364</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="1" t="s">
         <v>18</v>
       </c>
@@ -5562,55 +5821,55 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95">
+        <v>-129.99</v>
+      </c>
+      <c r="F95">
+        <v>-129.99</v>
+      </c>
+      <c r="G95">
+        <v>159</v>
+      </c>
+      <c r="H95">
+        <v>5820</v>
+      </c>
+      <c r="I95">
+        <v>5543</v>
+      </c>
+      <c r="J95">
         <v>58</v>
       </c>
-      <c r="E95">
-        <v>2422.9899999999998</v>
-      </c>
-      <c r="F95">
-        <v>2422.9899999999998</v>
-      </c>
-      <c r="G95">
-        <v>-17</v>
-      </c>
-      <c r="H95">
-        <v>5955</v>
-      </c>
-      <c r="I95">
-        <v>5883</v>
-      </c>
-      <c r="J95">
-        <v>51</v>
-      </c>
       <c r="K95">
-        <v>674</v>
+        <v>504</v>
       </c>
       <c r="L95">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="M95">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>1485</v>
+        <v>1297</v>
       </c>
       <c r="O95">
-        <v>1310</v>
+        <v>647</v>
       </c>
       <c r="P95">
-        <v>1352</v>
+        <v>1363</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -5618,55 +5877,55 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
+        <v>19</v>
+      </c>
+      <c r="E96">
+        <v>-279.91</v>
+      </c>
+      <c r="F96">
+        <v>-279.91</v>
+      </c>
+      <c r="G96">
+        <v>171</v>
+      </c>
+      <c r="H96">
+        <v>5754</v>
+      </c>
+      <c r="I96">
+        <v>5543</v>
+      </c>
+      <c r="J96">
         <v>58</v>
       </c>
-      <c r="E96">
-        <v>2431.59</v>
-      </c>
-      <c r="F96">
-        <v>2431.59</v>
-      </c>
-      <c r="G96">
-        <v>-73</v>
-      </c>
-      <c r="H96">
-        <v>5821</v>
-      </c>
-      <c r="I96">
-        <v>5882</v>
-      </c>
-      <c r="J96">
-        <v>50</v>
-      </c>
       <c r="K96">
-        <v>673</v>
+        <v>495</v>
       </c>
       <c r="L96">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="M96">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="N96">
-        <v>1487</v>
+        <v>1296</v>
       </c>
       <c r="O96">
-        <v>1307</v>
+        <v>623</v>
       </c>
       <c r="P96">
-        <v>1360</v>
+        <v>1363</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="1" t="s">
         <v>18</v>
       </c>
@@ -5674,52 +5933,52 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D97" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E97">
-        <v>2405.1799999999998</v>
+        <v>-651.92</v>
       </c>
       <c r="F97">
-        <v>2405.1799999999998</v>
+        <v>-651.92</v>
       </c>
       <c r="G97">
-        <v>13</v>
+        <v>192</v>
       </c>
       <c r="H97">
-        <v>5761</v>
+        <v>5637</v>
       </c>
       <c r="I97">
-        <v>5882</v>
+        <v>5543</v>
       </c>
       <c r="J97">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K97">
-        <v>673</v>
+        <v>480</v>
       </c>
       <c r="L97">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="M97">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="N97">
-        <v>1485</v>
+        <v>1293</v>
       </c>
       <c r="O97">
-        <v>1302</v>
+        <v>556</v>
       </c>
       <c r="P97">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>637</v>
+        <v>1516</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Entsoe_data.xlsx
+++ b/Market Fundamentals/Entsoe_data/Entsoe_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -70,115 +70,82 @@
     <t>Wind Onshore</t>
   </si>
   <si>
-    <t>11.04.2024</t>
+    <t>12.05.2024</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>27</t>
+    <t>75</t>
   </si>
   <si>
-    <t>41</t>
+    <t>92</t>
   </si>
   <si>
-    <t>49</t>
+    <t>101</t>
   </si>
   <si>
-    <t>54</t>
+    <t>90</t>
   </si>
   <si>
-    <t>66</t>
+    <t>69</t>
   </si>
   <si>
-    <t>72</t>
+    <t>64</t>
   </si>
   <si>
-    <t>59</t>
+    <t>61</t>
   </si>
   <si>
-    <t>85</t>
+    <t>23</t>
   </si>
   <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>88</t>
+    <t>46</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>38</t>
+    <t>94</t>
   </si>
   <si>
-    <t>55</t>
+    <t>99</t>
   </si>
   <si>
-    <t>90</t>
+    <t>97</t>
   </si>
   <si>
-    <t>127</t>
+    <t>83</t>
   </si>
   <si>
-    <t>96</t>
+    <t>79</t>
   </si>
   <si>
-    <t>87</t>
+    <t>37</t>
   </si>
   <si>
-    <t>74</t>
+    <t>9</t>
   </si>
   <si>
-    <t>62</t>
+    <t>3</t>
   </si>
   <si>
-    <t>48</t>
+    <t>80</t>
   </si>
   <si>
-    <t>64</t>
+    <t>19</t>
   </si>
   <si>
-    <t>23</t>
+    <t>17</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>40</t>
+    <t>68</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>77</t>
   </si>
 </sst>
 </file>
@@ -616,49 +583,40 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2">
-        <v>-1045.7</v>
-      </c>
-      <c r="F2">
-        <v>-1045.7</v>
-      </c>
-      <c r="G2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>5495</v>
+        <v>5263</v>
       </c>
       <c r="I2">
-        <v>4645</v>
+        <v>4405</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K2">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="L2">
-        <v>483</v>
+        <v>277</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1285</v>
+        <v>1251</v>
       </c>
       <c r="O2">
-        <v>794</v>
+        <v>737</v>
       </c>
       <c r="P2">
-        <v>1382</v>
+        <v>1359</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>50</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -672,49 +630,49 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>-2200</v>
+        <v>905.24</v>
       </c>
       <c r="F3">
-        <v>-2200</v>
+        <v>905.24</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>-59</v>
       </c>
       <c r="H3">
-        <v>5461</v>
+        <v>5229</v>
       </c>
       <c r="I3">
-        <v>4644</v>
+        <v>4406</v>
       </c>
       <c r="J3">
         <v>57</v>
       </c>
       <c r="K3">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="L3">
-        <v>473</v>
+        <v>272</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1278</v>
+        <v>1222</v>
       </c>
       <c r="O3">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="P3">
-        <v>1382</v>
+        <v>1359</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>43</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -728,49 +686,49 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>-2200</v>
+        <v>950.91</v>
       </c>
       <c r="F4">
-        <v>-2200</v>
+        <v>950.91</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>-22</v>
       </c>
       <c r="H4">
-        <v>5405</v>
+        <v>5158</v>
       </c>
       <c r="I4">
-        <v>4644</v>
+        <v>4406</v>
       </c>
       <c r="J4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="L4">
-        <v>473</v>
+        <v>266</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1279</v>
+        <v>1228</v>
       </c>
       <c r="O4">
-        <v>756</v>
+        <v>476</v>
       </c>
       <c r="P4">
-        <v>1382</v>
+        <v>1359</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>34</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -784,49 +742,49 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>-2200</v>
+        <v>1206.23</v>
       </c>
       <c r="F5">
-        <v>-2200</v>
+        <v>1206.23</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>-17</v>
       </c>
       <c r="H5">
-        <v>5357</v>
+        <v>5045</v>
       </c>
       <c r="I5">
-        <v>4644</v>
+        <v>4407</v>
       </c>
       <c r="J5">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="L5">
-        <v>473</v>
+        <v>265</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1279</v>
+        <v>1218</v>
       </c>
       <c r="O5">
-        <v>752</v>
+        <v>458</v>
       </c>
       <c r="P5">
-        <v>1382</v>
+        <v>1359</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>30</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -840,49 +798,49 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>-3200</v>
+        <v>2074.09</v>
       </c>
       <c r="F6">
-        <v>3000</v>
+        <v>2074.09</v>
       </c>
       <c r="G6">
-        <v>-4</v>
+        <v>-43</v>
       </c>
       <c r="H6">
-        <v>5273</v>
+        <v>4903</v>
       </c>
       <c r="I6">
-        <v>4466</v>
+        <v>4482</v>
       </c>
       <c r="J6">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="L6">
-        <v>480</v>
+        <v>257</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1124</v>
+        <v>1155</v>
       </c>
       <c r="O6">
-        <v>769</v>
+        <v>465</v>
       </c>
       <c r="P6">
-        <v>1382</v>
+        <v>1359</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>27</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -896,49 +854,49 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>3000</v>
+        <v>1959.63</v>
       </c>
       <c r="F7">
-        <v>3000</v>
+        <v>1959.63</v>
       </c>
       <c r="G7">
-        <v>-8</v>
+        <v>-62</v>
       </c>
       <c r="H7">
-        <v>5333</v>
+        <v>4927</v>
       </c>
       <c r="I7">
-        <v>4466</v>
+        <v>4483</v>
       </c>
       <c r="J7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="L7">
-        <v>481</v>
+        <v>257</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1107</v>
+        <v>1144</v>
       </c>
       <c r="O7">
-        <v>770</v>
+        <v>446</v>
       </c>
       <c r="P7">
-        <v>1382</v>
+        <v>1360</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>30</v>
+        <v>716</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -952,49 +910,49 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>-3502.2</v>
+        <v>1485</v>
       </c>
       <c r="F8">
-        <v>-3502.2</v>
+        <v>1485</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="H8">
-        <v>5238</v>
+        <v>4865</v>
       </c>
       <c r="I8">
-        <v>4467</v>
+        <v>4484</v>
       </c>
       <c r="J8">
         <v>57</v>
       </c>
       <c r="K8">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="L8">
-        <v>480</v>
+        <v>257</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1106</v>
+        <v>1126</v>
       </c>
       <c r="O8">
-        <v>738</v>
+        <v>427</v>
       </c>
       <c r="P8">
-        <v>1382</v>
+        <v>1360</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>53</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1008,49 +966,49 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>-3200</v>
+        <v>1268.9</v>
       </c>
       <c r="F9">
-        <v>-3200</v>
+        <v>1268.9</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>-17</v>
       </c>
       <c r="H9">
-        <v>5225</v>
+        <v>4851</v>
       </c>
       <c r="I9">
-        <v>4467</v>
+        <v>4485</v>
       </c>
       <c r="J9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L9">
-        <v>479</v>
+        <v>253</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1106</v>
+        <v>1111</v>
       </c>
       <c r="O9">
-        <v>725</v>
+        <v>417</v>
       </c>
       <c r="P9">
-        <v>1382</v>
+        <v>1360</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>86</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1067,46 +1025,46 @@
         <v>19</v>
       </c>
       <c r="E10">
-        <v>-2200</v>
+        <v>2005.18</v>
       </c>
       <c r="F10">
-        <v>2200</v>
+        <v>2005.18</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="H10">
-        <v>5133</v>
+        <v>4779</v>
       </c>
       <c r="I10">
-        <v>4530</v>
+        <v>4507</v>
       </c>
       <c r="J10">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="L10">
-        <v>480</v>
+        <v>223</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="O10">
-        <v>746</v>
+        <v>402</v>
       </c>
       <c r="P10">
-        <v>1383</v>
+        <v>1359</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>125</v>
+        <v>966</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1123,46 +1081,46 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>-2200</v>
+        <v>2050.23</v>
       </c>
       <c r="F11">
-        <v>-2200</v>
+        <v>2050.23</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="H11">
-        <v>5100</v>
+        <v>4786</v>
       </c>
       <c r="I11">
-        <v>4531</v>
+        <v>4508</v>
       </c>
       <c r="J11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="L11">
-        <v>478</v>
+        <v>222</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1107</v>
+        <v>1087</v>
       </c>
       <c r="O11">
-        <v>721</v>
+        <v>391</v>
       </c>
       <c r="P11">
-        <v>1383</v>
+        <v>1359</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>161</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1179,46 +1137,46 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>-2203.36</v>
+        <v>-15.3</v>
       </c>
       <c r="F12">
-        <v>-2203.36</v>
+        <v>-15.3</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>5049</v>
+        <v>4744</v>
       </c>
       <c r="I12">
-        <v>4531</v>
+        <v>4509</v>
       </c>
       <c r="J12">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="L12">
-        <v>479</v>
+        <v>222</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1108</v>
+        <v>1064</v>
       </c>
       <c r="O12">
-        <v>717</v>
+        <v>378</v>
       </c>
       <c r="P12">
-        <v>1383</v>
+        <v>1359</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>200</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1235,46 +1193,46 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>-2200</v>
+        <v>0.1</v>
       </c>
       <c r="F13">
-        <v>-2200</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H13">
-        <v>5068</v>
+        <v>4736</v>
       </c>
       <c r="I13">
-        <v>4532</v>
+        <v>4509</v>
       </c>
       <c r="J13">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K13">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="L13">
-        <v>477</v>
+        <v>222</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1109</v>
+        <v>1041</v>
       </c>
       <c r="O13">
-        <v>664</v>
+        <v>365</v>
       </c>
       <c r="P13">
-        <v>1383</v>
+        <v>1359</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>249</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1291,46 +1249,46 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>-3312.55</v>
+        <v>-3207.58</v>
       </c>
       <c r="F14">
-        <v>-3312.55</v>
+        <v>-3207.58</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>5074</v>
+        <v>4682</v>
       </c>
       <c r="I14">
-        <v>4544</v>
+        <v>4527</v>
       </c>
       <c r="J14">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K14">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="L14">
-        <v>482</v>
+        <v>222</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="O14">
-        <v>658</v>
+        <v>345</v>
       </c>
       <c r="P14">
-        <v>1383</v>
+        <v>1359</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>311</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1346,47 +1304,38 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
-        <v>-3200.13</v>
-      </c>
-      <c r="F15">
-        <v>-3200.13</v>
-      </c>
-      <c r="G15">
-        <v>38</v>
-      </c>
       <c r="H15">
-        <v>5032</v>
+        <v>4682</v>
       </c>
       <c r="I15">
-        <v>4546</v>
+        <v>4528</v>
       </c>
       <c r="J15">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="L15">
-        <v>478</v>
+        <v>222</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="O15">
-        <v>631</v>
+        <v>331</v>
       </c>
       <c r="P15">
-        <v>1383</v>
+        <v>1360</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>361</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1409,40 +1358,40 @@
         <v>-3200</v>
       </c>
       <c r="G16">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H16">
-        <v>5030</v>
+        <v>4736</v>
       </c>
       <c r="I16">
-        <v>4548</v>
+        <v>4530</v>
       </c>
       <c r="J16">
         <v>58</v>
       </c>
       <c r="K16">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="L16">
-        <v>475</v>
+        <v>222</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1061</v>
+        <v>1044</v>
       </c>
       <c r="O16">
-        <v>606</v>
+        <v>332</v>
       </c>
       <c r="P16">
-        <v>1384</v>
+        <v>1360</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>404</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1465,40 +1414,40 @@
         <v>-3200</v>
       </c>
       <c r="G17">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="H17">
-        <v>5094</v>
+        <v>4732</v>
       </c>
       <c r="I17">
-        <v>4551</v>
+        <v>4531</v>
       </c>
       <c r="J17">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="L17">
-        <v>475</v>
+        <v>223</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1061</v>
+        <v>1047</v>
       </c>
       <c r="O17">
-        <v>590</v>
+        <v>331</v>
       </c>
       <c r="P17">
-        <v>1383</v>
+        <v>1360</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>476</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1515,46 +1464,46 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <v>-2200</v>
+        <v>-76.84999999999999</v>
       </c>
       <c r="F18">
-        <v>-2200</v>
+        <v>-76.84999999999999</v>
       </c>
       <c r="G18">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>5117</v>
+        <v>4650</v>
       </c>
       <c r="I18">
-        <v>4798</v>
+        <v>4599</v>
       </c>
       <c r="J18">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="L18">
-        <v>477</v>
+        <v>226</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="O18">
-        <v>625</v>
+        <v>346</v>
       </c>
       <c r="P18">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>573</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1571,46 +1520,46 @@
         <v>19</v>
       </c>
       <c r="E19">
-        <v>-2200</v>
+        <v>-0.89</v>
       </c>
       <c r="F19">
-        <v>-2200</v>
+        <v>-0.89</v>
       </c>
       <c r="G19">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="H19">
-        <v>5104</v>
+        <v>4652</v>
       </c>
       <c r="I19">
-        <v>4802</v>
+        <v>4600</v>
       </c>
       <c r="J19">
         <v>58</v>
       </c>
       <c r="K19">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="L19">
-        <v>477</v>
+        <v>226</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="O19">
-        <v>606</v>
+        <v>341</v>
       </c>
       <c r="P19">
-        <v>1384</v>
+        <v>1360</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>649</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1627,46 +1576,46 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>-2649.67</v>
+        <v>-2447.96</v>
       </c>
       <c r="F20">
-        <v>-2649.67</v>
+        <v>-2447.96</v>
       </c>
       <c r="G20">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>5161</v>
+        <v>4677</v>
       </c>
       <c r="I20">
-        <v>4805</v>
+        <v>4600</v>
       </c>
       <c r="J20">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K20">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="L20">
-        <v>477</v>
+        <v>225</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="O20">
-        <v>604</v>
+        <v>348</v>
       </c>
       <c r="P20">
-        <v>1384</v>
+        <v>1360</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>713</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1677,52 +1626,52 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
       <c r="E21">
-        <v>-1042.18</v>
+        <v>2749.22</v>
       </c>
       <c r="F21">
-        <v>-1042.18</v>
+        <v>2749.22</v>
       </c>
       <c r="G21">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>5121</v>
+        <v>4696</v>
       </c>
       <c r="I21">
-        <v>4809</v>
+        <v>4600</v>
       </c>
       <c r="J21">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>533</v>
+        <v>629</v>
       </c>
       <c r="L21">
-        <v>471</v>
+        <v>217</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="O21">
-        <v>607</v>
+        <v>351</v>
       </c>
       <c r="P21">
-        <v>1384</v>
+        <v>1360</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>805</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1733,52 +1682,52 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>19</v>
       </c>
       <c r="E22">
-        <v>-1077.41</v>
+        <v>3000</v>
       </c>
       <c r="F22">
-        <v>-1077.41</v>
+        <v>3000</v>
       </c>
       <c r="G22">
-        <v>65</v>
+        <v>-17</v>
       </c>
       <c r="H22">
-        <v>5203</v>
+        <v>4716</v>
       </c>
       <c r="I22">
-        <v>5026</v>
+        <v>4615</v>
       </c>
       <c r="J22">
         <v>58</v>
       </c>
       <c r="K22">
-        <v>488</v>
+        <v>643</v>
       </c>
       <c r="L22">
-        <v>470</v>
+        <v>217</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1046</v>
+        <v>1099</v>
       </c>
       <c r="O22">
-        <v>650</v>
+        <v>316</v>
       </c>
       <c r="P22">
-        <v>1385</v>
+        <v>1360</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>897</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1789,52 +1738,52 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>19</v>
       </c>
       <c r="E23">
-        <v>-1295.96</v>
+        <v>3000</v>
       </c>
       <c r="F23">
-        <v>-1295.96</v>
+        <v>3000</v>
       </c>
       <c r="G23">
-        <v>83</v>
+        <v>-13</v>
       </c>
       <c r="H23">
-        <v>5209</v>
+        <v>4636</v>
       </c>
       <c r="I23">
-        <v>5027</v>
+        <v>4614</v>
       </c>
       <c r="J23">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>480</v>
+        <v>645</v>
       </c>
       <c r="L23">
-        <v>469</v>
+        <v>217</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1046</v>
+        <v>1100</v>
       </c>
       <c r="O23">
-        <v>633</v>
+        <v>306</v>
       </c>
       <c r="P23">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>989</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1845,52 +1794,52 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
         <v>19</v>
       </c>
       <c r="E24">
-        <v>-1206.08</v>
+        <v>3000</v>
       </c>
       <c r="F24">
-        <v>-1206.08</v>
+        <v>3000</v>
       </c>
       <c r="G24">
-        <v>83</v>
+        <v>-17</v>
       </c>
       <c r="H24">
-        <v>5236</v>
+        <v>4603</v>
       </c>
       <c r="I24">
-        <v>5027</v>
+        <v>4614</v>
       </c>
       <c r="J24">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>478</v>
+        <v>648</v>
       </c>
       <c r="L24">
-        <v>466</v>
+        <v>217</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1046</v>
+        <v>1113</v>
       </c>
       <c r="O24">
-        <v>595</v>
+        <v>318</v>
       </c>
       <c r="P24">
-        <v>1385</v>
+        <v>1359</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1072</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1901,52 +1850,52 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>19</v>
       </c>
       <c r="E25">
-        <v>-886.05</v>
+        <v>3000</v>
       </c>
       <c r="F25">
-        <v>-886.05</v>
+        <v>3000</v>
       </c>
       <c r="G25">
-        <v>96</v>
+        <v>-46</v>
       </c>
       <c r="H25">
-        <v>5338</v>
+        <v>4630</v>
       </c>
       <c r="I25">
-        <v>5028</v>
+        <v>4614</v>
       </c>
       <c r="J25">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K25">
-        <v>485</v>
+        <v>653</v>
       </c>
       <c r="L25">
-        <v>464</v>
+        <v>217</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1049</v>
+        <v>1128</v>
       </c>
       <c r="O25">
-        <v>613</v>
+        <v>330</v>
       </c>
       <c r="P25">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1164</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1957,52 +1906,52 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26">
-        <v>-322.72</v>
+        <v>2045.75</v>
       </c>
       <c r="F26">
-        <v>-322.72</v>
+        <v>2045.75</v>
       </c>
       <c r="G26">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>5500</v>
+        <v>4586</v>
       </c>
       <c r="I26">
-        <v>5428</v>
+        <v>4609</v>
       </c>
       <c r="J26">
         <v>58</v>
       </c>
       <c r="K26">
-        <v>498</v>
+        <v>644</v>
       </c>
       <c r="L26">
-        <v>468</v>
+        <v>217</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="O26">
-        <v>744</v>
+        <v>340</v>
       </c>
       <c r="P26">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1254</v>
+        <v>977</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2013,52 +1962,52 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27">
-        <v>-133.65</v>
+        <v>-1007.98</v>
       </c>
       <c r="F27">
-        <v>-133.65</v>
+        <v>-1007.98</v>
       </c>
       <c r="G27">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="H27">
-        <v>5578</v>
+        <v>4569</v>
       </c>
       <c r="I27">
-        <v>5429</v>
+        <v>4610</v>
       </c>
       <c r="J27">
         <v>58</v>
       </c>
       <c r="K27">
-        <v>505</v>
+        <v>638</v>
       </c>
       <c r="L27">
-        <v>468</v>
+        <v>217</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="O27">
-        <v>713</v>
+        <v>337</v>
       </c>
       <c r="P27">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>1363</v>
+        <v>947</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2069,52 +2018,52 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28">
-        <v>-35.79</v>
+        <v>0.1</v>
       </c>
       <c r="F28">
-        <v>-35.79</v>
+        <v>2000</v>
       </c>
       <c r="G28">
-        <v>76</v>
+        <v>-1</v>
       </c>
       <c r="H28">
-        <v>5692</v>
+        <v>4585</v>
       </c>
       <c r="I28">
-        <v>5430</v>
+        <v>4611</v>
       </c>
       <c r="J28">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>509</v>
+        <v>634</v>
       </c>
       <c r="L28">
-        <v>468</v>
+        <v>217</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="O28">
-        <v>685</v>
+        <v>338</v>
       </c>
       <c r="P28">
-        <v>1385</v>
+        <v>1359</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R28">
-        <v>1450</v>
+        <v>888</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2125,52 +2074,52 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29">
-        <v>-47.18</v>
+        <v>-1330.15</v>
       </c>
       <c r="F29">
-        <v>-47.18</v>
+        <v>-1330.15</v>
       </c>
       <c r="G29">
-        <v>93</v>
+        <v>-3</v>
       </c>
       <c r="H29">
-        <v>5783</v>
+        <v>4599</v>
       </c>
       <c r="I29">
-        <v>5432</v>
+        <v>4613</v>
       </c>
       <c r="J29">
         <v>58</v>
       </c>
       <c r="K29">
-        <v>507</v>
+        <v>630</v>
       </c>
       <c r="L29">
-        <v>468</v>
+        <v>218</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="O29">
-        <v>692</v>
+        <v>340</v>
       </c>
       <c r="P29">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="R29">
-        <v>1519</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2181,52 +2130,52 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
       <c r="E30">
-        <v>-834.1900000000001</v>
+        <v>-3214</v>
       </c>
       <c r="F30">
-        <v>-834.1900000000001</v>
+        <v>-3214</v>
       </c>
       <c r="G30">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="H30">
-        <v>6026</v>
+        <v>4512</v>
       </c>
       <c r="I30">
-        <v>6241</v>
+        <v>4641</v>
       </c>
       <c r="J30">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>491</v>
+        <v>608</v>
       </c>
       <c r="L30">
-        <v>471</v>
+        <v>218</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1359</v>
+        <v>1007</v>
       </c>
       <c r="O30">
-        <v>912</v>
+        <v>381</v>
       </c>
       <c r="P30">
-        <v>1383</v>
+        <v>1358</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="R30">
-        <v>1587</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2237,52 +2186,52 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31">
-        <v>-61.34</v>
+        <v>-3200</v>
       </c>
       <c r="F31">
-        <v>-61.34</v>
+        <v>-3200</v>
       </c>
       <c r="G31">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>6199</v>
+        <v>4562</v>
       </c>
       <c r="I31">
-        <v>6252</v>
+        <v>4650</v>
       </c>
       <c r="J31">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>506</v>
+        <v>605</v>
       </c>
       <c r="L31">
-        <v>474</v>
+        <v>217</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1381</v>
+        <v>1010</v>
       </c>
       <c r="O31">
-        <v>977</v>
+        <v>382</v>
       </c>
       <c r="P31">
-        <v>1383</v>
+        <v>1358</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="R31">
-        <v>1625</v>
+        <v>801</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2293,52 +2242,52 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32">
-        <v>-40.93</v>
+        <v>-3200</v>
       </c>
       <c r="F32">
-        <v>-40.93</v>
+        <v>-3200</v>
       </c>
       <c r="G32">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="H32">
-        <v>6212</v>
+        <v>4621</v>
       </c>
       <c r="I32">
-        <v>6267</v>
+        <v>4661</v>
       </c>
       <c r="J32">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>508</v>
+        <v>597</v>
       </c>
       <c r="L32">
-        <v>473</v>
+        <v>217</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1373</v>
+        <v>983</v>
       </c>
       <c r="O32">
-        <v>880</v>
+        <v>375</v>
       </c>
       <c r="P32">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="Q32">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="R32">
-        <v>1632</v>
+        <v>810</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2349,52 +2298,52 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
       <c r="E33">
-        <v>-84.62</v>
+        <v>-3244.63</v>
       </c>
       <c r="F33">
-        <v>-84.62</v>
+        <v>-3244.63</v>
       </c>
       <c r="G33">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="H33">
-        <v>6276</v>
+        <v>4647</v>
       </c>
       <c r="I33">
-        <v>6286</v>
+        <v>4677</v>
       </c>
       <c r="J33">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>505</v>
+        <v>602</v>
       </c>
       <c r="L33">
-        <v>471</v>
+        <v>216</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1371</v>
+        <v>1011</v>
       </c>
       <c r="O33">
-        <v>787</v>
+        <v>386</v>
       </c>
       <c r="P33">
-        <v>1383</v>
+        <v>1359</v>
       </c>
       <c r="Q33">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R33">
-        <v>1618</v>
+        <v>763</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2405,52 +2354,52 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
       <c r="E34">
-        <v>-969.12</v>
+        <v>0.1</v>
       </c>
       <c r="F34">
-        <v>-969.12</v>
+        <v>0.1</v>
       </c>
       <c r="G34">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="H34">
-        <v>6293</v>
+        <v>4722</v>
       </c>
       <c r="I34">
-        <v>6494</v>
+        <v>4827</v>
       </c>
       <c r="J34">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="L34">
-        <v>473</v>
+        <v>214</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1345</v>
+        <v>1081</v>
       </c>
       <c r="O34">
-        <v>850</v>
+        <v>403</v>
       </c>
       <c r="P34">
-        <v>1384</v>
+        <v>1359</v>
       </c>
       <c r="Q34">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="R34">
-        <v>1622</v>
+        <v>711</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2461,52 +2410,52 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35">
-        <v>-214.97</v>
+        <v>-70.68000000000001</v>
       </c>
       <c r="F35">
-        <v>-214.97</v>
+        <v>-70.68000000000001</v>
       </c>
       <c r="G35">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="H35">
-        <v>6276</v>
+        <v>4747</v>
       </c>
       <c r="I35">
-        <v>6523</v>
+        <v>4842</v>
       </c>
       <c r="J35">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K35">
-        <v>514</v>
+        <v>605</v>
       </c>
       <c r="L35">
-        <v>470</v>
+        <v>213</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1342</v>
+        <v>1116</v>
       </c>
       <c r="O35">
-        <v>794</v>
+        <v>410</v>
       </c>
       <c r="P35">
-        <v>1384</v>
+        <v>1360</v>
       </c>
       <c r="Q35">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="R35">
-        <v>1598</v>
+        <v>633</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2517,52 +2466,52 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
       <c r="E36">
-        <v>-25.46</v>
+        <v>0.1</v>
       </c>
       <c r="F36">
-        <v>-25.46</v>
+        <v>2000</v>
       </c>
       <c r="G36">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>6223</v>
+        <v>4780</v>
       </c>
       <c r="I36">
-        <v>6554</v>
+        <v>4859</v>
       </c>
       <c r="J36">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>502</v>
+        <v>608</v>
       </c>
       <c r="L36">
-        <v>468</v>
+        <v>213</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1340</v>
+        <v>1120</v>
       </c>
       <c r="O36">
-        <v>765</v>
+        <v>409</v>
       </c>
       <c r="P36">
-        <v>1378</v>
+        <v>1360</v>
       </c>
       <c r="Q36">
-        <v>370</v>
+        <v>229</v>
       </c>
       <c r="R36">
-        <v>1528</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2573,52 +2522,52 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
       <c r="E37">
-        <v>-49.22</v>
+        <v>-53.91</v>
       </c>
       <c r="F37">
-        <v>-49.22</v>
+        <v>-53.91</v>
       </c>
       <c r="G37">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H37">
-        <v>6187</v>
+        <v>4696</v>
       </c>
       <c r="I37">
-        <v>6586</v>
+        <v>4873</v>
       </c>
       <c r="J37">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>502</v>
+        <v>607</v>
       </c>
       <c r="L37">
-        <v>469</v>
+        <v>214</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1340</v>
+        <v>1109</v>
       </c>
       <c r="O37">
-        <v>811</v>
+        <v>404</v>
       </c>
       <c r="P37">
-        <v>1379</v>
+        <v>1360</v>
       </c>
       <c r="Q37">
-        <v>447</v>
+        <v>255</v>
       </c>
       <c r="R37">
-        <v>1398</v>
+        <v>548</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2629,52 +2578,52 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
       <c r="E38">
-        <v>-75.97</v>
+        <v>-3205.76</v>
       </c>
       <c r="F38">
-        <v>-75.97</v>
+        <v>-3205.76</v>
       </c>
       <c r="G38">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="H38">
-        <v>6095</v>
+        <v>4745</v>
       </c>
       <c r="I38">
-        <v>6582</v>
+        <v>4896</v>
       </c>
       <c r="J38">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>503</v>
+        <v>610</v>
       </c>
       <c r="L38">
-        <v>471</v>
+        <v>205</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1311</v>
+        <v>1170</v>
       </c>
       <c r="O38">
-        <v>828</v>
+        <v>357</v>
       </c>
       <c r="P38">
-        <v>1369</v>
+        <v>1360</v>
       </c>
       <c r="Q38">
-        <v>540</v>
+        <v>324</v>
       </c>
       <c r="R38">
-        <v>1325</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2685,52 +2634,52 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
       <c r="E39">
-        <v>-81.29000000000001</v>
+        <v>-3593.33</v>
       </c>
       <c r="F39">
-        <v>-81.29000000000001</v>
+        <v>-3593.33</v>
       </c>
       <c r="G39">
-        <v>59</v>
+        <v>-2</v>
       </c>
       <c r="H39">
-        <v>6034</v>
+        <v>4741</v>
       </c>
       <c r="I39">
-        <v>6615</v>
+        <v>4913</v>
       </c>
       <c r="J39">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>502</v>
+        <v>610</v>
       </c>
       <c r="L39">
-        <v>471</v>
+        <v>204</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1268</v>
+        <v>1166</v>
       </c>
       <c r="O39">
-        <v>823</v>
+        <v>356</v>
       </c>
       <c r="P39">
-        <v>1316</v>
+        <v>1359</v>
       </c>
       <c r="Q39">
-        <v>626</v>
+        <v>358</v>
       </c>
       <c r="R39">
-        <v>1266</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2741,52 +2690,52 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
       <c r="E40">
-        <v>-678.24</v>
+        <v>-3264.49</v>
       </c>
       <c r="F40">
-        <v>-678.24</v>
+        <v>-3264.49</v>
       </c>
       <c r="G40">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>6017</v>
+        <v>4756</v>
       </c>
       <c r="I40">
-        <v>6644</v>
+        <v>4926</v>
       </c>
       <c r="J40">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>489</v>
+        <v>608</v>
       </c>
       <c r="L40">
-        <v>468</v>
+        <v>204</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1296</v>
+        <v>1160</v>
       </c>
       <c r="O40">
-        <v>790</v>
+        <v>351</v>
       </c>
       <c r="P40">
-        <v>1299</v>
+        <v>1360</v>
       </c>
       <c r="Q40">
-        <v>692</v>
+        <v>413</v>
       </c>
       <c r="R40">
-        <v>1243</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2797,52 +2746,52 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
       <c r="E41">
-        <v>-1195.51</v>
+        <v>-3200</v>
       </c>
       <c r="F41">
-        <v>-1195.51</v>
+        <v>-3200</v>
       </c>
       <c r="G41">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H41">
-        <v>5966</v>
+        <v>4686</v>
       </c>
       <c r="I41">
-        <v>6672</v>
+        <v>4941</v>
       </c>
       <c r="J41">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>469</v>
+        <v>605</v>
       </c>
       <c r="L41">
-        <v>466</v>
+        <v>205</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1290</v>
+        <v>1157</v>
       </c>
       <c r="O41">
-        <v>729</v>
+        <v>347</v>
       </c>
       <c r="P41">
-        <v>1299</v>
+        <v>1360</v>
       </c>
       <c r="Q41">
-        <v>757</v>
+        <v>429</v>
       </c>
       <c r="R41">
-        <v>1218</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2853,52 +2802,52 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
       <c r="E42">
-        <v>-425.45</v>
+        <v>-3.45</v>
       </c>
       <c r="F42">
-        <v>-425.45</v>
+        <v>-3.45</v>
       </c>
       <c r="G42">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="H42">
-        <v>5798</v>
+        <v>4616</v>
       </c>
       <c r="I42">
-        <v>6602</v>
+        <v>4812</v>
       </c>
       <c r="J42">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>495</v>
+        <v>602</v>
       </c>
       <c r="L42">
-        <v>464</v>
+        <v>202</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1194</v>
+        <v>1135</v>
       </c>
       <c r="O42">
-        <v>813</v>
+        <v>258</v>
       </c>
       <c r="P42">
-        <v>1299</v>
+        <v>1360</v>
       </c>
       <c r="Q42">
-        <v>825</v>
+        <v>482</v>
       </c>
       <c r="R42">
-        <v>1183</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2909,52 +2858,52 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
       <c r="E43">
-        <v>-696.67</v>
+        <v>0.1</v>
       </c>
       <c r="F43">
-        <v>-696.67</v>
+        <v>0.1</v>
       </c>
       <c r="G43">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="H43">
-        <v>5765</v>
+        <v>4652</v>
       </c>
       <c r="I43">
-        <v>6628</v>
+        <v>4823</v>
       </c>
       <c r="J43">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43">
-        <v>487</v>
+        <v>596</v>
       </c>
       <c r="L43">
-        <v>459</v>
+        <v>198</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1189</v>
+        <v>1121</v>
       </c>
       <c r="O43">
-        <v>790</v>
+        <v>248</v>
       </c>
       <c r="P43">
-        <v>1310</v>
+        <v>1360</v>
       </c>
       <c r="Q43">
-        <v>869</v>
+        <v>546</v>
       </c>
       <c r="R43">
-        <v>1139</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2965,52 +2914,52 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
       </c>
       <c r="E44">
-        <v>-970.47</v>
+        <v>0.1</v>
       </c>
       <c r="F44">
-        <v>-970.47</v>
+        <v>0.1</v>
       </c>
       <c r="G44">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="H44">
-        <v>5626</v>
+        <v>4641</v>
       </c>
       <c r="I44">
-        <v>6649</v>
+        <v>4834</v>
       </c>
       <c r="J44">
         <v>57</v>
       </c>
       <c r="K44">
-        <v>468</v>
+        <v>589</v>
       </c>
       <c r="L44">
-        <v>474</v>
+        <v>197</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1174</v>
+        <v>1087</v>
       </c>
       <c r="O44">
-        <v>647</v>
+        <v>240</v>
       </c>
       <c r="P44">
-        <v>1336</v>
+        <v>1360</v>
       </c>
       <c r="Q44">
-        <v>918</v>
+        <v>564</v>
       </c>
       <c r="R44">
-        <v>1115</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3021,52 +2970,52 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45">
-        <v>-698.58</v>
+        <v>0.1</v>
       </c>
       <c r="F45">
-        <v>-698.58</v>
+        <v>0.1</v>
       </c>
       <c r="G45">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="H45">
-        <v>5564</v>
+        <v>4592</v>
       </c>
       <c r="I45">
-        <v>6669</v>
+        <v>4842</v>
       </c>
       <c r="J45">
         <v>58</v>
       </c>
       <c r="K45">
-        <v>466</v>
+        <v>579</v>
       </c>
       <c r="L45">
-        <v>476</v>
+        <v>197</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>1145</v>
+        <v>1057</v>
       </c>
       <c r="O45">
-        <v>555</v>
+        <v>235</v>
       </c>
       <c r="P45">
-        <v>1343</v>
+        <v>1359</v>
       </c>
       <c r="Q45">
-        <v>947</v>
+        <v>618</v>
       </c>
       <c r="R45">
-        <v>1079</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3077,52 +3026,52 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
       <c r="E46">
-        <v>-357.09</v>
+        <v>-3335.4</v>
       </c>
       <c r="F46">
-        <v>-357.09</v>
+        <v>-3335.4</v>
       </c>
       <c r="G46">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H46">
-        <v>5468</v>
+        <v>4579</v>
       </c>
       <c r="I46">
-        <v>6280</v>
+        <v>4736</v>
       </c>
       <c r="J46">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K46">
-        <v>489</v>
+        <v>572</v>
       </c>
       <c r="L46">
-        <v>466</v>
+        <v>197</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1108</v>
+        <v>1050</v>
       </c>
       <c r="O46">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="P46">
-        <v>1343</v>
+        <v>1360</v>
       </c>
       <c r="Q46">
-        <v>1005</v>
+        <v>645</v>
       </c>
       <c r="R46">
-        <v>945</v>
+        <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3133,52 +3082,52 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
       <c r="E47">
-        <v>-462.19</v>
+        <v>-173.75</v>
       </c>
       <c r="F47">
-        <v>-462.19</v>
+        <v>-173.75</v>
       </c>
       <c r="G47">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="H47">
-        <v>5358</v>
+        <v>4586</v>
       </c>
       <c r="I47">
-        <v>6301</v>
+        <v>4746</v>
       </c>
       <c r="J47">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>488</v>
+        <v>537</v>
       </c>
       <c r="L47">
-        <v>463</v>
+        <v>192</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1105</v>
+        <v>952</v>
       </c>
       <c r="O47">
-        <v>307</v>
+        <v>147</v>
       </c>
       <c r="P47">
-        <v>1321</v>
+        <v>1360</v>
       </c>
       <c r="Q47">
-        <v>1044</v>
+        <v>647</v>
       </c>
       <c r="R47">
-        <v>868</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3189,52 +3138,52 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
       </c>
       <c r="E48">
-        <v>-924.29</v>
+        <v>-59.25</v>
       </c>
       <c r="F48">
-        <v>-924.29</v>
+        <v>-59.25</v>
       </c>
       <c r="G48">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="H48">
-        <v>5354</v>
+        <v>4518</v>
       </c>
       <c r="I48">
-        <v>6311</v>
+        <v>4754</v>
       </c>
       <c r="J48">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="L48">
-        <v>462</v>
+        <v>194</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1100</v>
+        <v>876</v>
       </c>
       <c r="O48">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="P48">
-        <v>1316</v>
+        <v>1360</v>
       </c>
       <c r="Q48">
-        <v>1080</v>
+        <v>709</v>
       </c>
       <c r="R48">
-        <v>890</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3245,52 +3194,52 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
       <c r="E49">
-        <v>-989.0700000000001</v>
+        <v>-98.14</v>
       </c>
       <c r="F49">
-        <v>-989.0700000000001</v>
+        <v>-98.14</v>
       </c>
       <c r="G49">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="H49">
-        <v>5337</v>
+        <v>4538</v>
       </c>
       <c r="I49">
-        <v>6323</v>
+        <v>4760</v>
       </c>
       <c r="J49">
         <v>57</v>
       </c>
       <c r="K49">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="L49">
-        <v>462</v>
+        <v>198</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>1103</v>
+        <v>869</v>
       </c>
       <c r="O49">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="P49">
-        <v>1317</v>
+        <v>1360</v>
       </c>
       <c r="Q49">
-        <v>1097</v>
+        <v>731</v>
       </c>
       <c r="R49">
-        <v>896</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3301,52 +3250,52 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
       </c>
       <c r="E50">
-        <v>-669.3</v>
+        <v>-60.2</v>
       </c>
       <c r="F50">
-        <v>-669.3</v>
+        <v>-60.2</v>
       </c>
       <c r="G50">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="H50">
-        <v>5227</v>
+        <v>4560</v>
       </c>
       <c r="I50">
-        <v>6375</v>
+        <v>4728</v>
       </c>
       <c r="J50">
         <v>56</v>
       </c>
       <c r="K50">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="L50">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>1171</v>
+        <v>875</v>
       </c>
       <c r="O50">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="P50">
-        <v>1316</v>
+        <v>1360</v>
       </c>
       <c r="Q50">
-        <v>1120</v>
+        <v>757</v>
       </c>
       <c r="R50">
-        <v>905</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3357,52 +3306,52 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
       </c>
       <c r="E51">
-        <v>-767.66</v>
+        <v>-15.11</v>
       </c>
       <c r="F51">
-        <v>-767.66</v>
+        <v>-15.11</v>
       </c>
       <c r="G51">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="H51">
-        <v>5177</v>
+        <v>4646</v>
       </c>
       <c r="I51">
-        <v>6383</v>
+        <v>4734</v>
       </c>
       <c r="J51">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K51">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="L51">
-        <v>434</v>
+        <v>200</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>1185</v>
+        <v>867</v>
       </c>
       <c r="O51">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="P51">
-        <v>1316</v>
+        <v>1360</v>
       </c>
       <c r="Q51">
-        <v>1131</v>
+        <v>787</v>
       </c>
       <c r="R51">
-        <v>914</v>
+        <v>355</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3413,52 +3362,52 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
       </c>
       <c r="E52">
-        <v>-654.17</v>
+        <v>-9.710000000000001</v>
       </c>
       <c r="F52">
-        <v>-654.17</v>
+        <v>-9.710000000000001</v>
       </c>
       <c r="G52">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="H52">
-        <v>5256</v>
+        <v>4543</v>
       </c>
       <c r="I52">
-        <v>6384</v>
+        <v>4735</v>
       </c>
       <c r="J52">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K52">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="L52">
-        <v>434</v>
+        <v>200</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1185</v>
+        <v>865</v>
       </c>
       <c r="O52">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="P52">
-        <v>1343</v>
+        <v>1360</v>
       </c>
       <c r="Q52">
-        <v>1154</v>
+        <v>787</v>
       </c>
       <c r="R52">
-        <v>894</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3469,52 +3418,52 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
       </c>
       <c r="E53">
-        <v>-695.9</v>
+        <v>-87.95999999999999</v>
       </c>
       <c r="F53">
-        <v>-695.9</v>
+        <v>-87.95999999999999</v>
       </c>
       <c r="G53">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="H53">
-        <v>5234</v>
+        <v>4571</v>
       </c>
       <c r="I53">
-        <v>6385</v>
+        <v>4736</v>
       </c>
       <c r="J53">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K53">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="L53">
-        <v>434</v>
+        <v>200</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>1182</v>
+        <v>874</v>
       </c>
       <c r="O53">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="P53">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="Q53">
-        <v>1162</v>
+        <v>770</v>
       </c>
       <c r="R53">
-        <v>869</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3525,52 +3474,52 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
       </c>
       <c r="E54">
-        <v>-408.31</v>
+        <v>-1184.07</v>
       </c>
       <c r="F54">
-        <v>-408.31</v>
+        <v>-1184.07</v>
       </c>
       <c r="G54">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="H54">
-        <v>5205</v>
+        <v>4603</v>
       </c>
       <c r="I54">
-        <v>6339</v>
+        <v>4678</v>
       </c>
       <c r="J54">
         <v>56</v>
       </c>
       <c r="K54">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="L54">
-        <v>438</v>
+        <v>200</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>1167</v>
+        <v>926</v>
       </c>
       <c r="O54">
-        <v>267</v>
+        <v>114</v>
       </c>
       <c r="P54">
-        <v>1356</v>
+        <v>1360</v>
       </c>
       <c r="Q54">
-        <v>1164</v>
+        <v>736</v>
       </c>
       <c r="R54">
-        <v>694</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3581,52 +3530,52 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
       <c r="E55">
-        <v>-331.38</v>
+        <v>-1440.24</v>
       </c>
       <c r="F55">
-        <v>-331.38</v>
+        <v>-1440.24</v>
       </c>
       <c r="G55">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>5202</v>
+        <v>4574</v>
       </c>
       <c r="I55">
-        <v>6337</v>
+        <v>4678</v>
       </c>
       <c r="J55">
         <v>56</v>
       </c>
       <c r="K55">
-        <v>502</v>
+        <v>550</v>
       </c>
       <c r="L55">
-        <v>444</v>
+        <v>200</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>1167</v>
+        <v>995</v>
       </c>
       <c r="O55">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="P55">
-        <v>1332</v>
+        <v>1359</v>
       </c>
       <c r="Q55">
-        <v>1167</v>
+        <v>669</v>
       </c>
       <c r="R55">
-        <v>648</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3637,52 +3586,52 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
       <c r="E56">
-        <v>-373.67</v>
+        <v>-207.88</v>
       </c>
       <c r="F56">
-        <v>-373.67</v>
+        <v>-207.88</v>
       </c>
       <c r="G56">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="H56">
-        <v>5262</v>
+        <v>4495</v>
       </c>
       <c r="I56">
-        <v>6333</v>
+        <v>4677</v>
       </c>
       <c r="J56">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K56">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="L56">
-        <v>471</v>
+        <v>200</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1160</v>
+        <v>1000</v>
       </c>
       <c r="O56">
-        <v>290</v>
+        <v>107</v>
       </c>
       <c r="P56">
-        <v>1319</v>
+        <v>1359</v>
       </c>
       <c r="Q56">
-        <v>1166</v>
+        <v>655</v>
       </c>
       <c r="R56">
-        <v>725</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3693,52 +3642,52 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
       </c>
       <c r="E57">
-        <v>-288.31</v>
+        <v>-597.45</v>
       </c>
       <c r="F57">
-        <v>-288.31</v>
+        <v>-597.45</v>
       </c>
       <c r="G57">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H57">
-        <v>5236</v>
+        <v>4423</v>
       </c>
       <c r="I57">
-        <v>6326</v>
+        <v>4675</v>
       </c>
       <c r="J57">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K57">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="L57">
-        <v>486</v>
+        <v>196</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1158</v>
+        <v>970</v>
       </c>
       <c r="O57">
-        <v>278</v>
+        <v>102</v>
       </c>
       <c r="P57">
-        <v>1316</v>
+        <v>1359</v>
       </c>
       <c r="Q57">
-        <v>1161</v>
+        <v>652</v>
       </c>
       <c r="R57">
-        <v>716</v>
+        <v>369</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3749,52 +3698,52 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
       </c>
       <c r="E58">
-        <v>-365.93</v>
+        <v>0.53</v>
       </c>
       <c r="F58">
-        <v>-365.93</v>
+        <v>0.53</v>
       </c>
       <c r="G58">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="H58">
-        <v>5228</v>
+        <v>4444</v>
       </c>
       <c r="I58">
-        <v>6206</v>
+        <v>4612</v>
       </c>
       <c r="J58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K58">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="L58">
-        <v>488</v>
+        <v>196</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1164</v>
+        <v>920</v>
       </c>
       <c r="O58">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="P58">
-        <v>1316</v>
+        <v>1359</v>
       </c>
       <c r="Q58">
-        <v>1146</v>
+        <v>663</v>
       </c>
       <c r="R58">
-        <v>700</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3805,52 +3754,52 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
       </c>
       <c r="E59">
-        <v>-300.54</v>
+        <v>0.46</v>
       </c>
       <c r="F59">
-        <v>-300.54</v>
+        <v>0.46</v>
       </c>
       <c r="G59">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H59">
-        <v>5253</v>
+        <v>4481</v>
       </c>
       <c r="I59">
-        <v>6196</v>
+        <v>4607</v>
       </c>
       <c r="J59">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K59">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="L59">
-        <v>490</v>
+        <v>196</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>1163</v>
+        <v>902</v>
       </c>
       <c r="O59">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="P59">
-        <v>1318</v>
+        <v>1359</v>
       </c>
       <c r="Q59">
-        <v>1128</v>
+        <v>747</v>
       </c>
       <c r="R59">
-        <v>679</v>
+        <v>427</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3861,52 +3810,52 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
       <c r="E60">
-        <v>-393.03</v>
+        <v>0.44</v>
       </c>
       <c r="F60">
-        <v>-393.03</v>
+        <v>0.44</v>
       </c>
       <c r="G60">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="H60">
-        <v>5283</v>
+        <v>4447</v>
       </c>
       <c r="I60">
-        <v>6185</v>
+        <v>4602</v>
       </c>
       <c r="J60">
         <v>56</v>
       </c>
       <c r="K60">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="L60">
-        <v>489</v>
+        <v>196</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1161</v>
+        <v>893</v>
       </c>
       <c r="O60">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="P60">
-        <v>1343</v>
+        <v>1359</v>
       </c>
       <c r="Q60">
-        <v>1123</v>
+        <v>774</v>
       </c>
       <c r="R60">
-        <v>696</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3917,52 +3866,52 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
       </c>
       <c r="E61">
-        <v>-269.29</v>
+        <v>0.16</v>
       </c>
       <c r="F61">
-        <v>-269.29</v>
+        <v>0.16</v>
       </c>
       <c r="G61">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="H61">
-        <v>5319</v>
+        <v>4433</v>
       </c>
       <c r="I61">
-        <v>6170</v>
+        <v>4596</v>
       </c>
       <c r="J61">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K61">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="L61">
-        <v>496</v>
+        <v>196</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1161</v>
+        <v>867</v>
       </c>
       <c r="O61">
-        <v>285</v>
+        <v>128</v>
       </c>
       <c r="P61">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="Q61">
-        <v>1106</v>
+        <v>769</v>
       </c>
       <c r="R61">
-        <v>661</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -3973,52 +3922,52 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
       <c r="E62">
-        <v>-963.38</v>
+        <v>-1091.77</v>
       </c>
       <c r="F62">
-        <v>-963.38</v>
+        <v>-1091.77</v>
       </c>
       <c r="G62">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="H62">
-        <v>5288</v>
+        <v>4430</v>
       </c>
       <c r="I62">
-        <v>6005</v>
+        <v>4578</v>
       </c>
       <c r="J62">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K62">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="L62">
-        <v>504</v>
+        <v>196</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1147</v>
+        <v>884</v>
       </c>
       <c r="O62">
-        <v>274</v>
+        <v>84</v>
       </c>
       <c r="P62">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="Q62">
-        <v>1063</v>
+        <v>670</v>
       </c>
       <c r="R62">
-        <v>646</v>
+        <v>552</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4029,52 +3978,52 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
       <c r="E63">
-        <v>-1148.17</v>
+        <v>-588.15</v>
       </c>
       <c r="F63">
-        <v>-1148.17</v>
+        <v>-588.15</v>
       </c>
       <c r="G63">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="H63">
-        <v>5279</v>
+        <v>4448</v>
       </c>
       <c r="I63">
-        <v>5989</v>
+        <v>4572</v>
       </c>
       <c r="J63">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K63">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="L63">
-        <v>505</v>
+        <v>196</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>1148</v>
+        <v>785</v>
       </c>
       <c r="O63">
-        <v>259</v>
+        <v>85</v>
       </c>
       <c r="P63">
-        <v>1347</v>
+        <v>1358</v>
       </c>
       <c r="Q63">
-        <v>1047</v>
+        <v>646</v>
       </c>
       <c r="R63">
-        <v>647</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4085,52 +4034,52 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
       </c>
       <c r="E64">
-        <v>-510.17</v>
+        <v>-75.48999999999999</v>
       </c>
       <c r="F64">
-        <v>-510.17</v>
+        <v>-75.48999999999999</v>
       </c>
       <c r="G64">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="H64">
-        <v>5314</v>
+        <v>4496</v>
       </c>
       <c r="I64">
-        <v>5971</v>
+        <v>4563</v>
       </c>
       <c r="J64">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K64">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="L64">
-        <v>509</v>
+        <v>196</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>1146</v>
+        <v>831</v>
       </c>
       <c r="O64">
-        <v>316</v>
+        <v>98</v>
       </c>
       <c r="P64">
-        <v>1347</v>
+        <v>1358</v>
       </c>
       <c r="Q64">
-        <v>1019</v>
+        <v>607</v>
       </c>
       <c r="R64">
-        <v>599</v>
+        <v>544</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4141,52 +4090,52 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
       </c>
       <c r="E65">
-        <v>-91.77</v>
+        <v>-297.51</v>
       </c>
       <c r="F65">
-        <v>-91.77</v>
+        <v>-297.51</v>
       </c>
       <c r="G65">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="H65">
-        <v>5347</v>
+        <v>4570</v>
       </c>
       <c r="I65">
-        <v>5951</v>
+        <v>4554</v>
       </c>
       <c r="J65">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K65">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="L65">
-        <v>510</v>
+        <v>196</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>1146</v>
+        <v>859</v>
       </c>
       <c r="O65">
-        <v>351</v>
+        <v>106</v>
       </c>
       <c r="P65">
-        <v>1339</v>
+        <v>1359</v>
       </c>
       <c r="Q65">
-        <v>969</v>
+        <v>579</v>
       </c>
       <c r="R65">
-        <v>557</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4197,52 +4146,52 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
       </c>
       <c r="E66">
-        <v>-144.77</v>
+        <v>-42.22</v>
       </c>
       <c r="F66">
-        <v>-144.77</v>
+        <v>-42.22</v>
       </c>
       <c r="G66">
+        <v>113</v>
+      </c>
+      <c r="H66">
+        <v>4600</v>
+      </c>
+      <c r="I66">
+        <v>4665</v>
+      </c>
+      <c r="J66">
         <v>55</v>
       </c>
-      <c r="H66">
-        <v>5394</v>
-      </c>
-      <c r="I66">
-        <v>6132</v>
-      </c>
-      <c r="J66">
-        <v>57</v>
-      </c>
       <c r="K66">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="L66">
-        <v>507</v>
+        <v>197</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>1255</v>
+        <v>1001</v>
       </c>
       <c r="O66">
-        <v>562</v>
+        <v>128</v>
       </c>
       <c r="P66">
-        <v>1334</v>
+        <v>1358</v>
       </c>
       <c r="Q66">
-        <v>916</v>
+        <v>590</v>
       </c>
       <c r="R66">
-        <v>503</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4253,52 +4202,52 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
       </c>
       <c r="E67">
-        <v>-43.35</v>
+        <v>-63.86</v>
       </c>
       <c r="F67">
-        <v>-43.35</v>
+        <v>-63.86</v>
       </c>
       <c r="G67">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="H67">
-        <v>5508</v>
+        <v>4626</v>
       </c>
       <c r="I67">
-        <v>6104</v>
+        <v>4649</v>
       </c>
       <c r="J67">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K67">
-        <v>505</v>
+        <v>534</v>
       </c>
       <c r="L67">
-        <v>502</v>
+        <v>197</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>1266</v>
+        <v>1011</v>
       </c>
       <c r="O67">
-        <v>632</v>
+        <v>129</v>
       </c>
       <c r="P67">
-        <v>1330</v>
+        <v>1359</v>
       </c>
       <c r="Q67">
-        <v>892</v>
+        <v>548</v>
       </c>
       <c r="R67">
-        <v>469</v>
+        <v>539</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4309,52 +4258,52 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
       </c>
       <c r="E68">
-        <v>-471.7</v>
+        <v>-374.71</v>
       </c>
       <c r="F68">
-        <v>-471.7</v>
+        <v>-374.71</v>
       </c>
       <c r="G68">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H68">
-        <v>5539</v>
+        <v>4658</v>
       </c>
       <c r="I68">
-        <v>6076</v>
+        <v>4633</v>
       </c>
       <c r="J68">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K68">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="L68">
+        <v>198</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1043</v>
+      </c>
+      <c r="O68">
+        <v>137</v>
+      </c>
+      <c r="P68">
+        <v>1358</v>
+      </c>
+      <c r="Q68">
         <v>508</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>1247</v>
-      </c>
-      <c r="O68">
-        <v>736</v>
-      </c>
-      <c r="P68">
-        <v>1331</v>
-      </c>
-      <c r="Q68">
-        <v>836</v>
-      </c>
       <c r="R68">
-        <v>450</v>
+        <v>531</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4365,52 +4314,52 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
       </c>
       <c r="E69">
-        <v>-2200</v>
+        <v>-903.05</v>
       </c>
       <c r="F69">
-        <v>2200</v>
+        <v>-903.05</v>
       </c>
       <c r="G69">
-        <v>-33</v>
+        <v>61</v>
       </c>
       <c r="H69">
-        <v>5659</v>
+        <v>4759</v>
       </c>
       <c r="I69">
-        <v>6051</v>
+        <v>4618</v>
       </c>
       <c r="J69">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K69">
-        <v>609</v>
+        <v>557</v>
       </c>
       <c r="L69">
-        <v>518</v>
+        <v>200</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>1238</v>
+        <v>1087</v>
       </c>
       <c r="O69">
-        <v>807</v>
+        <v>147</v>
       </c>
       <c r="P69">
-        <v>1330</v>
+        <v>1359</v>
       </c>
       <c r="Q69">
-        <v>765</v>
+        <v>483</v>
       </c>
       <c r="R69">
-        <v>459</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4421,52 +4370,52 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
       </c>
       <c r="E70">
-        <v>-3202.96</v>
+        <v>-472.89</v>
       </c>
       <c r="F70">
-        <v>-3202.96</v>
+        <v>-472.89</v>
       </c>
       <c r="G70">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="H70">
-        <v>5702</v>
+        <v>4780</v>
       </c>
       <c r="I70">
-        <v>5959</v>
+        <v>4483</v>
       </c>
       <c r="J70">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K70">
-        <v>614</v>
+        <v>527</v>
       </c>
       <c r="L70">
+        <v>198</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1011</v>
+      </c>
+      <c r="O70">
+        <v>112</v>
+      </c>
+      <c r="P70">
+        <v>1359</v>
+      </c>
+      <c r="Q70">
+        <v>452</v>
+      </c>
+      <c r="R70">
         <v>506</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1245</v>
-      </c>
-      <c r="O70">
-        <v>887</v>
-      </c>
-      <c r="P70">
-        <v>1331</v>
-      </c>
-      <c r="Q70">
-        <v>693</v>
-      </c>
-      <c r="R70">
-        <v>458</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4477,52 +4426,52 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
       </c>
       <c r="E71">
-        <v>-3204.29</v>
+        <v>-656.41</v>
       </c>
       <c r="F71">
-        <v>-3204.29</v>
+        <v>-656.41</v>
       </c>
       <c r="G71">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="H71">
-        <v>5821</v>
+        <v>4914</v>
       </c>
       <c r="I71">
-        <v>5933</v>
+        <v>4468</v>
       </c>
       <c r="J71">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K71">
-        <v>617</v>
+        <v>541</v>
       </c>
       <c r="L71">
-        <v>497</v>
+        <v>198</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>1247</v>
+        <v>1083</v>
       </c>
       <c r="O71">
-        <v>929</v>
+        <v>130</v>
       </c>
       <c r="P71">
-        <v>1336</v>
+        <v>1359</v>
       </c>
       <c r="Q71">
-        <v>644</v>
+        <v>395</v>
       </c>
       <c r="R71">
-        <v>422</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4533,52 +4482,52 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E72">
-        <v>985.78</v>
+        <v>-2731.98</v>
       </c>
       <c r="F72">
-        <v>985.78</v>
+        <v>-2731.98</v>
       </c>
       <c r="G72">
-        <v>-17</v>
+        <v>23</v>
       </c>
       <c r="H72">
-        <v>5993</v>
+        <v>5037</v>
       </c>
       <c r="I72">
-        <v>5902</v>
+        <v>4451</v>
       </c>
       <c r="J72">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K72">
-        <v>681</v>
+        <v>561</v>
       </c>
       <c r="L72">
-        <v>523</v>
+        <v>201</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>1250</v>
+        <v>1203</v>
       </c>
       <c r="O72">
-        <v>1025</v>
+        <v>145</v>
       </c>
       <c r="P72">
-        <v>1347</v>
+        <v>1359</v>
       </c>
       <c r="Q72">
-        <v>578</v>
+        <v>339</v>
       </c>
       <c r="R72">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4589,52 +4538,52 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E73">
-        <v>971.59</v>
+        <v>-3033.98</v>
       </c>
       <c r="F73">
-        <v>971.59</v>
+        <v>-3033.98</v>
       </c>
       <c r="G73">
-        <v>-28</v>
+        <v>-2</v>
       </c>
       <c r="H73">
-        <v>5996</v>
+        <v>5115</v>
       </c>
       <c r="I73">
-        <v>5875</v>
+        <v>4436</v>
       </c>
       <c r="J73">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K73">
-        <v>695</v>
+        <v>565</v>
       </c>
       <c r="L73">
-        <v>533</v>
+        <v>205</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>1312</v>
+        <v>1217</v>
       </c>
       <c r="O73">
-        <v>1070</v>
+        <v>191</v>
       </c>
       <c r="P73">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="Q73">
-        <v>477</v>
+        <v>287</v>
       </c>
       <c r="R73">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4645,52 +4594,52 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74">
+        <v>-266.44</v>
+      </c>
+      <c r="F74">
+        <v>-266.44</v>
+      </c>
+      <c r="G74">
         <v>52</v>
       </c>
-      <c r="E74">
-        <v>-2200</v>
-      </c>
-      <c r="F74">
-        <v>803.97</v>
-      </c>
-      <c r="G74">
-        <v>63</v>
-      </c>
       <c r="H74">
-        <v>6102</v>
+        <v>5151</v>
       </c>
       <c r="I74">
-        <v>5893</v>
+        <v>4707</v>
       </c>
       <c r="J74">
         <v>56</v>
       </c>
       <c r="K74">
-        <v>670</v>
+        <v>541</v>
       </c>
       <c r="L74">
-        <v>541</v>
+        <v>211</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1519</v>
+        <v>1187</v>
       </c>
       <c r="O74">
-        <v>1031</v>
+        <v>451</v>
       </c>
       <c r="P74">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="Q74">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="R74">
-        <v>402</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4701,52 +4650,52 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E75">
-        <v>-2200</v>
+        <v>-170.85</v>
       </c>
       <c r="F75">
-        <v>803.97</v>
+        <v>-170.85</v>
       </c>
       <c r="G75">
         <v>19</v>
       </c>
       <c r="H75">
-        <v>6231</v>
+        <v>5234</v>
       </c>
       <c r="I75">
-        <v>5862</v>
+        <v>4687</v>
       </c>
       <c r="J75">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K75">
-        <v>673</v>
+        <v>537</v>
       </c>
       <c r="L75">
-        <v>545</v>
+        <v>213</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1538</v>
+        <v>1182</v>
       </c>
       <c r="O75">
-        <v>1058</v>
+        <v>549</v>
       </c>
       <c r="P75">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="Q75">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="R75">
-        <v>395</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4757,52 +4706,52 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E76">
-        <v>929.9400000000001</v>
+        <v>-3095.84</v>
       </c>
       <c r="F76">
-        <v>929.9400000000001</v>
+        <v>-3095.84</v>
       </c>
       <c r="G76">
-        <v>-36</v>
+        <v>23</v>
       </c>
       <c r="H76">
-        <v>6327</v>
+        <v>5319</v>
       </c>
       <c r="I76">
-        <v>5844</v>
+        <v>4677</v>
       </c>
       <c r="J76">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K76">
-        <v>697</v>
+        <v>549</v>
       </c>
       <c r="L76">
-        <v>552</v>
+        <v>215</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>1539</v>
+        <v>1241</v>
       </c>
       <c r="O76">
-        <v>1153</v>
+        <v>648</v>
       </c>
       <c r="P76">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="Q76">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="R76">
-        <v>365</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -4813,52 +4762,52 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>904.51</v>
+        <v>-344.99</v>
       </c>
       <c r="F77">
-        <v>904.51</v>
+        <v>3000</v>
       </c>
       <c r="G77">
-        <v>-43</v>
+        <v>2</v>
       </c>
       <c r="H77">
-        <v>6340</v>
+        <v>5347</v>
       </c>
       <c r="I77">
-        <v>5828</v>
+        <v>4666</v>
       </c>
       <c r="J77">
         <v>56</v>
       </c>
       <c r="K77">
-        <v>698</v>
+        <v>592</v>
       </c>
       <c r="L77">
-        <v>551</v>
+        <v>218</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1548</v>
+        <v>1238</v>
       </c>
       <c r="O77">
-        <v>1159</v>
+        <v>697</v>
       </c>
       <c r="P77">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="Q77">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="R77">
-        <v>350</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -4869,52 +4818,52 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E78">
-        <v>-3200</v>
+        <v>-3776.7</v>
       </c>
       <c r="F78">
-        <v>899.91</v>
+        <v>-3776.7</v>
       </c>
       <c r="G78">
-        <v>-12</v>
+        <v>58</v>
       </c>
       <c r="H78">
-        <v>6451</v>
+        <v>5401</v>
       </c>
       <c r="I78">
-        <v>5669</v>
+        <v>4841</v>
       </c>
       <c r="J78">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K78">
-        <v>677</v>
+        <v>594</v>
       </c>
       <c r="L78">
-        <v>544</v>
+        <v>217</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1535</v>
+        <v>1215</v>
       </c>
       <c r="O78">
-        <v>1142</v>
+        <v>875</v>
       </c>
       <c r="P78">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="Q78">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="R78">
-        <v>360</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -4925,52 +4874,52 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E79">
-        <v>3017.82</v>
+        <v>-3611.95</v>
       </c>
       <c r="F79">
-        <v>3017.82</v>
+        <v>-3611.95</v>
       </c>
       <c r="G79">
-        <v>-24</v>
+        <v>9</v>
       </c>
       <c r="H79">
-        <v>6554</v>
+        <v>5565</v>
       </c>
       <c r="I79">
-        <v>5659</v>
+        <v>4831</v>
       </c>
       <c r="J79">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K79">
-        <v>684</v>
+        <v>601</v>
       </c>
       <c r="L79">
-        <v>546</v>
+        <v>225</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>1533</v>
+        <v>1286</v>
       </c>
       <c r="O79">
-        <v>1182</v>
+        <v>908</v>
       </c>
       <c r="P79">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="Q79">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="R79">
-        <v>417</v>
+        <v>371</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -4981,52 +4930,52 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E80">
-        <v>1142.31</v>
+        <v>4120.19</v>
       </c>
       <c r="F80">
-        <v>1142.31</v>
+        <v>4120.19</v>
       </c>
       <c r="G80">
-        <v>-38</v>
+        <v>-20</v>
       </c>
       <c r="H80">
-        <v>6686</v>
+        <v>5648</v>
       </c>
       <c r="I80">
-        <v>5652</v>
+        <v>4823</v>
       </c>
       <c r="J80">
         <v>58</v>
       </c>
       <c r="K80">
-        <v>695</v>
+        <v>627</v>
       </c>
       <c r="L80">
-        <v>553</v>
+        <v>230</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
-        <v>1535</v>
+        <v>1351</v>
       </c>
       <c r="O80">
-        <v>1228</v>
+        <v>929</v>
       </c>
       <c r="P80">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="Q80">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="R80">
-        <v>475</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5037,52 +4986,52 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="E81">
-        <v>1150.38</v>
+        <v>3686.79</v>
       </c>
       <c r="F81">
-        <v>1150.38</v>
+        <v>3686.79</v>
       </c>
       <c r="G81">
-        <v>-38</v>
+        <v>-59</v>
       </c>
       <c r="H81">
-        <v>6750</v>
+        <v>5771</v>
       </c>
       <c r="I81">
-        <v>5648</v>
+        <v>4817</v>
       </c>
       <c r="J81">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K81">
-        <v>699</v>
+        <v>633</v>
       </c>
       <c r="L81">
-        <v>553</v>
+        <v>232</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>1535</v>
+        <v>1382</v>
       </c>
       <c r="O81">
-        <v>1234</v>
+        <v>944</v>
       </c>
       <c r="P81">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="Q81">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="R81">
-        <v>529</v>
+        <v>314</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5093,52 +5042,52 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E82">
-        <v>-2200</v>
+        <v>23.45</v>
       </c>
       <c r="F82">
-        <v>1065.71</v>
+        <v>3000</v>
       </c>
       <c r="G82">
-        <v>26</v>
+        <v>-27</v>
       </c>
       <c r="H82">
-        <v>6858</v>
+        <v>5788</v>
       </c>
       <c r="I82">
-        <v>5701</v>
+        <v>4749</v>
       </c>
       <c r="J82">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K82">
-        <v>670</v>
+        <v>616</v>
       </c>
       <c r="L82">
-        <v>553</v>
+        <v>231</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>1536</v>
+        <v>1301</v>
       </c>
       <c r="O82">
-        <v>1145</v>
+        <v>915</v>
       </c>
       <c r="P82">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="Q82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R82">
-        <v>597</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5149,52 +5098,52 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E83">
-        <v>-2200</v>
+        <v>4488.7</v>
       </c>
       <c r="F83">
-        <v>1065.95</v>
+        <v>4488.7</v>
       </c>
       <c r="G83">
-        <v>14</v>
+        <v>-56</v>
       </c>
       <c r="H83">
-        <v>7029</v>
+        <v>5872</v>
       </c>
       <c r="I83">
-        <v>5702</v>
+        <v>4747</v>
       </c>
       <c r="J83">
         <v>57</v>
       </c>
       <c r="K83">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="L83">
-        <v>557</v>
+        <v>237</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>1543</v>
+        <v>1373</v>
       </c>
       <c r="O83">
-        <v>1190</v>
+        <v>917</v>
       </c>
       <c r="P83">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
-        <v>666</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5208,49 +5157,49 @@
         <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E84">
-        <v>1330.23</v>
+        <v>4097.47</v>
       </c>
       <c r="F84">
-        <v>1330.23</v>
+        <v>4097.47</v>
       </c>
       <c r="G84">
-        <v>-24</v>
+        <v>-60</v>
       </c>
       <c r="H84">
-        <v>7182</v>
+        <v>5912</v>
       </c>
       <c r="I84">
-        <v>5704</v>
+        <v>4745</v>
       </c>
       <c r="J84">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K84">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="L84">
-        <v>561</v>
+        <v>242</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>1535</v>
+        <v>1379</v>
       </c>
       <c r="O84">
-        <v>1226</v>
+        <v>923</v>
       </c>
       <c r="P84">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>763</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5264,49 +5213,49 @@
         <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E85">
-        <v>1386.94</v>
+        <v>3083.75</v>
       </c>
       <c r="F85">
-        <v>1386.94</v>
+        <v>3083.75</v>
       </c>
       <c r="G85">
-        <v>29</v>
+        <v>-83</v>
       </c>
       <c r="H85">
-        <v>7182</v>
+        <v>6017</v>
       </c>
       <c r="I85">
-        <v>5705</v>
+        <v>4744</v>
       </c>
       <c r="J85">
         <v>57</v>
       </c>
       <c r="K85">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="L85">
-        <v>559</v>
+        <v>278</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>1483</v>
+        <v>1380</v>
       </c>
       <c r="O85">
-        <v>1199</v>
+        <v>940</v>
       </c>
       <c r="P85">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>911</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5320,49 +5269,49 @@
         <v>19</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E86">
-        <v>-3200</v>
+        <v>3145.56</v>
       </c>
       <c r="F86">
-        <v>3000</v>
+        <v>3145.56</v>
       </c>
       <c r="G86">
-        <v>22</v>
+        <v>-73</v>
       </c>
       <c r="H86">
-        <v>7122</v>
+        <v>6128</v>
       </c>
       <c r="I86">
-        <v>5669</v>
+        <v>4701</v>
       </c>
       <c r="J86">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K86">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="L86">
-        <v>522</v>
+        <v>281</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>1447</v>
+        <v>1364</v>
       </c>
       <c r="O86">
-        <v>1150</v>
+        <v>942</v>
       </c>
       <c r="P86">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>966</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5373,52 +5322,52 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E87">
-        <v>-1912.64</v>
+        <v>3208.23</v>
       </c>
       <c r="F87">
-        <v>-1912.64</v>
+        <v>3208.23</v>
       </c>
       <c r="G87">
-        <v>43</v>
+        <v>-89</v>
       </c>
       <c r="H87">
-        <v>7101</v>
+        <v>6180</v>
       </c>
       <c r="I87">
-        <v>5669</v>
+        <v>4700</v>
       </c>
       <c r="J87">
         <v>57</v>
       </c>
       <c r="K87">
-        <v>609</v>
+        <v>694</v>
       </c>
       <c r="L87">
-        <v>515</v>
+        <v>283</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>1438</v>
+        <v>1373</v>
       </c>
       <c r="O87">
-        <v>1128</v>
+        <v>947</v>
       </c>
       <c r="P87">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>1019</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5429,52 +5378,52 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E88">
-        <v>-1339.19</v>
+        <v>3207.96</v>
       </c>
       <c r="F88">
-        <v>-1339.19</v>
+        <v>3207.96</v>
       </c>
       <c r="G88">
-        <v>73</v>
+        <v>-84</v>
       </c>
       <c r="H88">
-        <v>6948</v>
+        <v>6186</v>
       </c>
       <c r="I88">
-        <v>5670</v>
+        <v>4699</v>
       </c>
       <c r="J88">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K88">
-        <v>513</v>
+        <v>697</v>
       </c>
       <c r="L88">
-        <v>510</v>
+        <v>283</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
-        <v>1435</v>
+        <v>1377</v>
       </c>
       <c r="O88">
-        <v>1076</v>
+        <v>948</v>
       </c>
       <c r="P88">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R88">
-        <v>1145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5485,52 +5434,52 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E89">
-        <v>-1011.89</v>
+        <v>3186.11</v>
       </c>
       <c r="F89">
-        <v>-1011.89</v>
+        <v>3186.11</v>
       </c>
       <c r="G89">
-        <v>144</v>
+        <v>-66</v>
       </c>
       <c r="H89">
-        <v>6770</v>
+        <v>6078</v>
       </c>
       <c r="I89">
-        <v>5670</v>
+        <v>4699</v>
       </c>
       <c r="J89">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K89">
-        <v>471</v>
+        <v>693</v>
       </c>
       <c r="L89">
-        <v>510</v>
+        <v>283</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>1436</v>
+        <v>1369</v>
       </c>
       <c r="O89">
-        <v>855</v>
+        <v>945</v>
       </c>
       <c r="P89">
-        <v>1363</v>
+        <v>1355</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R89">
-        <v>1240</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5541,52 +5490,52 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E90">
-        <v>-123.75</v>
+        <v>2846.72</v>
       </c>
       <c r="F90">
-        <v>-123.75</v>
+        <v>2846.72</v>
       </c>
       <c r="G90">
-        <v>122</v>
+        <v>-64</v>
       </c>
       <c r="H90">
-        <v>6610</v>
+        <v>5954</v>
       </c>
       <c r="I90">
-        <v>5605</v>
+        <v>4559</v>
       </c>
       <c r="J90">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K90">
-        <v>498</v>
+        <v>688</v>
       </c>
       <c r="L90">
-        <v>512</v>
+        <v>280</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>1380</v>
+        <v>1328</v>
       </c>
       <c r="O90">
-        <v>820</v>
+        <v>859</v>
       </c>
       <c r="P90">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>1320</v>
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5597,52 +5546,52 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
       </c>
       <c r="E91">
-        <v>-348.25</v>
+        <v>4010.12</v>
       </c>
       <c r="F91">
-        <v>-348.25</v>
+        <v>4010.12</v>
       </c>
       <c r="G91">
-        <v>171</v>
+        <v>-22</v>
       </c>
       <c r="H91">
-        <v>6425</v>
+        <v>5775</v>
       </c>
       <c r="I91">
-        <v>5605</v>
+        <v>4558</v>
       </c>
       <c r="J91">
         <v>57</v>
       </c>
       <c r="K91">
-        <v>493</v>
+        <v>654</v>
       </c>
       <c r="L91">
-        <v>507</v>
+        <v>235</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
       <c r="N91">
-        <v>1372</v>
+        <v>1286</v>
       </c>
       <c r="O91">
-        <v>752</v>
+        <v>845</v>
       </c>
       <c r="P91">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>1406</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5653,52 +5602,52 @@
         <v>91</v>
       </c>
       <c r="C92" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
       </c>
       <c r="E92">
-        <v>-474.14</v>
+        <v>-5000</v>
       </c>
       <c r="F92">
-        <v>-474.14</v>
+        <v>4000</v>
       </c>
       <c r="G92">
-        <v>179</v>
+        <v>-3</v>
       </c>
       <c r="H92">
-        <v>6283</v>
+        <v>5702</v>
       </c>
       <c r="I92">
-        <v>5604</v>
+        <v>4558</v>
       </c>
       <c r="J92">
         <v>57</v>
       </c>
       <c r="K92">
-        <v>478</v>
+        <v>638</v>
       </c>
       <c r="L92">
-        <v>505</v>
+        <v>232</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
-        <v>1356</v>
+        <v>1247</v>
       </c>
       <c r="O92">
-        <v>690</v>
+        <v>831</v>
       </c>
       <c r="P92">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>1447</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5709,52 +5658,52 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
       </c>
       <c r="E93">
-        <v>-468.38</v>
+        <v>-5010.98</v>
       </c>
       <c r="F93">
-        <v>-468.38</v>
+        <v>-5010.98</v>
       </c>
       <c r="G93">
-        <v>238</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>6148</v>
+        <v>5519</v>
       </c>
       <c r="I93">
-        <v>5604</v>
+        <v>4557</v>
       </c>
       <c r="J93">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K93">
-        <v>474</v>
+        <v>630</v>
       </c>
       <c r="L93">
-        <v>505</v>
+        <v>228</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>1325</v>
+        <v>1223</v>
       </c>
       <c r="O93">
-        <v>616</v>
+        <v>816</v>
       </c>
       <c r="P93">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>1474</v>
+        <v>163</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5765,52 +5714,43 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
         <v>19</v>
       </c>
-      <c r="E94">
-        <v>-150.9</v>
-      </c>
-      <c r="F94">
-        <v>-150.9</v>
-      </c>
-      <c r="G94">
-        <v>143</v>
-      </c>
       <c r="H94">
-        <v>5999</v>
+        <v>5427</v>
       </c>
       <c r="I94">
-        <v>5543</v>
+        <v>4259</v>
       </c>
       <c r="J94">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K94">
-        <v>501</v>
+        <v>650</v>
       </c>
       <c r="L94">
-        <v>512</v>
+        <v>234</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>1301</v>
+        <v>1337</v>
       </c>
       <c r="O94">
-        <v>650</v>
+        <v>570</v>
       </c>
       <c r="P94">
-        <v>1364</v>
+        <v>1353</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>1496</v>
+        <v>156</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5821,52 +5761,52 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E95">
-        <v>-129.99</v>
+        <v>1536.17</v>
       </c>
       <c r="F95">
-        <v>-129.99</v>
+        <v>1536.17</v>
       </c>
       <c r="G95">
-        <v>159</v>
+        <v>-87</v>
       </c>
       <c r="H95">
-        <v>5820</v>
+        <v>5412</v>
       </c>
       <c r="I95">
-        <v>5543</v>
+        <v>4259</v>
       </c>
       <c r="J95">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K95">
-        <v>504</v>
+        <v>681</v>
       </c>
       <c r="L95">
-        <v>512</v>
+        <v>268</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="O95">
-        <v>647</v>
+        <v>753</v>
       </c>
       <c r="P95">
-        <v>1363</v>
+        <v>1352</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>1511</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -5877,52 +5817,52 @@
         <v>95</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E96">
-        <v>-279.91</v>
+        <v>1902.77</v>
       </c>
       <c r="F96">
-        <v>-279.91</v>
+        <v>1902.77</v>
       </c>
       <c r="G96">
-        <v>171</v>
+        <v>-73</v>
       </c>
       <c r="H96">
-        <v>5754</v>
+        <v>5245</v>
       </c>
       <c r="I96">
-        <v>5543</v>
+        <v>4259</v>
       </c>
       <c r="J96">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K96">
-        <v>495</v>
+        <v>659</v>
       </c>
       <c r="L96">
-        <v>512</v>
+        <v>269</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
       <c r="N96">
-        <v>1296</v>
+        <v>1220</v>
       </c>
       <c r="O96">
-        <v>623</v>
+        <v>778</v>
       </c>
       <c r="P96">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96">
-        <v>1535</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -5933,52 +5873,52 @@
         <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="E97">
-        <v>-651.92</v>
+        <v>6348.82</v>
       </c>
       <c r="F97">
-        <v>-651.92</v>
+        <v>6348.82</v>
       </c>
       <c r="G97">
-        <v>192</v>
+        <v>-36</v>
       </c>
       <c r="H97">
-        <v>5637</v>
+        <v>5150</v>
       </c>
       <c r="I97">
-        <v>5543</v>
+        <v>4258</v>
       </c>
       <c r="J97">
         <v>57</v>
       </c>
       <c r="K97">
-        <v>480</v>
+        <v>644</v>
       </c>
       <c r="L97">
-        <v>511</v>
+        <v>266</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1293</v>
+        <v>1173</v>
       </c>
       <c r="O97">
-        <v>556</v>
+        <v>755</v>
       </c>
       <c r="P97">
-        <v>1363</v>
+        <v>1351</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>1516</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Entsoe_data.xlsx
+++ b/Market Fundamentals/Entsoe_data/Entsoe_data.xlsx
@@ -70,82 +70,82 @@
     <t>Wind Onshore</t>
   </si>
   <si>
-    <t>12.05.2024</t>
+    <t>16.05.2024</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>75</t>
+    <t>30</t>
   </si>
   <si>
-    <t>92</t>
+    <t>84</t>
   </si>
   <si>
-    <t>101</t>
+    <t>43</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>46</t>
+    <t>36</t>
   </si>
   <si>
     <t>65</t>
   </si>
   <si>
-    <t>94</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>102</t>
   </si>
   <si>
     <t>99</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>94</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>19</t>
+    <t>60</t>
   </si>
   <si>
-    <t>17</t>
+    <t>59</t>
   </si>
   <si>
-    <t>18</t>
+    <t>107</t>
   </si>
   <si>
-    <t>68</t>
+    <t>72</t>
   </si>
   <si>
-    <t>77</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
@@ -583,40 +583,49 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>1437.96</v>
+      </c>
+      <c r="F2">
+        <v>1437.96</v>
+      </c>
+      <c r="G2">
+        <v>-97</v>
       </c>
       <c r="H2">
-        <v>5263</v>
+        <v>5762</v>
       </c>
       <c r="I2">
-        <v>4405</v>
+        <v>4723</v>
       </c>
       <c r="J2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K2">
-        <v>656</v>
+        <v>907</v>
       </c>
       <c r="L2">
-        <v>277</v>
+        <v>704</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1251</v>
+        <v>1206</v>
       </c>
       <c r="O2">
-        <v>737</v>
+        <v>801</v>
       </c>
       <c r="P2">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>581</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -630,49 +639,49 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>905.24</v>
+        <v>1073.79</v>
       </c>
       <c r="F3">
-        <v>905.24</v>
+        <v>1073.79</v>
       </c>
       <c r="G3">
-        <v>-59</v>
+        <v>-93</v>
       </c>
       <c r="H3">
-        <v>5229</v>
+        <v>5713</v>
       </c>
       <c r="I3">
-        <v>4406</v>
+        <v>4723</v>
       </c>
       <c r="J3">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>662</v>
+        <v>907</v>
       </c>
       <c r="L3">
-        <v>272</v>
+        <v>702</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1222</v>
+        <v>1183</v>
       </c>
       <c r="O3">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="P3">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>626</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -686,49 +695,49 @@
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>950.91</v>
+        <v>993.0700000000001</v>
       </c>
       <c r="F4">
-        <v>950.91</v>
+        <v>993.0700000000001</v>
       </c>
       <c r="G4">
-        <v>-22</v>
+        <v>-82</v>
       </c>
       <c r="H4">
-        <v>5158</v>
+        <v>5652</v>
       </c>
       <c r="I4">
-        <v>4406</v>
+        <v>4722</v>
       </c>
       <c r="J4">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>656</v>
+        <v>918</v>
       </c>
       <c r="L4">
-        <v>266</v>
+        <v>699</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1228</v>
+        <v>1173</v>
       </c>
       <c r="O4">
-        <v>476</v>
+        <v>793</v>
       </c>
       <c r="P4">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>616</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -742,49 +751,49 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1206.23</v>
+        <v>2269.51</v>
       </c>
       <c r="F5">
-        <v>1206.23</v>
+        <v>2269.51</v>
       </c>
       <c r="G5">
-        <v>-17</v>
+        <v>-36</v>
       </c>
       <c r="H5">
-        <v>5045</v>
+        <v>5486</v>
       </c>
       <c r="I5">
-        <v>4407</v>
+        <v>4722</v>
       </c>
       <c r="J5">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>661</v>
+        <v>884</v>
       </c>
       <c r="L5">
-        <v>265</v>
+        <v>697</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1218</v>
+        <v>1150</v>
       </c>
       <c r="O5">
-        <v>458</v>
+        <v>748</v>
       </c>
       <c r="P5">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>652</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -801,46 +810,46 @@
         <v>40</v>
       </c>
       <c r="E6">
-        <v>2074.09</v>
+        <v>3427.17</v>
       </c>
       <c r="F6">
-        <v>2074.09</v>
+        <v>3427.17</v>
       </c>
       <c r="G6">
-        <v>-43</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>4903</v>
+        <v>5557</v>
       </c>
       <c r="I6">
-        <v>4482</v>
+        <v>4579</v>
       </c>
       <c r="J6">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>671</v>
+        <v>885</v>
       </c>
       <c r="L6">
-        <v>257</v>
+        <v>706</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1155</v>
+        <v>1050</v>
       </c>
       <c r="O6">
-        <v>465</v>
+        <v>644</v>
       </c>
       <c r="P6">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>674</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -854,49 +863,49 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>1959.63</v>
+        <v>-5000</v>
       </c>
       <c r="F7">
-        <v>1959.63</v>
+        <v>923.21</v>
       </c>
       <c r="G7">
-        <v>-62</v>
+        <v>26</v>
       </c>
       <c r="H7">
-        <v>4927</v>
+        <v>5475</v>
       </c>
       <c r="I7">
-        <v>4483</v>
+        <v>4578</v>
       </c>
       <c r="J7">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>683</v>
+        <v>896</v>
       </c>
       <c r="L7">
-        <v>257</v>
+        <v>694</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1144</v>
+        <v>1038</v>
       </c>
       <c r="O7">
-        <v>446</v>
+        <v>594</v>
       </c>
       <c r="P7">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>716</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -910,49 +919,49 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>1485</v>
+        <v>-5000</v>
       </c>
       <c r="F8">
-        <v>1485</v>
+        <v>-5000</v>
       </c>
       <c r="G8">
-        <v>-24</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>4865</v>
+        <v>5481</v>
       </c>
       <c r="I8">
-        <v>4484</v>
+        <v>4578</v>
       </c>
       <c r="J8">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>671</v>
+        <v>888</v>
       </c>
       <c r="L8">
-        <v>257</v>
+        <v>661</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1126</v>
+        <v>1037</v>
       </c>
       <c r="O8">
-        <v>427</v>
+        <v>595</v>
       </c>
       <c r="P8">
-        <v>1360</v>
+        <v>1352</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>783</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -966,49 +975,49 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>1268.9</v>
+        <v>-5012.23</v>
       </c>
       <c r="F9">
-        <v>1268.9</v>
+        <v>-5012.23</v>
       </c>
       <c r="G9">
-        <v>-17</v>
+        <v>38</v>
       </c>
       <c r="H9">
-        <v>4851</v>
+        <v>5407</v>
       </c>
       <c r="I9">
-        <v>4485</v>
+        <v>4578</v>
       </c>
       <c r="J9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>662</v>
+        <v>884</v>
       </c>
       <c r="L9">
-        <v>253</v>
+        <v>661</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1111</v>
+        <v>1036</v>
       </c>
       <c r="O9">
-        <v>417</v>
+        <v>600</v>
       </c>
       <c r="P9">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>873</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1025,46 +1034,46 @@
         <v>19</v>
       </c>
       <c r="E10">
-        <v>2005.18</v>
+        <v>4421.34</v>
       </c>
       <c r="F10">
-        <v>2005.18</v>
+        <v>4421.34</v>
       </c>
       <c r="G10">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>4779</v>
+        <v>5397</v>
       </c>
       <c r="I10">
-        <v>4507</v>
+        <v>4454</v>
       </c>
       <c r="J10">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>646</v>
+        <v>903</v>
       </c>
       <c r="L10">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1113</v>
+        <v>944</v>
       </c>
       <c r="O10">
-        <v>402</v>
+        <v>582</v>
       </c>
       <c r="P10">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>966</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1081,37 +1090,37 @@
         <v>19</v>
       </c>
       <c r="E11">
-        <v>2050.23</v>
+        <v>4425.32</v>
       </c>
       <c r="F11">
-        <v>2050.23</v>
+        <v>4425.32</v>
       </c>
       <c r="G11">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>4786</v>
+        <v>5382</v>
       </c>
       <c r="I11">
-        <v>4508</v>
+        <v>4454</v>
       </c>
       <c r="J11">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>640</v>
+        <v>899</v>
       </c>
       <c r="L11">
-        <v>222</v>
+        <v>664</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1087</v>
+        <v>934</v>
       </c>
       <c r="O11">
-        <v>391</v>
+        <v>580</v>
       </c>
       <c r="P11">
         <v>1359</v>
@@ -1120,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>1007</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1137,46 +1146,46 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>-15.3</v>
+        <v>-5000</v>
       </c>
       <c r="F12">
-        <v>-15.3</v>
+        <v>4000</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>4744</v>
+        <v>5354</v>
       </c>
       <c r="I12">
-        <v>4509</v>
+        <v>4454</v>
       </c>
       <c r="J12">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>630</v>
+        <v>890</v>
       </c>
       <c r="L12">
-        <v>222</v>
+        <v>663</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1064</v>
+        <v>921</v>
       </c>
       <c r="O12">
-        <v>378</v>
+        <v>574</v>
       </c>
       <c r="P12">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1072</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1193,46 +1202,46 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>-5000</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>-5000</v>
       </c>
       <c r="G13">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>4736</v>
+        <v>5276</v>
       </c>
       <c r="I13">
-        <v>4509</v>
+        <v>4454</v>
       </c>
       <c r="J13">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>616</v>
+        <v>877</v>
       </c>
       <c r="L13">
-        <v>222</v>
+        <v>657</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1041</v>
+        <v>910</v>
       </c>
       <c r="O13">
-        <v>365</v>
+        <v>567</v>
       </c>
       <c r="P13">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>1137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1249,46 +1258,46 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>-3207.58</v>
+        <v>-5000</v>
       </c>
       <c r="F14">
-        <v>-3207.58</v>
+        <v>4000</v>
       </c>
       <c r="G14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>4682</v>
+        <v>5312</v>
       </c>
       <c r="I14">
-        <v>4527</v>
+        <v>4394</v>
       </c>
       <c r="J14">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>633</v>
+        <v>896</v>
       </c>
       <c r="L14">
-        <v>222</v>
+        <v>627</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1061</v>
+        <v>929</v>
       </c>
       <c r="O14">
-        <v>345</v>
+        <v>571</v>
       </c>
       <c r="P14">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1304,29 +1313,38 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
+      <c r="E15">
+        <v>-5000</v>
+      </c>
+      <c r="F15">
+        <v>-5000</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
       <c r="H15">
-        <v>4682</v>
+        <v>5297</v>
       </c>
       <c r="I15">
-        <v>4528</v>
+        <v>4394</v>
       </c>
       <c r="J15">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>626</v>
+        <v>886</v>
       </c>
       <c r="L15">
-        <v>222</v>
+        <v>616</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1044</v>
+        <v>917</v>
       </c>
       <c r="O15">
-        <v>331</v>
+        <v>563</v>
       </c>
       <c r="P15">
         <v>1360</v>
@@ -1335,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1247</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1352,37 +1370,37 @@
         <v>19</v>
       </c>
       <c r="E16">
-        <v>-3200</v>
+        <v>-5005.63</v>
       </c>
       <c r="F16">
-        <v>-3200</v>
+        <v>-5005.63</v>
       </c>
       <c r="G16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>4736</v>
+        <v>5299</v>
       </c>
       <c r="I16">
-        <v>4530</v>
+        <v>4394</v>
       </c>
       <c r="J16">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>629</v>
+        <v>885</v>
       </c>
       <c r="L16">
-        <v>222</v>
+        <v>618</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1044</v>
+        <v>918</v>
       </c>
       <c r="O16">
-        <v>332</v>
+        <v>565</v>
       </c>
       <c r="P16">
         <v>1360</v>
@@ -1391,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1258</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1408,37 +1426,37 @@
         <v>19</v>
       </c>
       <c r="E17">
-        <v>-3200</v>
+        <v>-6625.9</v>
       </c>
       <c r="F17">
-        <v>-3200</v>
+        <v>-6625.9</v>
       </c>
       <c r="G17">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>4732</v>
+        <v>5254</v>
       </c>
       <c r="I17">
-        <v>4531</v>
+        <v>4395</v>
       </c>
       <c r="J17">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>629</v>
+        <v>894</v>
       </c>
       <c r="L17">
-        <v>223</v>
+        <v>624</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1047</v>
+        <v>925</v>
       </c>
       <c r="O17">
-        <v>331</v>
+        <v>569</v>
       </c>
       <c r="P17">
         <v>1360</v>
@@ -1447,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1274</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1464,46 +1482,46 @@
         <v>19</v>
       </c>
       <c r="E18">
-        <v>-76.84999999999999</v>
+        <v>-5023.16</v>
       </c>
       <c r="F18">
-        <v>-76.84999999999999</v>
+        <v>-5023.16</v>
       </c>
       <c r="G18">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H18">
-        <v>4650</v>
+        <v>5296</v>
       </c>
       <c r="I18">
-        <v>4599</v>
+        <v>4443</v>
       </c>
       <c r="J18">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>631</v>
+        <v>887</v>
       </c>
       <c r="L18">
-        <v>226</v>
+        <v>618</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1050</v>
+        <v>918</v>
       </c>
       <c r="O18">
-        <v>346</v>
+        <v>574</v>
       </c>
       <c r="P18">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1294</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1520,37 +1538,37 @@
         <v>19</v>
       </c>
       <c r="E19">
-        <v>-0.89</v>
+        <v>-5000</v>
       </c>
       <c r="F19">
-        <v>-0.89</v>
+        <v>-5000</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H19">
-        <v>4652</v>
+        <v>5328</v>
       </c>
       <c r="I19">
-        <v>4600</v>
+        <v>4444</v>
       </c>
       <c r="J19">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>626</v>
+        <v>886</v>
       </c>
       <c r="L19">
-        <v>226</v>
+        <v>620</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1041</v>
+        <v>921</v>
       </c>
       <c r="O19">
-        <v>341</v>
+        <v>575</v>
       </c>
       <c r="P19">
         <v>1360</v>
@@ -1559,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1283</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1576,37 +1594,37 @@
         <v>19</v>
       </c>
       <c r="E20">
-        <v>-2447.96</v>
+        <v>-5394.82</v>
       </c>
       <c r="F20">
-        <v>-2447.96</v>
+        <v>-5394.82</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>4677</v>
+        <v>5291</v>
       </c>
       <c r="I20">
-        <v>4600</v>
+        <v>4444</v>
       </c>
       <c r="J20">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>630</v>
+        <v>887</v>
       </c>
       <c r="L20">
-        <v>225</v>
+        <v>615</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1053</v>
+        <v>918</v>
       </c>
       <c r="O20">
-        <v>348</v>
+        <v>573</v>
       </c>
       <c r="P20">
         <v>1360</v>
@@ -1615,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1288</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1632,46 +1650,46 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>2749.22</v>
+        <v>-5000</v>
       </c>
       <c r="F21">
-        <v>2749.22</v>
+        <v>-5000</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H21">
-        <v>4696</v>
+        <v>5305</v>
       </c>
       <c r="I21">
-        <v>4600</v>
+        <v>4444</v>
       </c>
       <c r="J21">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>629</v>
+        <v>882</v>
       </c>
       <c r="L21">
-        <v>217</v>
+        <v>613</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1057</v>
+        <v>914</v>
       </c>
       <c r="O21">
-        <v>351</v>
+        <v>574</v>
       </c>
       <c r="P21">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1279</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1688,46 +1706,46 @@
         <v>19</v>
       </c>
       <c r="E22">
-        <v>3000</v>
+        <v>-5000</v>
       </c>
       <c r="F22">
-        <v>3000</v>
+        <v>-5000</v>
       </c>
       <c r="G22">
-        <v>-17</v>
+        <v>34</v>
       </c>
       <c r="H22">
-        <v>4716</v>
+        <v>5389</v>
       </c>
       <c r="I22">
-        <v>4615</v>
+        <v>4484</v>
       </c>
       <c r="J22">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>643</v>
+        <v>874</v>
       </c>
       <c r="L22">
-        <v>217</v>
+        <v>609</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1099</v>
+        <v>914</v>
       </c>
       <c r="O22">
-        <v>316</v>
+        <v>580</v>
       </c>
       <c r="P22">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1744,46 +1762,46 @@
         <v>19</v>
       </c>
       <c r="E23">
-        <v>3000</v>
+        <v>-5013.56</v>
       </c>
       <c r="F23">
-        <v>3000</v>
+        <v>-5013.56</v>
       </c>
       <c r="G23">
-        <v>-13</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>4636</v>
+        <v>5392</v>
       </c>
       <c r="I23">
-        <v>4614</v>
+        <v>4484</v>
       </c>
       <c r="J23">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>645</v>
+        <v>886</v>
       </c>
       <c r="L23">
-        <v>217</v>
+        <v>617</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1100</v>
+        <v>925</v>
       </c>
       <c r="O23">
-        <v>306</v>
+        <v>586</v>
       </c>
       <c r="P23">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1172</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1800,46 +1818,46 @@
         <v>19</v>
       </c>
       <c r="E24">
-        <v>3000</v>
+        <v>-5000</v>
       </c>
       <c r="F24">
-        <v>3000</v>
+        <v>-5000</v>
       </c>
       <c r="G24">
-        <v>-17</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>4603</v>
+        <v>5344</v>
       </c>
       <c r="I24">
-        <v>4614</v>
+        <v>4484</v>
       </c>
       <c r="J24">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>648</v>
+        <v>879</v>
       </c>
       <c r="L24">
-        <v>217</v>
+        <v>611</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1113</v>
+        <v>918</v>
       </c>
       <c r="O24">
-        <v>318</v>
+        <v>583</v>
       </c>
       <c r="P24">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1108</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1856,46 +1874,46 @@
         <v>19</v>
       </c>
       <c r="E25">
-        <v>3000</v>
+        <v>-6619.88</v>
       </c>
       <c r="F25">
-        <v>3000</v>
+        <v>-6619.88</v>
       </c>
       <c r="G25">
-        <v>-46</v>
+        <v>64</v>
       </c>
       <c r="H25">
-        <v>4630</v>
+        <v>5367</v>
       </c>
       <c r="I25">
-        <v>4614</v>
+        <v>4485</v>
       </c>
       <c r="J25">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>653</v>
+        <v>882</v>
       </c>
       <c r="L25">
-        <v>217</v>
+        <v>615</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1128</v>
+        <v>924</v>
       </c>
       <c r="O25">
-        <v>330</v>
+        <v>586</v>
       </c>
       <c r="P25">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1031</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -1906,52 +1924,52 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>19</v>
       </c>
       <c r="E26">
-        <v>2045.75</v>
+        <v>-2185.21</v>
       </c>
       <c r="F26">
-        <v>2045.75</v>
+        <v>-2185.21</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="H26">
-        <v>4586</v>
+        <v>5477</v>
       </c>
       <c r="I26">
-        <v>4609</v>
+        <v>4596</v>
       </c>
       <c r="J26">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>644</v>
+        <v>798</v>
       </c>
       <c r="L26">
-        <v>217</v>
+        <v>647</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1105</v>
+        <v>943</v>
       </c>
       <c r="O26">
-        <v>340</v>
+        <v>524</v>
       </c>
       <c r="P26">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>977</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1962,52 +1980,52 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
       <c r="E27">
-        <v>-1007.98</v>
+        <v>-2492.24</v>
       </c>
       <c r="F27">
-        <v>-1007.98</v>
+        <v>-2492.24</v>
       </c>
       <c r="G27">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="H27">
-        <v>4569</v>
+        <v>5544</v>
       </c>
       <c r="I27">
-        <v>4610</v>
+        <v>4600</v>
       </c>
       <c r="J27">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>638</v>
+        <v>737</v>
       </c>
       <c r="L27">
-        <v>217</v>
+        <v>652</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1092</v>
+        <v>942</v>
       </c>
       <c r="O27">
-        <v>337</v>
+        <v>519</v>
       </c>
       <c r="P27">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="R27">
-        <v>947</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2018,52 +2036,52 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>19</v>
       </c>
       <c r="E28">
-        <v>0.1</v>
+        <v>-2282.58</v>
       </c>
       <c r="F28">
-        <v>2000</v>
+        <v>-2282.58</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>57</v>
       </c>
       <c r="H28">
-        <v>4585</v>
+        <v>5662</v>
       </c>
       <c r="I28">
-        <v>4611</v>
+        <v>4606</v>
       </c>
       <c r="J28">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>634</v>
+        <v>740</v>
       </c>
       <c r="L28">
-        <v>217</v>
+        <v>653</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1093</v>
+        <v>950</v>
       </c>
       <c r="O28">
-        <v>338</v>
+        <v>521</v>
       </c>
       <c r="P28">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="R28">
-        <v>888</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2074,52 +2092,52 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
       </c>
       <c r="E29">
-        <v>-1330.15</v>
+        <v>-1413.45</v>
       </c>
       <c r="F29">
-        <v>-1330.15</v>
+        <v>-1413.45</v>
       </c>
       <c r="G29">
-        <v>-3</v>
+        <v>66</v>
       </c>
       <c r="H29">
-        <v>4599</v>
+        <v>5714</v>
       </c>
       <c r="I29">
         <v>4613</v>
       </c>
       <c r="J29">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>630</v>
+        <v>752</v>
       </c>
       <c r="L29">
-        <v>218</v>
+        <v>657</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1091</v>
+        <v>979</v>
       </c>
       <c r="O29">
-        <v>340</v>
+        <v>533</v>
       </c>
       <c r="P29">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="R29">
-        <v>839</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2130,52 +2148,52 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
       </c>
       <c r="E30">
-        <v>-3214</v>
+        <v>-869.4400000000001</v>
       </c>
       <c r="F30">
-        <v>-3214</v>
+        <v>-869.4400000000001</v>
       </c>
       <c r="G30">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="H30">
-        <v>4512</v>
+        <v>5929</v>
       </c>
       <c r="I30">
-        <v>4641</v>
+        <v>5420</v>
       </c>
       <c r="J30">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>608</v>
+        <v>715</v>
       </c>
       <c r="L30">
-        <v>218</v>
+        <v>657</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1007</v>
+        <v>1164</v>
       </c>
       <c r="O30">
-        <v>381</v>
+        <v>769</v>
       </c>
       <c r="P30">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="Q30">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="R30">
-        <v>808</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2186,52 +2204,52 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
       <c r="E31">
-        <v>-3200</v>
+        <v>-150.8</v>
       </c>
       <c r="F31">
-        <v>-3200</v>
+        <v>-150.8</v>
       </c>
       <c r="G31">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="H31">
-        <v>4562</v>
+        <v>6115</v>
       </c>
       <c r="I31">
-        <v>4650</v>
+        <v>5435</v>
       </c>
       <c r="J31">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>605</v>
+        <v>728</v>
       </c>
       <c r="L31">
-        <v>217</v>
+        <v>663</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1010</v>
+        <v>1238</v>
       </c>
       <c r="O31">
-        <v>382</v>
+        <v>918</v>
       </c>
       <c r="P31">
-        <v>1358</v>
+        <v>1362</v>
       </c>
       <c r="Q31">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="R31">
-        <v>801</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2242,52 +2260,52 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
       <c r="E32">
-        <v>-3200</v>
+        <v>-133.21</v>
       </c>
       <c r="F32">
-        <v>-3200</v>
+        <v>-133.21</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="H32">
-        <v>4621</v>
+        <v>6137</v>
       </c>
       <c r="I32">
-        <v>4661</v>
+        <v>5455</v>
       </c>
       <c r="J32">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>597</v>
+        <v>729</v>
       </c>
       <c r="L32">
-        <v>217</v>
+        <v>664</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>983</v>
+        <v>1241</v>
       </c>
       <c r="O32">
-        <v>375</v>
+        <v>917</v>
       </c>
       <c r="P32">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="Q32">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="R32">
-        <v>810</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2298,52 +2316,52 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
       </c>
       <c r="E33">
-        <v>-3244.63</v>
+        <v>-171.52</v>
       </c>
       <c r="F33">
-        <v>-3244.63</v>
+        <v>-171.52</v>
       </c>
       <c r="G33">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="H33">
-        <v>4647</v>
+        <v>6131</v>
       </c>
       <c r="I33">
-        <v>4677</v>
+        <v>5480</v>
       </c>
       <c r="J33">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K33">
-        <v>602</v>
+        <v>728</v>
       </c>
       <c r="L33">
-        <v>216</v>
+        <v>664</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1011</v>
+        <v>1240</v>
       </c>
       <c r="O33">
-        <v>386</v>
+        <v>915</v>
       </c>
       <c r="P33">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Q33">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="R33">
-        <v>763</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2354,52 +2372,52 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>19</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
+        <v>-172.53</v>
       </c>
       <c r="F34">
-        <v>0.1</v>
+        <v>-172.53</v>
       </c>
       <c r="G34">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="H34">
-        <v>4722</v>
+        <v>6143</v>
       </c>
       <c r="I34">
-        <v>4827</v>
+        <v>5602</v>
       </c>
       <c r="J34">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>601</v>
+        <v>724</v>
       </c>
       <c r="L34">
-        <v>214</v>
+        <v>660</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1081</v>
+        <v>1234</v>
       </c>
       <c r="O34">
-        <v>403</v>
+        <v>906</v>
       </c>
       <c r="P34">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="Q34">
-        <v>175</v>
+        <v>373</v>
       </c>
       <c r="R34">
-        <v>711</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2410,52 +2428,52 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
       </c>
       <c r="E35">
-        <v>-70.68000000000001</v>
+        <v>-181.93</v>
       </c>
       <c r="F35">
-        <v>-70.68000000000001</v>
+        <v>-181.93</v>
       </c>
       <c r="G35">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="H35">
-        <v>4747</v>
+        <v>6183</v>
       </c>
       <c r="I35">
-        <v>4842</v>
+        <v>5624</v>
       </c>
       <c r="J35">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>605</v>
+        <v>712</v>
       </c>
       <c r="L35">
-        <v>213</v>
+        <v>659</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1116</v>
+        <v>1225</v>
       </c>
       <c r="O35">
-        <v>410</v>
+        <v>907</v>
       </c>
       <c r="P35">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="Q35">
-        <v>210</v>
+        <v>463</v>
       </c>
       <c r="R35">
-        <v>633</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2466,52 +2484,52 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
       <c r="E36">
-        <v>0.1</v>
+        <v>-123.87</v>
       </c>
       <c r="F36">
-        <v>2000</v>
+        <v>-123.87</v>
       </c>
       <c r="G36">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="H36">
-        <v>4780</v>
+        <v>6103</v>
       </c>
       <c r="I36">
-        <v>4859</v>
+        <v>5649</v>
       </c>
       <c r="J36">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>608</v>
+        <v>724</v>
       </c>
       <c r="L36">
-        <v>213</v>
+        <v>658</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1120</v>
+        <v>1210</v>
       </c>
       <c r="O36">
-        <v>409</v>
+        <v>809</v>
       </c>
       <c r="P36">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="Q36">
-        <v>229</v>
+        <v>539</v>
       </c>
       <c r="R36">
-        <v>600</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2522,52 +2540,52 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>19</v>
       </c>
       <c r="E37">
-        <v>-53.91</v>
+        <v>-87.68000000000001</v>
       </c>
       <c r="F37">
-        <v>-53.91</v>
+        <v>-87.68000000000001</v>
       </c>
       <c r="G37">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="H37">
-        <v>4696</v>
+        <v>6056</v>
       </c>
       <c r="I37">
-        <v>4873</v>
+        <v>5671</v>
       </c>
       <c r="J37">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>607</v>
+        <v>743</v>
       </c>
       <c r="L37">
-        <v>214</v>
+        <v>658</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1109</v>
+        <v>1208</v>
       </c>
       <c r="O37">
-        <v>404</v>
+        <v>763</v>
       </c>
       <c r="P37">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="Q37">
-        <v>255</v>
+        <v>617</v>
       </c>
       <c r="R37">
-        <v>548</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2578,52 +2596,43 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>19</v>
       </c>
-      <c r="E38">
-        <v>-3205.76</v>
-      </c>
-      <c r="F38">
-        <v>-3205.76</v>
-      </c>
-      <c r="G38">
-        <v>6</v>
-      </c>
       <c r="H38">
-        <v>4745</v>
+        <v>6045</v>
       </c>
       <c r="I38">
-        <v>4896</v>
+        <v>5809</v>
       </c>
       <c r="J38">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>610</v>
+        <v>727</v>
       </c>
       <c r="L38">
-        <v>205</v>
+        <v>657</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1170</v>
+        <v>1157</v>
       </c>
       <c r="O38">
-        <v>357</v>
+        <v>597</v>
       </c>
       <c r="P38">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="Q38">
-        <v>324</v>
+        <v>679</v>
       </c>
       <c r="R38">
-        <v>493</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2634,52 +2643,52 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>19</v>
       </c>
       <c r="E39">
-        <v>-3593.33</v>
+        <v>-529.6</v>
       </c>
       <c r="F39">
-        <v>-3593.33</v>
+        <v>-529.6</v>
       </c>
       <c r="G39">
-        <v>-2</v>
+        <v>174</v>
       </c>
       <c r="H39">
-        <v>4741</v>
+        <v>5926</v>
       </c>
       <c r="I39">
-        <v>4913</v>
+        <v>5835</v>
       </c>
       <c r="J39">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>610</v>
+        <v>702</v>
       </c>
       <c r="L39">
-        <v>204</v>
+        <v>653</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1166</v>
+        <v>1119</v>
       </c>
       <c r="O39">
-        <v>356</v>
+        <v>577</v>
       </c>
       <c r="P39">
-        <v>1359</v>
+        <v>1317</v>
       </c>
       <c r="Q39">
-        <v>358</v>
+        <v>740</v>
       </c>
       <c r="R39">
-        <v>435</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2690,52 +2699,52 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s">
         <v>19</v>
       </c>
       <c r="E40">
-        <v>-3264.49</v>
+        <v>-644.47</v>
       </c>
       <c r="F40">
-        <v>-3264.49</v>
+        <v>-644.47</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="H40">
-        <v>4756</v>
+        <v>5892</v>
       </c>
       <c r="I40">
-        <v>4926</v>
+        <v>5857</v>
       </c>
       <c r="J40">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>608</v>
+        <v>718</v>
       </c>
       <c r="L40">
-        <v>204</v>
+        <v>652</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1160</v>
+        <v>1109</v>
       </c>
       <c r="O40">
-        <v>351</v>
+        <v>573</v>
       </c>
       <c r="P40">
-        <v>1360</v>
+        <v>1280</v>
       </c>
       <c r="Q40">
-        <v>413</v>
+        <v>810</v>
       </c>
       <c r="R40">
-        <v>397</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2746,52 +2755,52 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
       <c r="E41">
-        <v>-3200</v>
+        <v>-967.13</v>
       </c>
       <c r="F41">
-        <v>-3200</v>
+        <v>-967.13</v>
       </c>
       <c r="G41">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="H41">
-        <v>4686</v>
+        <v>5742</v>
       </c>
       <c r="I41">
-        <v>4941</v>
+        <v>5878</v>
       </c>
       <c r="J41">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>605</v>
+        <v>718</v>
       </c>
       <c r="L41">
-        <v>205</v>
+        <v>649</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1157</v>
+        <v>1023</v>
       </c>
       <c r="O41">
-        <v>347</v>
+        <v>470</v>
       </c>
       <c r="P41">
-        <v>1360</v>
+        <v>1275</v>
       </c>
       <c r="Q41">
-        <v>429</v>
+        <v>859</v>
       </c>
       <c r="R41">
-        <v>364</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2802,52 +2811,52 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
       <c r="E42">
-        <v>-3.45</v>
+        <v>-194.75</v>
       </c>
       <c r="F42">
-        <v>-3.45</v>
+        <v>-194.75</v>
       </c>
       <c r="G42">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="H42">
-        <v>4616</v>
+        <v>5633</v>
       </c>
       <c r="I42">
-        <v>4812</v>
+        <v>6081</v>
       </c>
       <c r="J42">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>602</v>
+        <v>728</v>
       </c>
       <c r="L42">
-        <v>202</v>
+        <v>650</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1135</v>
+        <v>1083</v>
       </c>
       <c r="O42">
-        <v>258</v>
+        <v>528</v>
       </c>
       <c r="P42">
-        <v>1360</v>
+        <v>1274</v>
       </c>
       <c r="Q42">
-        <v>482</v>
+        <v>914</v>
       </c>
       <c r="R42">
-        <v>334</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -2858,52 +2867,52 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
       <c r="E43">
-        <v>0.1</v>
+        <v>-123.43</v>
       </c>
       <c r="F43">
-        <v>0.1</v>
+        <v>-123.43</v>
       </c>
       <c r="G43">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="H43">
-        <v>4652</v>
+        <v>5536</v>
       </c>
       <c r="I43">
-        <v>4823</v>
+        <v>6099</v>
       </c>
       <c r="J43">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K43">
-        <v>596</v>
+        <v>743</v>
       </c>
       <c r="L43">
-        <v>198</v>
+        <v>647</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>1121</v>
+        <v>1064</v>
       </c>
       <c r="O43">
-        <v>248</v>
+        <v>507</v>
       </c>
       <c r="P43">
-        <v>1360</v>
+        <v>1274</v>
       </c>
       <c r="Q43">
-        <v>546</v>
+        <v>941</v>
       </c>
       <c r="R43">
-        <v>320</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -2914,52 +2923,52 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D44" t="s">
         <v>19</v>
       </c>
       <c r="E44">
-        <v>0.1</v>
+        <v>-291.6</v>
       </c>
       <c r="F44">
-        <v>0.1</v>
+        <v>-291.6</v>
       </c>
       <c r="G44">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="H44">
-        <v>4641</v>
+        <v>5515</v>
       </c>
       <c r="I44">
-        <v>4834</v>
+        <v>6115</v>
       </c>
       <c r="J44">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>589</v>
+        <v>753</v>
       </c>
       <c r="L44">
-        <v>197</v>
+        <v>646</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>1087</v>
+        <v>1054</v>
       </c>
       <c r="O44">
-        <v>240</v>
+        <v>498</v>
       </c>
       <c r="P44">
-        <v>1360</v>
+        <v>1278</v>
       </c>
       <c r="Q44">
-        <v>564</v>
+        <v>973</v>
       </c>
       <c r="R44">
-        <v>301</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -2970,52 +2979,52 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
         <v>19</v>
       </c>
       <c r="E45">
-        <v>0.1</v>
+        <v>-803.22</v>
       </c>
       <c r="F45">
-        <v>0.1</v>
+        <v>-803.22</v>
       </c>
       <c r="G45">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="H45">
-        <v>4592</v>
+        <v>5462</v>
       </c>
       <c r="I45">
-        <v>4842</v>
+        <v>6129</v>
       </c>
       <c r="J45">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>579</v>
+        <v>735</v>
       </c>
       <c r="L45">
-        <v>197</v>
+        <v>644</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>1057</v>
+        <v>1013</v>
       </c>
       <c r="O45">
-        <v>235</v>
+        <v>489</v>
       </c>
       <c r="P45">
-        <v>1359</v>
+        <v>1302</v>
       </c>
       <c r="Q45">
-        <v>618</v>
+        <v>1032</v>
       </c>
       <c r="R45">
-        <v>291</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3026,52 +3035,52 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
         <v>19</v>
       </c>
       <c r="E46">
-        <v>-3335.4</v>
+        <v>-273.31</v>
       </c>
       <c r="F46">
-        <v>-3335.4</v>
+        <v>-273.31</v>
       </c>
       <c r="G46">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="H46">
-        <v>4579</v>
+        <v>5425</v>
       </c>
       <c r="I46">
-        <v>4736</v>
+        <v>6086</v>
       </c>
       <c r="J46">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>572</v>
+        <v>745</v>
       </c>
       <c r="L46">
-        <v>197</v>
+        <v>569</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="O46">
-        <v>167</v>
+        <v>439</v>
       </c>
       <c r="P46">
-        <v>1360</v>
+        <v>1332</v>
       </c>
       <c r="Q46">
-        <v>645</v>
+        <v>1061</v>
       </c>
       <c r="R46">
-        <v>302</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3082,52 +3091,52 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D47" t="s">
         <v>19</v>
       </c>
       <c r="E47">
-        <v>-173.75</v>
+        <v>-430.82</v>
       </c>
       <c r="F47">
-        <v>-173.75</v>
+        <v>-430.82</v>
       </c>
       <c r="G47">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="H47">
-        <v>4586</v>
+        <v>5359</v>
       </c>
       <c r="I47">
-        <v>4746</v>
+        <v>6097</v>
       </c>
       <c r="J47">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K47">
-        <v>537</v>
+        <v>771</v>
       </c>
       <c r="L47">
-        <v>192</v>
+        <v>553</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>952</v>
+        <v>1039</v>
       </c>
       <c r="O47">
-        <v>147</v>
+        <v>443</v>
       </c>
       <c r="P47">
-        <v>1360</v>
+        <v>1343</v>
       </c>
       <c r="Q47">
-        <v>647</v>
+        <v>1073</v>
       </c>
       <c r="R47">
-        <v>303</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3138,52 +3147,52 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
         <v>19</v>
       </c>
       <c r="E48">
-        <v>-59.25</v>
+        <v>-229.68</v>
       </c>
       <c r="F48">
-        <v>-59.25</v>
+        <v>-229.68</v>
       </c>
       <c r="G48">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="H48">
-        <v>4518</v>
+        <v>5446</v>
       </c>
       <c r="I48">
-        <v>4754</v>
+        <v>6106</v>
       </c>
       <c r="J48">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>525</v>
+        <v>784</v>
       </c>
       <c r="L48">
-        <v>194</v>
+        <v>554</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>876</v>
+        <v>1062</v>
       </c>
       <c r="O48">
-        <v>147</v>
+        <v>445</v>
       </c>
       <c r="P48">
-        <v>1360</v>
+        <v>1317</v>
       </c>
       <c r="Q48">
-        <v>709</v>
+        <v>1105</v>
       </c>
       <c r="R48">
-        <v>311</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3194,52 +3203,52 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
         <v>19</v>
       </c>
       <c r="E49">
-        <v>-98.14</v>
+        <v>-356.99</v>
       </c>
       <c r="F49">
-        <v>-98.14</v>
+        <v>-356.99</v>
       </c>
       <c r="G49">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="H49">
-        <v>4538</v>
+        <v>5433</v>
       </c>
       <c r="I49">
-        <v>4760</v>
+        <v>6112</v>
       </c>
       <c r="J49">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>525</v>
+        <v>775</v>
       </c>
       <c r="L49">
-        <v>198</v>
+        <v>552</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>869</v>
+        <v>1053</v>
       </c>
       <c r="O49">
-        <v>145</v>
+        <v>444</v>
       </c>
       <c r="P49">
-        <v>1360</v>
+        <v>1306</v>
       </c>
       <c r="Q49">
-        <v>731</v>
+        <v>1131</v>
       </c>
       <c r="R49">
-        <v>328</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3250,52 +3259,52 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
         <v>19</v>
       </c>
       <c r="E50">
-        <v>-60.2</v>
+        <v>-342.94</v>
       </c>
       <c r="F50">
-        <v>-60.2</v>
+        <v>-342.94</v>
       </c>
       <c r="G50">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="H50">
-        <v>4560</v>
+        <v>5391</v>
       </c>
       <c r="I50">
-        <v>4728</v>
+        <v>5747</v>
       </c>
       <c r="J50">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>535</v>
+        <v>752</v>
       </c>
       <c r="L50">
-        <v>201</v>
+        <v>479</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>875</v>
+        <v>982</v>
       </c>
       <c r="O50">
-        <v>102</v>
+        <v>327</v>
       </c>
       <c r="P50">
-        <v>1360</v>
+        <v>1276</v>
       </c>
       <c r="Q50">
-        <v>757</v>
+        <v>1121</v>
       </c>
       <c r="R50">
-        <v>341</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3306,52 +3315,52 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
         <v>19</v>
       </c>
       <c r="E51">
-        <v>-15.11</v>
+        <v>-272.67</v>
       </c>
       <c r="F51">
-        <v>-15.11</v>
+        <v>-272.67</v>
       </c>
       <c r="G51">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="H51">
-        <v>4646</v>
+        <v>5430</v>
       </c>
       <c r="I51">
-        <v>4734</v>
+        <v>5749</v>
       </c>
       <c r="J51">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K51">
-        <v>533</v>
+        <v>770</v>
       </c>
       <c r="L51">
-        <v>200</v>
+        <v>463</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>867</v>
+        <v>980</v>
       </c>
       <c r="O51">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="P51">
-        <v>1360</v>
+        <v>1264</v>
       </c>
       <c r="Q51">
-        <v>787</v>
+        <v>1139</v>
       </c>
       <c r="R51">
-        <v>355</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3362,52 +3371,52 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
         <v>19</v>
       </c>
       <c r="E52">
-        <v>-9.710000000000001</v>
+        <v>-270.11</v>
       </c>
       <c r="F52">
-        <v>-9.710000000000001</v>
+        <v>-270.11</v>
       </c>
       <c r="G52">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="H52">
-        <v>4543</v>
+        <v>5430</v>
       </c>
       <c r="I52">
-        <v>4735</v>
+        <v>5751</v>
       </c>
       <c r="J52">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K52">
-        <v>531</v>
+        <v>783</v>
       </c>
       <c r="L52">
-        <v>200</v>
+        <v>463</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>865</v>
+        <v>979</v>
       </c>
       <c r="O52">
-        <v>99</v>
+        <v>329</v>
       </c>
       <c r="P52">
-        <v>1360</v>
+        <v>1264</v>
       </c>
       <c r="Q52">
-        <v>787</v>
+        <v>1132</v>
       </c>
       <c r="R52">
-        <v>365</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3418,52 +3427,52 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
         <v>19</v>
       </c>
       <c r="E53">
-        <v>-87.95999999999999</v>
+        <v>-88.34999999999999</v>
       </c>
       <c r="F53">
-        <v>-87.95999999999999</v>
+        <v>-88.34999999999999</v>
       </c>
       <c r="G53">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="H53">
-        <v>4571</v>
+        <v>5477</v>
       </c>
       <c r="I53">
-        <v>4736</v>
+        <v>5751</v>
       </c>
       <c r="J53">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K53">
-        <v>531</v>
+        <v>778</v>
       </c>
       <c r="L53">
-        <v>200</v>
+        <v>463</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>874</v>
+        <v>995</v>
       </c>
       <c r="O53">
-        <v>102</v>
+        <v>332</v>
       </c>
       <c r="P53">
-        <v>1359</v>
+        <v>1266</v>
       </c>
       <c r="Q53">
-        <v>770</v>
+        <v>1112</v>
       </c>
       <c r="R53">
-        <v>350</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3474,52 +3483,52 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
         <v>19</v>
       </c>
       <c r="E54">
-        <v>-1184.07</v>
+        <v>-52.3</v>
       </c>
       <c r="F54">
-        <v>-1184.07</v>
+        <v>-52.3</v>
       </c>
       <c r="G54">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="H54">
-        <v>4603</v>
+        <v>5445</v>
       </c>
       <c r="I54">
-        <v>4678</v>
+        <v>5716</v>
       </c>
       <c r="J54">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>544</v>
+        <v>771</v>
       </c>
       <c r="L54">
-        <v>200</v>
+        <v>461</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>926</v>
+        <v>1010</v>
       </c>
       <c r="O54">
-        <v>114</v>
+        <v>311</v>
       </c>
       <c r="P54">
-        <v>1360</v>
+        <v>1291</v>
       </c>
       <c r="Q54">
-        <v>736</v>
+        <v>1079</v>
       </c>
       <c r="R54">
-        <v>334</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3530,52 +3539,52 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
       <c r="E55">
-        <v>-1440.24</v>
+        <v>-64.36</v>
       </c>
       <c r="F55">
-        <v>-1440.24</v>
+        <v>-64.36</v>
       </c>
       <c r="G55">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="H55">
-        <v>4574</v>
+        <v>5464</v>
       </c>
       <c r="I55">
-        <v>4678</v>
+        <v>5713</v>
       </c>
       <c r="J55">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>550</v>
+        <v>789</v>
       </c>
       <c r="L55">
-        <v>200</v>
+        <v>463</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>995</v>
+        <v>1008</v>
       </c>
       <c r="O55">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="P55">
-        <v>1359</v>
+        <v>1296</v>
       </c>
       <c r="Q55">
-        <v>669</v>
+        <v>1045</v>
       </c>
       <c r="R55">
-        <v>338</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3586,52 +3595,52 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
         <v>19</v>
       </c>
       <c r="E56">
-        <v>-207.88</v>
+        <v>-192.87</v>
       </c>
       <c r="F56">
-        <v>-207.88</v>
+        <v>-192.87</v>
       </c>
       <c r="G56">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="H56">
-        <v>4495</v>
+        <v>5485</v>
       </c>
       <c r="I56">
-        <v>4677</v>
+        <v>5712</v>
       </c>
       <c r="J56">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K56">
-        <v>537</v>
+        <v>789</v>
       </c>
       <c r="L56">
-        <v>200</v>
+        <v>456</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="O56">
-        <v>107</v>
+        <v>319</v>
       </c>
       <c r="P56">
-        <v>1359</v>
+        <v>1295</v>
       </c>
       <c r="Q56">
-        <v>655</v>
+        <v>1055</v>
       </c>
       <c r="R56">
-        <v>340</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3642,52 +3651,52 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
         <v>19</v>
       </c>
       <c r="E57">
-        <v>-597.45</v>
+        <v>-1799.79</v>
       </c>
       <c r="F57">
-        <v>-597.45</v>
+        <v>-1799.79</v>
       </c>
       <c r="G57">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H57">
-        <v>4423</v>
+        <v>5543</v>
       </c>
       <c r="I57">
-        <v>4675</v>
+        <v>5706</v>
       </c>
       <c r="J57">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>523</v>
+        <v>762</v>
       </c>
       <c r="L57">
-        <v>196</v>
+        <v>456</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>970</v>
+        <v>1069</v>
       </c>
       <c r="O57">
-        <v>102</v>
+        <v>355</v>
       </c>
       <c r="P57">
-        <v>1359</v>
+        <v>1298</v>
       </c>
       <c r="Q57">
-        <v>652</v>
+        <v>1010</v>
       </c>
       <c r="R57">
-        <v>369</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3698,52 +3707,52 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
         <v>19</v>
       </c>
       <c r="E58">
-        <v>0.53</v>
+        <v>-273.95</v>
       </c>
       <c r="F58">
-        <v>0.53</v>
+        <v>-273.95</v>
       </c>
       <c r="G58">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="H58">
-        <v>4444</v>
+        <v>5470</v>
       </c>
       <c r="I58">
-        <v>4612</v>
+        <v>5606</v>
       </c>
       <c r="J58">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K58">
-        <v>515</v>
+        <v>731</v>
       </c>
       <c r="L58">
-        <v>196</v>
+        <v>454</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>920</v>
+        <v>1056</v>
       </c>
       <c r="O58">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="P58">
-        <v>1359</v>
+        <v>1318</v>
       </c>
       <c r="Q58">
-        <v>663</v>
+        <v>1048</v>
       </c>
       <c r="R58">
-        <v>397</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3754,52 +3763,52 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
         <v>19</v>
       </c>
       <c r="E59">
-        <v>0.46</v>
+        <v>-277.81</v>
       </c>
       <c r="F59">
-        <v>0.46</v>
+        <v>-277.81</v>
       </c>
       <c r="G59">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H59">
-        <v>4481</v>
+        <v>5441</v>
       </c>
       <c r="I59">
-        <v>4607</v>
+        <v>5600</v>
       </c>
       <c r="J59">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>506</v>
+        <v>759</v>
       </c>
       <c r="L59">
-        <v>196</v>
+        <v>451</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>902</v>
+        <v>1062</v>
       </c>
       <c r="O59">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="P59">
-        <v>1359</v>
+        <v>1302</v>
       </c>
       <c r="Q59">
-        <v>747</v>
+        <v>1011</v>
       </c>
       <c r="R59">
-        <v>427</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3810,52 +3819,52 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
         <v>19</v>
       </c>
       <c r="E60">
-        <v>0.44</v>
+        <v>-195.29</v>
       </c>
       <c r="F60">
-        <v>0.44</v>
+        <v>-195.29</v>
       </c>
       <c r="G60">
+        <v>84</v>
+      </c>
+      <c r="H60">
+        <v>5482</v>
+      </c>
+      <c r="I60">
+        <v>5591</v>
+      </c>
+      <c r="J60">
+        <v>49</v>
+      </c>
+      <c r="K60">
+        <v>787</v>
+      </c>
+      <c r="L60">
+        <v>451</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1070</v>
+      </c>
+      <c r="O60">
+        <v>313</v>
+      </c>
+      <c r="P60">
+        <v>1294</v>
+      </c>
+      <c r="Q60">
+        <v>1004</v>
+      </c>
+      <c r="R60">
         <v>103</v>
-      </c>
-      <c r="H60">
-        <v>4447</v>
-      </c>
-      <c r="I60">
-        <v>4602</v>
-      </c>
-      <c r="J60">
-        <v>56</v>
-      </c>
-      <c r="K60">
-        <v>504</v>
-      </c>
-      <c r="L60">
-        <v>196</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>893</v>
-      </c>
-      <c r="O60">
-        <v>185</v>
-      </c>
-      <c r="P60">
-        <v>1359</v>
-      </c>
-      <c r="Q60">
-        <v>774</v>
-      </c>
-      <c r="R60">
-        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3866,52 +3875,52 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
         <v>19</v>
       </c>
       <c r="E61">
-        <v>0.16</v>
+        <v>-683.78</v>
       </c>
       <c r="F61">
-        <v>0.16</v>
+        <v>-683.78</v>
       </c>
       <c r="G61">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="H61">
-        <v>4433</v>
+        <v>5422</v>
       </c>
       <c r="I61">
-        <v>4596</v>
+        <v>5583</v>
       </c>
       <c r="J61">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K61">
-        <v>502</v>
+        <v>755</v>
       </c>
       <c r="L61">
-        <v>196</v>
+        <v>449</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>867</v>
+        <v>1050</v>
       </c>
       <c r="O61">
-        <v>128</v>
+        <v>302</v>
       </c>
       <c r="P61">
-        <v>1359</v>
+        <v>1293</v>
       </c>
       <c r="Q61">
-        <v>769</v>
+        <v>1009</v>
       </c>
       <c r="R61">
-        <v>500</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -3922,52 +3931,52 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
         <v>19</v>
       </c>
       <c r="E62">
-        <v>-1091.77</v>
+        <v>-327</v>
       </c>
       <c r="F62">
-        <v>-1091.77</v>
+        <v>-327</v>
       </c>
       <c r="G62">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="H62">
-        <v>4430</v>
+        <v>5380</v>
       </c>
       <c r="I62">
-        <v>4578</v>
+        <v>5499</v>
       </c>
       <c r="J62">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K62">
-        <v>508</v>
+        <v>767</v>
       </c>
       <c r="L62">
-        <v>196</v>
+        <v>450</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>884</v>
+        <v>1066</v>
       </c>
       <c r="O62">
-        <v>84</v>
+        <v>304</v>
       </c>
       <c r="P62">
-        <v>1359</v>
+        <v>1292</v>
       </c>
       <c r="Q62">
-        <v>670</v>
+        <v>985</v>
       </c>
       <c r="R62">
-        <v>552</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -3978,52 +3987,52 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
       </c>
       <c r="E63">
-        <v>-588.15</v>
+        <v>-96.7</v>
       </c>
       <c r="F63">
-        <v>-588.15</v>
+        <v>-96.7</v>
       </c>
       <c r="G63">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="H63">
-        <v>4448</v>
+        <v>5463</v>
       </c>
       <c r="I63">
-        <v>4572</v>
+        <v>5488</v>
       </c>
       <c r="J63">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K63">
-        <v>514</v>
+        <v>791</v>
       </c>
       <c r="L63">
-        <v>196</v>
+        <v>450</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>785</v>
+        <v>1086</v>
       </c>
       <c r="O63">
-        <v>85</v>
+        <v>342</v>
       </c>
       <c r="P63">
-        <v>1358</v>
+        <v>1289</v>
       </c>
       <c r="Q63">
-        <v>646</v>
+        <v>980</v>
       </c>
       <c r="R63">
-        <v>546</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4034,52 +4043,52 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
       </c>
       <c r="E64">
-        <v>-75.48999999999999</v>
+        <v>-195.96</v>
       </c>
       <c r="F64">
-        <v>-75.48999999999999</v>
+        <v>-195.96</v>
       </c>
       <c r="G64">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="H64">
-        <v>4496</v>
+        <v>5481</v>
       </c>
       <c r="I64">
-        <v>4563</v>
+        <v>5475</v>
       </c>
       <c r="J64">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>528</v>
+        <v>782</v>
       </c>
       <c r="L64">
-        <v>196</v>
+        <v>454</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>831</v>
+        <v>1093</v>
       </c>
       <c r="O64">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="P64">
-        <v>1358</v>
+        <v>1306</v>
       </c>
       <c r="Q64">
-        <v>607</v>
+        <v>952</v>
       </c>
       <c r="R64">
-        <v>544</v>
+        <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4090,52 +4099,52 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
       </c>
       <c r="E65">
-        <v>-297.51</v>
+        <v>-92.2</v>
       </c>
       <c r="F65">
-        <v>-297.51</v>
+        <v>-92.2</v>
       </c>
       <c r="G65">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H65">
-        <v>4570</v>
+        <v>5555</v>
       </c>
       <c r="I65">
-        <v>4554</v>
+        <v>5462</v>
       </c>
       <c r="J65">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K65">
-        <v>537</v>
+        <v>768</v>
       </c>
       <c r="L65">
-        <v>196</v>
+        <v>464</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>859</v>
+        <v>1087</v>
       </c>
       <c r="O65">
-        <v>106</v>
+        <v>407</v>
       </c>
       <c r="P65">
-        <v>1359</v>
+        <v>1329</v>
       </c>
       <c r="Q65">
-        <v>579</v>
+        <v>963</v>
       </c>
       <c r="R65">
-        <v>570</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4146,52 +4155,52 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
       </c>
       <c r="E66">
-        <v>-42.22</v>
+        <v>-98.84</v>
       </c>
       <c r="F66">
-        <v>-42.22</v>
+        <v>-98.84</v>
       </c>
       <c r="G66">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="H66">
-        <v>4600</v>
+        <v>5570</v>
       </c>
       <c r="I66">
-        <v>4665</v>
+        <v>5812</v>
       </c>
       <c r="J66">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K66">
+        <v>790</v>
+      </c>
+      <c r="L66">
+        <v>619</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1155</v>
+      </c>
+      <c r="O66">
         <v>533</v>
       </c>
-      <c r="L66">
-        <v>197</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>1001</v>
-      </c>
-      <c r="O66">
-        <v>128</v>
-      </c>
       <c r="P66">
-        <v>1358</v>
+        <v>1328</v>
       </c>
       <c r="Q66">
-        <v>590</v>
+        <v>897</v>
       </c>
       <c r="R66">
-        <v>550</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -4202,52 +4211,43 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
       </c>
-      <c r="E67">
-        <v>-63.86</v>
-      </c>
-      <c r="F67">
-        <v>-63.86</v>
-      </c>
-      <c r="G67">
-        <v>96</v>
-      </c>
       <c r="H67">
-        <v>4626</v>
+        <v>5642</v>
       </c>
       <c r="I67">
-        <v>4649</v>
+        <v>5795</v>
       </c>
       <c r="J67">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K67">
-        <v>534</v>
+        <v>776</v>
       </c>
       <c r="L67">
-        <v>197</v>
+        <v>644</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>1011</v>
+        <v>1177</v>
       </c>
       <c r="O67">
-        <v>129</v>
+        <v>521</v>
       </c>
       <c r="P67">
-        <v>1359</v>
+        <v>1316</v>
       </c>
       <c r="Q67">
-        <v>548</v>
+        <v>840</v>
       </c>
       <c r="R67">
-        <v>539</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4258,52 +4258,52 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
       </c>
       <c r="E68">
-        <v>-374.71</v>
+        <v>-69.81</v>
       </c>
       <c r="F68">
-        <v>-374.71</v>
+        <v>-69.81</v>
       </c>
       <c r="G68">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="H68">
-        <v>4658</v>
+        <v>5696</v>
       </c>
       <c r="I68">
-        <v>4633</v>
+        <v>5777</v>
       </c>
       <c r="J68">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K68">
-        <v>547</v>
+        <v>743</v>
       </c>
       <c r="L68">
-        <v>198</v>
+        <v>645</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1043</v>
+        <v>1178</v>
       </c>
       <c r="O68">
-        <v>137</v>
+        <v>527</v>
       </c>
       <c r="P68">
-        <v>1358</v>
+        <v>1314</v>
       </c>
       <c r="Q68">
-        <v>508</v>
+        <v>760</v>
       </c>
       <c r="R68">
-        <v>531</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4314,52 +4314,52 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
       </c>
       <c r="E69">
-        <v>-903.05</v>
+        <v>-408.48</v>
       </c>
       <c r="F69">
-        <v>-903.05</v>
+        <v>-408.48</v>
       </c>
       <c r="G69">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="H69">
-        <v>4759</v>
+        <v>5772</v>
       </c>
       <c r="I69">
-        <v>4618</v>
+        <v>5762</v>
       </c>
       <c r="J69">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>557</v>
+        <v>735</v>
       </c>
       <c r="L69">
-        <v>200</v>
+        <v>645</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>1087</v>
+        <v>1192</v>
       </c>
       <c r="O69">
-        <v>147</v>
+        <v>532</v>
       </c>
       <c r="P69">
-        <v>1359</v>
+        <v>1316</v>
       </c>
       <c r="Q69">
-        <v>483</v>
+        <v>724</v>
       </c>
       <c r="R69">
-        <v>532</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4370,52 +4370,52 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
       </c>
       <c r="E70">
-        <v>-472.89</v>
+        <v>-95.98</v>
       </c>
       <c r="F70">
-        <v>-472.89</v>
+        <v>-95.98</v>
       </c>
       <c r="G70">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H70">
-        <v>4780</v>
+        <v>5781</v>
       </c>
       <c r="I70">
-        <v>4483</v>
+        <v>5684</v>
       </c>
       <c r="J70">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K70">
-        <v>527</v>
+        <v>731</v>
       </c>
       <c r="L70">
-        <v>198</v>
+        <v>644</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>1011</v>
+        <v>1198</v>
       </c>
       <c r="O70">
-        <v>112</v>
+        <v>557</v>
       </c>
       <c r="P70">
-        <v>1359</v>
+        <v>1315</v>
       </c>
       <c r="Q70">
-        <v>452</v>
+        <v>665</v>
       </c>
       <c r="R70">
-        <v>506</v>
+        <v>327</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -4426,52 +4426,52 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
       </c>
       <c r="E71">
-        <v>-656.41</v>
+        <v>-465.47</v>
       </c>
       <c r="F71">
-        <v>-656.41</v>
+        <v>-465.47</v>
       </c>
       <c r="G71">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="H71">
-        <v>4914</v>
+        <v>5847</v>
       </c>
       <c r="I71">
-        <v>4468</v>
+        <v>5668</v>
       </c>
       <c r="J71">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>541</v>
+        <v>737</v>
       </c>
       <c r="L71">
-        <v>198</v>
+        <v>648</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>1083</v>
+        <v>1217</v>
       </c>
       <c r="O71">
-        <v>130</v>
+        <v>561</v>
       </c>
       <c r="P71">
-        <v>1359</v>
+        <v>1316</v>
       </c>
       <c r="Q71">
-        <v>395</v>
+        <v>610</v>
       </c>
       <c r="R71">
-        <v>477</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -4482,52 +4482,52 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
       </c>
       <c r="E72">
-        <v>-2731.98</v>
+        <v>-2375.12</v>
       </c>
       <c r="F72">
-        <v>-2731.98</v>
+        <v>-2375.12</v>
       </c>
       <c r="G72">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="H72">
-        <v>5037</v>
+        <v>5961</v>
       </c>
       <c r="I72">
-        <v>4451</v>
+        <v>5660</v>
       </c>
       <c r="J72">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>561</v>
+        <v>767</v>
       </c>
       <c r="L72">
-        <v>201</v>
+        <v>650</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>1203</v>
+        <v>1282</v>
       </c>
       <c r="O72">
-        <v>145</v>
+        <v>581</v>
       </c>
       <c r="P72">
-        <v>1359</v>
+        <v>1316</v>
       </c>
       <c r="Q72">
+        <v>563</v>
+      </c>
+      <c r="R72">
         <v>339</v>
-      </c>
-      <c r="R72">
-        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -4538,52 +4538,52 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
       </c>
       <c r="E73">
-        <v>-3033.98</v>
+        <v>-5550.96</v>
       </c>
       <c r="F73">
-        <v>-3033.98</v>
+        <v>-5550.96</v>
       </c>
       <c r="G73">
-        <v>-2</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>5115</v>
+        <v>6037</v>
       </c>
       <c r="I73">
-        <v>4436</v>
+        <v>5642</v>
       </c>
       <c r="J73">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>565</v>
+        <v>770</v>
       </c>
       <c r="L73">
-        <v>205</v>
+        <v>651</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>1217</v>
+        <v>1291</v>
       </c>
       <c r="O73">
-        <v>191</v>
+        <v>736</v>
       </c>
       <c r="P73">
-        <v>1359</v>
+        <v>1334</v>
       </c>
       <c r="Q73">
-        <v>287</v>
+        <v>501</v>
       </c>
       <c r="R73">
-        <v>439</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -4594,52 +4594,52 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
       </c>
       <c r="E74">
-        <v>-266.44</v>
+        <v>-283.24</v>
       </c>
       <c r="F74">
-        <v>-266.44</v>
+        <v>-283.24</v>
       </c>
       <c r="G74">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="H74">
-        <v>5151</v>
+        <v>6017</v>
       </c>
       <c r="I74">
-        <v>4707</v>
+        <v>5771</v>
       </c>
       <c r="J74">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K74">
-        <v>541</v>
+        <v>739</v>
       </c>
       <c r="L74">
-        <v>211</v>
+        <v>652</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>1187</v>
+        <v>1314</v>
       </c>
       <c r="O74">
-        <v>451</v>
+        <v>867</v>
       </c>
       <c r="P74">
-        <v>1359</v>
+        <v>1347</v>
       </c>
       <c r="Q74">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="R74">
-        <v>455</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -4650,52 +4650,52 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
       </c>
       <c r="E75">
-        <v>-170.85</v>
+        <v>-621.49</v>
       </c>
       <c r="F75">
-        <v>-170.85</v>
+        <v>-621.49</v>
       </c>
       <c r="G75">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H75">
-        <v>5234</v>
+        <v>6118</v>
       </c>
       <c r="I75">
-        <v>4687</v>
+        <v>5752</v>
       </c>
       <c r="J75">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>537</v>
+        <v>733</v>
       </c>
       <c r="L75">
-        <v>213</v>
+        <v>651</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>1182</v>
+        <v>1333</v>
       </c>
       <c r="O75">
-        <v>549</v>
+        <v>871</v>
       </c>
       <c r="P75">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="Q75">
-        <v>163</v>
+        <v>379</v>
       </c>
       <c r="R75">
-        <v>419</v>
+        <v>344</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -4706,52 +4706,52 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
       </c>
       <c r="E76">
-        <v>-3095.84</v>
+        <v>-5211.25</v>
       </c>
       <c r="F76">
-        <v>-3095.84</v>
+        <v>-5211.25</v>
       </c>
       <c r="G76">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H76">
-        <v>5319</v>
+        <v>6300</v>
       </c>
       <c r="I76">
-        <v>4677</v>
+        <v>5741</v>
       </c>
       <c r="J76">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K76">
-        <v>549</v>
+        <v>754</v>
       </c>
       <c r="L76">
-        <v>215</v>
+        <v>651</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>1241</v>
+        <v>1414</v>
       </c>
       <c r="O76">
-        <v>648</v>
+        <v>887</v>
       </c>
       <c r="P76">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="Q76">
-        <v>140</v>
+        <v>297</v>
       </c>
       <c r="R76">
-        <v>421</v>
+        <v>371</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -4762,52 +4762,52 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
       <c r="E77">
-        <v>-344.99</v>
+        <v>-160.48</v>
       </c>
       <c r="F77">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="H77">
-        <v>5347</v>
+        <v>6386</v>
       </c>
       <c r="I77">
-        <v>4666</v>
+        <v>5729</v>
       </c>
       <c r="J77">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K77">
-        <v>592</v>
+        <v>824</v>
       </c>
       <c r="L77">
-        <v>218</v>
+        <v>654</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>1238</v>
+        <v>1430</v>
       </c>
       <c r="O77">
-        <v>697</v>
+        <v>916</v>
       </c>
       <c r="P77">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="Q77">
-        <v>111</v>
+        <v>233</v>
       </c>
       <c r="R77">
-        <v>448</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -4818,52 +4818,52 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
       </c>
       <c r="E78">
-        <v>-3776.7</v>
+        <v>-5801.06</v>
       </c>
       <c r="F78">
-        <v>-3776.7</v>
+        <v>-5801.06</v>
       </c>
       <c r="G78">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H78">
-        <v>5401</v>
+        <v>6458</v>
       </c>
       <c r="I78">
-        <v>4841</v>
+        <v>5760</v>
       </c>
       <c r="J78">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>594</v>
+        <v>886</v>
       </c>
       <c r="L78">
-        <v>217</v>
+        <v>657</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>1215</v>
+        <v>1294</v>
       </c>
       <c r="O78">
-        <v>875</v>
+        <v>988</v>
       </c>
       <c r="P78">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="Q78">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="R78">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -4874,52 +4874,52 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
       </c>
       <c r="E79">
-        <v>-3611.95</v>
+        <v>-5000</v>
       </c>
       <c r="F79">
-        <v>-3611.95</v>
+        <v>4000</v>
       </c>
       <c r="G79">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H79">
-        <v>5565</v>
+        <v>6578</v>
       </c>
       <c r="I79">
-        <v>4831</v>
+        <v>5751</v>
       </c>
       <c r="J79">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K79">
-        <v>601</v>
+        <v>894</v>
       </c>
       <c r="L79">
-        <v>225</v>
+        <v>660</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>1286</v>
+        <v>1320</v>
       </c>
       <c r="O79">
-        <v>908</v>
+        <v>1016</v>
       </c>
       <c r="P79">
-        <v>1359</v>
+        <v>1351</v>
       </c>
       <c r="Q79">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="R79">
-        <v>371</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -4930,52 +4930,52 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
       </c>
       <c r="E80">
-        <v>4120.19</v>
+        <v>4008.74</v>
       </c>
       <c r="F80">
-        <v>4120.19</v>
+        <v>4008.74</v>
       </c>
       <c r="G80">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="H80">
-        <v>5648</v>
+        <v>6686</v>
       </c>
       <c r="I80">
-        <v>4823</v>
+        <v>5744</v>
       </c>
       <c r="J80">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>627</v>
+        <v>906</v>
       </c>
       <c r="L80">
-        <v>230</v>
+        <v>660</v>
       </c>
       <c r="M80">
         <v>0</v>
       </c>
       <c r="N80">
+        <v>1348</v>
+      </c>
+      <c r="O80">
+        <v>1028</v>
+      </c>
+      <c r="P80">
         <v>1351</v>
       </c>
-      <c r="O80">
-        <v>929</v>
-      </c>
-      <c r="P80">
-        <v>1359</v>
-      </c>
       <c r="Q80">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="R80">
-        <v>347</v>
+        <v>466</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -4986,52 +4986,52 @@
         <v>80</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
       </c>
       <c r="E81">
-        <v>3686.79</v>
+        <v>4545.64</v>
       </c>
       <c r="F81">
-        <v>3686.79</v>
+        <v>4545.64</v>
       </c>
       <c r="G81">
-        <v>-59</v>
+        <v>22</v>
       </c>
       <c r="H81">
-        <v>5771</v>
+        <v>6678</v>
       </c>
       <c r="I81">
-        <v>4817</v>
+        <v>5738</v>
       </c>
       <c r="J81">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>633</v>
+        <v>906</v>
       </c>
       <c r="L81">
-        <v>232</v>
+        <v>661</v>
       </c>
       <c r="M81">
         <v>0</v>
       </c>
       <c r="N81">
-        <v>1382</v>
+        <v>1339</v>
       </c>
       <c r="O81">
-        <v>944</v>
+        <v>1037</v>
       </c>
       <c r="P81">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="Q81">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="R81">
-        <v>314</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5042,52 +5042,52 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
         <v>19</v>
       </c>
       <c r="E82">
-        <v>23.45</v>
+        <v>-5000</v>
       </c>
       <c r="F82">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="G82">
-        <v>-27</v>
+        <v>65</v>
       </c>
       <c r="H82">
-        <v>5788</v>
+        <v>6785</v>
       </c>
       <c r="I82">
-        <v>4749</v>
+        <v>5714</v>
       </c>
       <c r="J82">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>616</v>
+        <v>895</v>
       </c>
       <c r="L82">
-        <v>231</v>
+        <v>661</v>
       </c>
       <c r="M82">
         <v>0</v>
       </c>
       <c r="N82">
-        <v>1301</v>
+        <v>1319</v>
       </c>
       <c r="O82">
-        <v>915</v>
+        <v>1013</v>
       </c>
       <c r="P82">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="Q82">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="R82">
-        <v>272</v>
+        <v>599</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5098,52 +5098,52 @@
         <v>82</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
       </c>
       <c r="E83">
-        <v>4488.7</v>
+        <v>-5000</v>
       </c>
       <c r="F83">
-        <v>4488.7</v>
+        <v>4000</v>
       </c>
       <c r="G83">
-        <v>-56</v>
+        <v>48</v>
       </c>
       <c r="H83">
-        <v>5872</v>
+        <v>6899</v>
       </c>
       <c r="I83">
-        <v>4747</v>
+        <v>5712</v>
       </c>
       <c r="J83">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>647</v>
+        <v>892</v>
       </c>
       <c r="L83">
-        <v>237</v>
+        <v>662</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>1373</v>
+        <v>1319</v>
       </c>
       <c r="O83">
-        <v>917</v>
+        <v>1017</v>
       </c>
       <c r="P83">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R83">
-        <v>225</v>
+        <v>633</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5154,52 +5154,52 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
       </c>
       <c r="E84">
-        <v>4097.47</v>
+        <v>-1483.59</v>
       </c>
       <c r="F84">
-        <v>4097.47</v>
+        <v>-1483.59</v>
       </c>
       <c r="G84">
-        <v>-60</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>5912</v>
+        <v>7011</v>
       </c>
       <c r="I84">
-        <v>4745</v>
+        <v>5711</v>
       </c>
       <c r="J84">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>669</v>
+        <v>808</v>
       </c>
       <c r="L84">
-        <v>242</v>
+        <v>658</v>
       </c>
       <c r="M84">
         <v>0</v>
       </c>
       <c r="N84">
-        <v>1379</v>
+        <v>1338</v>
       </c>
       <c r="O84">
-        <v>923</v>
+        <v>1030</v>
       </c>
       <c r="P84">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R84">
-        <v>206</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5210,52 +5210,52 @@
         <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E85">
-        <v>3083.75</v>
+        <v>-4352.59</v>
       </c>
       <c r="F85">
-        <v>3083.75</v>
+        <v>-4352.59</v>
       </c>
       <c r="G85">
-        <v>-83</v>
+        <v>24</v>
       </c>
       <c r="H85">
-        <v>6017</v>
+        <v>7028</v>
       </c>
       <c r="I85">
-        <v>4744</v>
+        <v>5710</v>
       </c>
       <c r="J85">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>690</v>
+        <v>764</v>
       </c>
       <c r="L85">
-        <v>278</v>
+        <v>660</v>
       </c>
       <c r="M85">
         <v>0</v>
       </c>
       <c r="N85">
-        <v>1380</v>
+        <v>1368</v>
       </c>
       <c r="O85">
-        <v>940</v>
+        <v>1038</v>
       </c>
       <c r="P85">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q85">
         <v>0</v>
       </c>
       <c r="R85">
-        <v>196</v>
+        <v>606</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5266,52 +5266,52 @@
         <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E86">
-        <v>3145.56</v>
+        <v>-614.99</v>
       </c>
       <c r="F86">
-        <v>3145.56</v>
+        <v>-614.99</v>
       </c>
       <c r="G86">
-        <v>-73</v>
+        <v>34</v>
       </c>
       <c r="H86">
-        <v>6128</v>
+        <v>7163</v>
       </c>
       <c r="I86">
-        <v>4701</v>
+        <v>5716</v>
       </c>
       <c r="J86">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>694</v>
+        <v>739</v>
       </c>
       <c r="L86">
-        <v>281</v>
+        <v>659</v>
       </c>
       <c r="M86">
         <v>0</v>
       </c>
       <c r="N86">
-        <v>1364</v>
+        <v>1318</v>
       </c>
       <c r="O86">
-        <v>942</v>
+        <v>1035</v>
       </c>
       <c r="P86">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="Q86">
         <v>0</v>
       </c>
       <c r="R86">
-        <v>184</v>
+        <v>615</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5322,52 +5322,52 @@
         <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E87">
-        <v>3208.23</v>
+        <v>-1124.22</v>
       </c>
       <c r="F87">
-        <v>3208.23</v>
+        <v>-1124.22</v>
       </c>
       <c r="G87">
-        <v>-89</v>
+        <v>26</v>
       </c>
       <c r="H87">
-        <v>6180</v>
+        <v>7202</v>
       </c>
       <c r="I87">
-        <v>4700</v>
+        <v>5715</v>
       </c>
       <c r="J87">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="L87">
-        <v>283</v>
+        <v>660</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>1373</v>
+        <v>1325</v>
       </c>
       <c r="O87">
-        <v>947</v>
+        <v>1037</v>
       </c>
       <c r="P87">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="Q87">
         <v>0</v>
       </c>
       <c r="R87">
-        <v>169</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -5378,52 +5378,52 @@
         <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E88">
-        <v>3207.96</v>
+        <v>-6832.65</v>
       </c>
       <c r="F88">
-        <v>3207.96</v>
+        <v>-6832.65</v>
       </c>
       <c r="G88">
-        <v>-84</v>
+        <v>18</v>
       </c>
       <c r="H88">
-        <v>6186</v>
+        <v>7231</v>
       </c>
       <c r="I88">
-        <v>4699</v>
+        <v>5714</v>
       </c>
       <c r="J88">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K88">
-        <v>697</v>
+        <v>763</v>
       </c>
       <c r="L88">
-        <v>283</v>
+        <v>664</v>
       </c>
       <c r="M88">
         <v>0</v>
       </c>
       <c r="N88">
-        <v>1377</v>
+        <v>1363</v>
       </c>
       <c r="O88">
-        <v>948</v>
+        <v>1053</v>
       </c>
       <c r="P88">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="Q88">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>165</v>
+        <v>583</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -5434,52 +5434,52 @@
         <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E89">
-        <v>3186.11</v>
+        <v>-1846.5</v>
       </c>
       <c r="F89">
-        <v>3186.11</v>
+        <v>-1846.5</v>
       </c>
       <c r="G89">
-        <v>-66</v>
+        <v>25</v>
       </c>
       <c r="H89">
-        <v>6078</v>
+        <v>7064</v>
       </c>
       <c r="I89">
-        <v>4699</v>
+        <v>5713</v>
       </c>
       <c r="J89">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>693</v>
+        <v>750</v>
       </c>
       <c r="L89">
-        <v>283</v>
+        <v>661</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>1369</v>
+        <v>1336</v>
       </c>
       <c r="O89">
-        <v>945</v>
+        <v>1047</v>
       </c>
       <c r="P89">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="Q89">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>170</v>
+        <v>558</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -5490,52 +5490,52 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E90">
-        <v>2846.72</v>
+        <v>-234.56</v>
       </c>
       <c r="F90">
-        <v>2846.72</v>
+        <v>4000</v>
       </c>
       <c r="G90">
-        <v>-64</v>
+        <v>-29</v>
       </c>
       <c r="H90">
-        <v>5954</v>
+        <v>6971</v>
       </c>
       <c r="I90">
-        <v>4559</v>
+        <v>5596</v>
       </c>
       <c r="J90">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>688</v>
+        <v>776</v>
       </c>
       <c r="L90">
-        <v>280</v>
+        <v>670</v>
       </c>
       <c r="M90">
         <v>0</v>
       </c>
       <c r="N90">
-        <v>1328</v>
+        <v>1424</v>
       </c>
       <c r="O90">
-        <v>859</v>
+        <v>973</v>
       </c>
       <c r="P90">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>163</v>
+        <v>522</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -5546,52 +5546,52 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
       </c>
       <c r="E91">
-        <v>4010.12</v>
+        <v>-409.64</v>
       </c>
       <c r="F91">
-        <v>4010.12</v>
+        <v>4000</v>
       </c>
       <c r="G91">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="H91">
-        <v>5775</v>
+        <v>6775</v>
       </c>
       <c r="I91">
-        <v>4558</v>
+        <v>5595</v>
       </c>
       <c r="J91">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>654</v>
+        <v>858</v>
       </c>
       <c r="L91">
-        <v>235</v>
+        <v>670</v>
       </c>
       <c r="M91">
         <v>0</v>
       </c>
       <c r="N91">
-        <v>1286</v>
+        <v>1396</v>
       </c>
       <c r="O91">
-        <v>845</v>
+        <v>968</v>
       </c>
       <c r="P91">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="Q91">
         <v>0</v>
       </c>
       <c r="R91">
-        <v>163</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -5608,46 +5608,46 @@
         <v>19</v>
       </c>
       <c r="E92">
-        <v>-5000</v>
+        <v>4767.52</v>
       </c>
       <c r="F92">
-        <v>4000</v>
+        <v>4767.52</v>
       </c>
       <c r="G92">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="H92">
-        <v>5702</v>
+        <v>6659</v>
       </c>
       <c r="I92">
-        <v>4558</v>
+        <v>5594</v>
       </c>
       <c r="J92">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>638</v>
+        <v>902</v>
       </c>
       <c r="L92">
-        <v>232</v>
+        <v>668</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
-        <v>1247</v>
+        <v>1340</v>
       </c>
       <c r="O92">
-        <v>831</v>
+        <v>951</v>
       </c>
       <c r="P92">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="Q92">
         <v>0</v>
       </c>
       <c r="R92">
-        <v>163</v>
+        <v>460</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -5664,46 +5664,46 @@
         <v>19</v>
       </c>
       <c r="E93">
-        <v>-5010.98</v>
+        <v>-5007.59</v>
       </c>
       <c r="F93">
-        <v>-5010.98</v>
+        <v>-5007.59</v>
       </c>
       <c r="G93">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H93">
-        <v>5519</v>
+        <v>6395</v>
       </c>
       <c r="I93">
-        <v>4557</v>
+        <v>5593</v>
       </c>
       <c r="J93">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>630</v>
+        <v>883</v>
       </c>
       <c r="L93">
-        <v>228</v>
+        <v>663</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>1223</v>
+        <v>1296</v>
       </c>
       <c r="O93">
-        <v>816</v>
+        <v>940</v>
       </c>
       <c r="P93">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="Q93">
         <v>0</v>
       </c>
       <c r="R93">
-        <v>163</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -5719,38 +5719,47 @@
       <c r="D94" t="s">
         <v>19</v>
       </c>
+      <c r="E94">
+        <v>-5000</v>
+      </c>
+      <c r="F94">
+        <v>4000</v>
+      </c>
+      <c r="G94">
+        <v>-31</v>
+      </c>
       <c r="H94">
-        <v>5427</v>
+        <v>6276</v>
       </c>
       <c r="I94">
-        <v>4259</v>
+        <v>5375</v>
       </c>
       <c r="J94">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>650</v>
+        <v>892</v>
       </c>
       <c r="L94">
-        <v>234</v>
+        <v>666</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>1337</v>
+        <v>1282</v>
       </c>
       <c r="O94">
-        <v>570</v>
+        <v>863</v>
       </c>
       <c r="P94">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="Q94">
         <v>0</v>
       </c>
       <c r="R94">
-        <v>156</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -5764,49 +5773,49 @@
         <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E95">
-        <v>1536.17</v>
+        <v>-5000</v>
       </c>
       <c r="F95">
-        <v>1536.17</v>
+        <v>4000</v>
       </c>
       <c r="G95">
-        <v>-87</v>
+        <v>-4</v>
       </c>
       <c r="H95">
-        <v>5412</v>
+        <v>6163</v>
       </c>
       <c r="I95">
-        <v>4259</v>
+        <v>5374</v>
       </c>
       <c r="J95">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>681</v>
+        <v>897</v>
       </c>
       <c r="L95">
-        <v>268</v>
+        <v>665</v>
       </c>
       <c r="M95">
         <v>0</v>
       </c>
       <c r="N95">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="O95">
-        <v>753</v>
+        <v>861</v>
       </c>
       <c r="P95">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="Q95">
         <v>0</v>
       </c>
       <c r="R95">
-        <v>152</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -5820,49 +5829,49 @@
         <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E96">
-        <v>1902.77</v>
+        <v>-5783.55</v>
       </c>
       <c r="F96">
-        <v>1902.77</v>
+        <v>-5783.55</v>
       </c>
       <c r="G96">
-        <v>-73</v>
+        <v>4</v>
       </c>
       <c r="H96">
-        <v>5245</v>
+        <v>6040</v>
       </c>
       <c r="I96">
-        <v>4259</v>
+        <v>5373</v>
       </c>
       <c r="J96">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K96">
-        <v>659</v>
+        <v>893</v>
       </c>
       <c r="L96">
-        <v>269</v>
+        <v>665</v>
       </c>
       <c r="M96">
         <v>0</v>
       </c>
       <c r="N96">
-        <v>1220</v>
+        <v>1274</v>
       </c>
       <c r="O96">
-        <v>778</v>
+        <v>857</v>
       </c>
       <c r="P96">
-        <v>1351</v>
+        <v>1354</v>
       </c>
       <c r="Q96">
         <v>0</v>
       </c>
       <c r="R96">
-        <v>146</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -5876,49 +5885,49 @@
         <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E97">
-        <v>6348.82</v>
+        <v>-5000</v>
       </c>
       <c r="F97">
-        <v>6348.82</v>
+        <v>-5000</v>
       </c>
       <c r="G97">
-        <v>-36</v>
+        <v>16</v>
       </c>
       <c r="H97">
-        <v>5150</v>
+        <v>5955</v>
       </c>
       <c r="I97">
-        <v>4258</v>
+        <v>5372</v>
       </c>
       <c r="J97">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>644</v>
+        <v>877</v>
       </c>
       <c r="L97">
-        <v>266</v>
+        <v>661</v>
       </c>
       <c r="M97">
         <v>0</v>
       </c>
       <c r="N97">
-        <v>1173</v>
+        <v>1233</v>
       </c>
       <c r="O97">
-        <v>755</v>
+        <v>842</v>
       </c>
       <c r="P97">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="Q97">
         <v>0</v>
       </c>
       <c r="R97">
-        <v>151</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
